--- a/dnevnik.xlsx
+++ b/dnevnik.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pro\AdDiary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7992" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные пациента" sheetId="4" r:id="rId1"/>
@@ -15,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'ежедневные данные'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author>пользователь</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +600,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
@@ -941,6 +946,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -974,12 +985,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -990,12 +995,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1230,6 +1238,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9890-4D3C-AADF-64EFFDFD616C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1415,6 +1428,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9890-4D3C-AADF-64EFFDFD616C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1600,6 +1618,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9890-4D3C-AADF-64EFFDFD616C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1609,7 +1632,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="53229056"/>
         <c:axId val="53230592"/>
@@ -1719,7 +1741,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1964,6 +1986,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1C6-4AFC-BBDF-E1DF060B2297}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2149,6 +2176,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1C6-4AFC-BBDF-E1DF060B2297}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2334,6 +2366,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D1C6-4AFC-BBDF-E1DF060B2297}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2343,7 +2380,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="53273344"/>
         <c:axId val="53274880"/>
@@ -2455,7 +2491,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2700,6 +2736,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CB7-48F1-9021-986975C81594}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2885,6 +2926,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0CB7-48F1-9021-986975C81594}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3070,6 +3116,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0CB7-48F1-9021-986975C81594}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3079,7 +3130,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="53309440"/>
         <c:axId val="53310976"/>
@@ -3191,7 +3241,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3345,7 +3395,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3426,6 +3476,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7E4-45AA-BAA6-4706AC119451}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3530,7 +3585,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3611,6 +3666,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F7E4-45AA-BAA6-4706AC119451}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3715,7 +3775,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3796,6 +3856,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F7E4-45AA-BAA6-4706AC119451}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3805,7 +3870,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="53330688"/>
         <c:axId val="53332224"/>
@@ -3933,7 +3997,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2049" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2049" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3965,7 +4035,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2050" name="Диаграмма 5"/>
+        <xdr:cNvPr id="2050" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3997,7 +4073,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2051" name="Диаграмма 7"/>
+        <xdr:cNvPr id="2051" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4029,7 +4111,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2052" name="Диаграмма 8"/>
+        <xdr:cNvPr id="2052" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4092,7 +4180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4125,9 +4213,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4160,6 +4265,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -4342,47 +4464,47 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="27" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="27" t="s">
         <v>16</v>
       </c>
@@ -4419,50 +4541,50 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="5.6640625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" style="24" customWidth="1"/>
+    <col min="2" max="13" width="5.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" style="24" customWidth="1"/>
     <col min="15" max="15" width="32" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="24"/>
+    <col min="16" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="34" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="42" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>43158</v>
       </c>
@@ -4497,7 +4619,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>43159</v>
       </c>
@@ -4522,9 +4644,15 @@
       <c r="J3" s="20">
         <v>97</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
+      <c r="K3" s="18">
+        <v>120</v>
+      </c>
+      <c r="L3" s="19">
+        <v>80</v>
+      </c>
+      <c r="M3" s="20">
+        <v>97</v>
+      </c>
       <c r="N3" s="18" t="s">
         <v>72</v>
       </c>
@@ -4532,7 +4660,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
@@ -4549,7 +4677,7 @@
       <c r="N4" s="22"/>
       <c r="O4" s="17"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -4566,7 +4694,7 @@
       <c r="N5" s="22"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -4583,7 +4711,7 @@
       <c r="N6" s="18"/>
       <c r="O6" s="20"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
@@ -4600,7 +4728,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
@@ -4617,7 +4745,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
@@ -4634,7 +4762,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
@@ -4651,7 +4779,7 @@
       <c r="N10" s="18"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
@@ -4668,7 +4796,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
@@ -4685,7 +4813,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
@@ -4702,7 +4830,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
@@ -4719,7 +4847,7 @@
       <c r="N14" s="18"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
@@ -4736,7 +4864,7 @@
       <c r="N15" s="18"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
@@ -4753,7 +4881,7 @@
       <c r="N16" s="18"/>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
@@ -4770,7 +4898,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="20"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
@@ -4787,7 +4915,7 @@
       <c r="N18" s="22"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
@@ -4804,7 +4932,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -4821,7 +4949,7 @@
       <c r="N20" s="18"/>
       <c r="O20" s="20"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -4838,7 +4966,7 @@
       <c r="N21" s="18"/>
       <c r="O21" s="20"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -4855,7 +4983,7 @@
       <c r="N22" s="18"/>
       <c r="O22" s="20"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -4872,7 +5000,7 @@
       <c r="N23" s="18"/>
       <c r="O23" s="20"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -4889,7 +5017,7 @@
       <c r="N24" s="18"/>
       <c r="O24" s="20"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -4906,7 +5034,7 @@
       <c r="N25" s="22"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
@@ -4923,7 +5051,7 @@
       <c r="N26" s="22"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
@@ -4940,7 +5068,7 @@
       <c r="N27" s="18"/>
       <c r="O27" s="20"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -4957,7 +5085,7 @@
       <c r="N28" s="18"/>
       <c r="O28" s="20"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
@@ -4974,7 +5102,7 @@
       <c r="N29" s="18"/>
       <c r="O29" s="20"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
@@ -4991,7 +5119,7 @@
       <c r="N30" s="18"/>
       <c r="O30" s="20"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
@@ -5008,7 +5136,7 @@
       <c r="N31" s="18"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
@@ -5025,7 +5153,7 @@
       <c r="N32" s="22"/>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
@@ -5042,7 +5170,7 @@
       <c r="N33" s="22"/>
       <c r="O33" s="17"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -5059,7 +5187,7 @@
       <c r="N34" s="18"/>
       <c r="O34" s="20"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
@@ -5076,7 +5204,7 @@
       <c r="N35" s="18"/>
       <c r="O35" s="20"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
@@ -5093,7 +5221,7 @@
       <c r="N36" s="18"/>
       <c r="O36" s="20"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
@@ -5110,7 +5238,7 @@
       <c r="N37" s="18"/>
       <c r="O37" s="20"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
@@ -5127,7 +5255,7 @@
       <c r="N38" s="18"/>
       <c r="O38" s="20"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="23"/>
@@ -5144,7 +5272,7 @@
       <c r="N39" s="22"/>
       <c r="O39" s="17"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="23"/>
@@ -5161,7 +5289,7 @@
       <c r="N40" s="22"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
@@ -5178,7 +5306,7 @@
       <c r="N41" s="18"/>
       <c r="O41" s="20"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -5195,7 +5323,7 @@
       <c r="N42" s="18"/>
       <c r="O42" s="20"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
@@ -5212,7 +5340,7 @@
       <c r="N43" s="18"/>
       <c r="O43" s="20"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -5229,7 +5357,7 @@
       <c r="N44" s="18"/>
       <c r="O44" s="20"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
@@ -5246,7 +5374,7 @@
       <c r="N45" s="18"/>
       <c r="O45" s="20"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="23"/>
@@ -5263,7 +5391,7 @@
       <c r="N46" s="22"/>
       <c r="O46" s="17"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="23"/>
@@ -5280,7 +5408,7 @@
       <c r="N47" s="22"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
@@ -5297,7 +5425,7 @@
       <c r="N48" s="18"/>
       <c r="O48" s="20"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
@@ -5314,7 +5442,7 @@
       <c r="N49" s="18"/>
       <c r="O49" s="20"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
@@ -5331,7 +5459,7 @@
       <c r="N50" s="18"/>
       <c r="O50" s="20"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
@@ -5348,7 +5476,7 @@
       <c r="N51" s="18"/>
       <c r="O51" s="20"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
@@ -5365,7 +5493,7 @@
       <c r="N52" s="18"/>
       <c r="O52" s="20"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="23"/>
@@ -5382,7 +5510,7 @@
       <c r="N53" s="22"/>
       <c r="O53" s="17"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="23"/>
@@ -5399,7 +5527,7 @@
       <c r="N54" s="22"/>
       <c r="O54" s="17"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
@@ -5416,7 +5544,7 @@
       <c r="N55" s="18"/>
       <c r="O55" s="20"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
@@ -5433,7 +5561,7 @@
       <c r="N56" s="18"/>
       <c r="O56" s="20"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
@@ -5450,7 +5578,7 @@
       <c r="N57" s="18"/>
       <c r="O57" s="20"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
@@ -5467,7 +5595,7 @@
       <c r="N58" s="18"/>
       <c r="O58" s="20"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
@@ -5484,7 +5612,7 @@
       <c r="N59" s="18"/>
       <c r="O59" s="20"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="23"/>
@@ -5501,7 +5629,7 @@
       <c r="N60" s="22"/>
       <c r="O60" s="17"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="23"/>
@@ -5518,7 +5646,7 @@
       <c r="N61" s="22"/>
       <c r="O61" s="17"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
@@ -5535,7 +5663,7 @@
       <c r="N62" s="18"/>
       <c r="O62" s="20"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
@@ -5552,7 +5680,7 @@
       <c r="N63" s="18"/>
       <c r="O63" s="20"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
@@ -5569,7 +5697,7 @@
       <c r="N64" s="18"/>
       <c r="O64" s="20"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
@@ -5586,7 +5714,7 @@
       <c r="N65" s="18"/>
       <c r="O65" s="20"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
@@ -5603,7 +5731,7 @@
       <c r="N66" s="18"/>
       <c r="O66" s="20"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="23"/>
@@ -5620,7 +5748,7 @@
       <c r="N67" s="22"/>
       <c r="O67" s="17"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="23"/>
@@ -5637,7 +5765,7 @@
       <c r="N68" s="22"/>
       <c r="O68" s="17"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
@@ -5654,7 +5782,7 @@
       <c r="N69" s="18"/>
       <c r="O69" s="20"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
@@ -5671,7 +5799,7 @@
       <c r="N70" s="18"/>
       <c r="O70" s="20"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
@@ -5688,7 +5816,7 @@
       <c r="N71" s="18"/>
       <c r="O71" s="20"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
@@ -5705,7 +5833,7 @@
       <c r="N72" s="18"/>
       <c r="O72" s="20"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
@@ -5722,7 +5850,7 @@
       <c r="N73" s="18"/>
       <c r="O73" s="20"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="23"/>
@@ -5739,7 +5867,7 @@
       <c r="N74" s="22"/>
       <c r="O74" s="17"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="23"/>
@@ -5756,7 +5884,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="17"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
@@ -5773,7 +5901,7 @@
       <c r="N76" s="18"/>
       <c r="O76" s="20"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
@@ -5790,7 +5918,7 @@
       <c r="N77" s="18"/>
       <c r="O77" s="20"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
@@ -5807,7 +5935,7 @@
       <c r="N78" s="18"/>
       <c r="O78" s="20"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
@@ -5824,7 +5952,7 @@
       <c r="N79" s="18"/>
       <c r="O79" s="20"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="25"/>
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
@@ -5841,7 +5969,7 @@
       <c r="N80" s="18"/>
       <c r="O80" s="20"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="23"/>
@@ -5858,7 +5986,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="17"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="23"/>
@@ -5875,7 +6003,7 @@
       <c r="N82" s="22"/>
       <c r="O82" s="17"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
       <c r="B83" s="18"/>
       <c r="C83" s="19"/>
@@ -5892,7 +6020,7 @@
       <c r="N83" s="18"/>
       <c r="O83" s="20"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
       <c r="B84" s="18"/>
       <c r="C84" s="19"/>
@@ -5909,7 +6037,7 @@
       <c r="N84" s="18"/>
       <c r="O84" s="20"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
       <c r="B85" s="18"/>
       <c r="C85" s="19"/>
@@ -5926,7 +6054,7 @@
       <c r="N85" s="18"/>
       <c r="O85" s="20"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
       <c r="B86" s="18"/>
       <c r="C86" s="19"/>
@@ -5943,7 +6071,7 @@
       <c r="N86" s="18"/>
       <c r="O86" s="20"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>
       <c r="B87" s="18"/>
       <c r="C87" s="19"/>
@@ -5960,7 +6088,7 @@
       <c r="N87" s="18"/>
       <c r="O87" s="20"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="23"/>
@@ -5977,7 +6105,7 @@
       <c r="N88" s="22"/>
       <c r="O88" s="17"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="23"/>
@@ -5994,7 +6122,7 @@
       <c r="N89" s="22"/>
       <c r="O89" s="17"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
       <c r="B90" s="18"/>
       <c r="C90" s="19"/>
@@ -6011,7 +6139,7 @@
       <c r="N90" s="18"/>
       <c r="O90" s="20"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
       <c r="B91" s="18"/>
       <c r="C91" s="19"/>
@@ -6028,7 +6156,7 @@
       <c r="N91" s="18"/>
       <c r="O91" s="20"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="25"/>
       <c r="B92" s="18"/>
       <c r="C92" s="19"/>
@@ -6045,7 +6173,7 @@
       <c r="N92" s="18"/>
       <c r="O92" s="20"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
       <c r="B93" s="18"/>
       <c r="C93" s="19"/>
@@ -6062,7 +6190,7 @@
       <c r="N93" s="18"/>
       <c r="O93" s="20"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
       <c r="B94" s="18"/>
       <c r="C94" s="19"/>
@@ -6079,7 +6207,7 @@
       <c r="N94" s="18"/>
       <c r="O94" s="20"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="23"/>
@@ -6096,7 +6224,7 @@
       <c r="N95" s="22"/>
       <c r="O95" s="17"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="23"/>
@@ -6113,7 +6241,7 @@
       <c r="N96" s="22"/>
       <c r="O96" s="17"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="B97" s="18"/>
       <c r="C97" s="19"/>
@@ -6130,7 +6258,7 @@
       <c r="N97" s="18"/>
       <c r="O97" s="20"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
       <c r="B98" s="18"/>
       <c r="C98" s="19"/>
@@ -6147,7 +6275,7 @@
       <c r="N98" s="18"/>
       <c r="O98" s="20"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="25"/>
       <c r="B99" s="18"/>
       <c r="C99" s="19"/>
@@ -6164,7 +6292,7 @@
       <c r="N99" s="18"/>
       <c r="O99" s="20"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
       <c r="B100" s="18"/>
       <c r="C100" s="19"/>
@@ -6181,7 +6309,7 @@
       <c r="N100" s="18"/>
       <c r="O100" s="20"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="25"/>
       <c r="B101" s="18"/>
       <c r="C101" s="19"/>
@@ -6198,7 +6326,7 @@
       <c r="N101" s="18"/>
       <c r="O101" s="20"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="23"/>
@@ -6215,7 +6343,7 @@
       <c r="N102" s="22"/>
       <c r="O102" s="17"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="23"/>
@@ -6232,7 +6360,7 @@
       <c r="N103" s="22"/>
       <c r="O103" s="17"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="25"/>
       <c r="B104" s="18"/>
       <c r="C104" s="19"/>
@@ -6249,7 +6377,7 @@
       <c r="N104" s="18"/>
       <c r="O104" s="20"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="25"/>
       <c r="B105" s="18"/>
       <c r="C105" s="19"/>
@@ -6266,7 +6394,7 @@
       <c r="N105" s="18"/>
       <c r="O105" s="20"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="25"/>
       <c r="B106" s="18"/>
       <c r="C106" s="19"/>
@@ -6283,7 +6411,7 @@
       <c r="N106" s="18"/>
       <c r="O106" s="20"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="25"/>
       <c r="B107" s="18"/>
       <c r="C107" s="19"/>
@@ -6300,7 +6428,7 @@
       <c r="N107" s="18"/>
       <c r="O107" s="20"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="25"/>
       <c r="B108" s="18"/>
       <c r="C108" s="19"/>
@@ -6317,7 +6445,7 @@
       <c r="N108" s="18"/>
       <c r="O108" s="20"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="23"/>
@@ -6334,7 +6462,7 @@
       <c r="N109" s="22"/>
       <c r="O109" s="17"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="23"/>
@@ -6351,7 +6479,7 @@
       <c r="N110" s="22"/>
       <c r="O110" s="17"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="25"/>
       <c r="B111" s="18"/>
       <c r="C111" s="19"/>
@@ -6368,7 +6496,7 @@
       <c r="N111" s="18"/>
       <c r="O111" s="20"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="25"/>
       <c r="B112" s="18"/>
       <c r="C112" s="19"/>
@@ -6385,7 +6513,7 @@
       <c r="N112" s="18"/>
       <c r="O112" s="20"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="25"/>
       <c r="B113" s="18"/>
       <c r="C113" s="19"/>
@@ -6402,7 +6530,7 @@
       <c r="N113" s="18"/>
       <c r="O113" s="20"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="25"/>
       <c r="B114" s="18"/>
       <c r="C114" s="19"/>
@@ -6419,7 +6547,7 @@
       <c r="N114" s="18"/>
       <c r="O114" s="20"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="25"/>
       <c r="B115" s="18"/>
       <c r="C115" s="19"/>
@@ -6436,7 +6564,7 @@
       <c r="N115" s="18"/>
       <c r="O115" s="20"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="23"/>
@@ -6453,7 +6581,7 @@
       <c r="N116" s="22"/>
       <c r="O116" s="17"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="23"/>
@@ -6470,7 +6598,7 @@
       <c r="N117" s="22"/>
       <c r="O117" s="17"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="25"/>
       <c r="B118" s="18"/>
       <c r="C118" s="19"/>
@@ -6487,7 +6615,7 @@
       <c r="N118" s="18"/>
       <c r="O118" s="20"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="25"/>
       <c r="B119" s="18"/>
       <c r="C119" s="19"/>
@@ -6504,7 +6632,7 @@
       <c r="N119" s="18"/>
       <c r="O119" s="20"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="25"/>
       <c r="B120" s="18"/>
       <c r="C120" s="19"/>
@@ -6521,7 +6649,7 @@
       <c r="N120" s="18"/>
       <c r="O120" s="20"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="25"/>
       <c r="B121" s="18"/>
       <c r="C121" s="19"/>
@@ -6538,7 +6666,7 @@
       <c r="N121" s="18"/>
       <c r="O121" s="20"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="25"/>
       <c r="B122" s="18"/>
       <c r="C122" s="19"/>
@@ -6555,7 +6683,7 @@
       <c r="N122" s="18"/>
       <c r="O122" s="20"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="23"/>
@@ -6572,7 +6700,7 @@
       <c r="N123" s="22"/>
       <c r="O123" s="17"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="23"/>
@@ -6589,7 +6717,7 @@
       <c r="N124" s="22"/>
       <c r="O124" s="17"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="25"/>
       <c r="B125" s="18"/>
       <c r="C125" s="19"/>
@@ -6606,7 +6734,7 @@
       <c r="N125" s="18"/>
       <c r="O125" s="20"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="25"/>
       <c r="B126" s="18"/>
       <c r="C126" s="19"/>
@@ -6623,7 +6751,7 @@
       <c r="N126" s="18"/>
       <c r="O126" s="20"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="25"/>
       <c r="B127" s="18"/>
       <c r="C127" s="19"/>
@@ -6640,7 +6768,7 @@
       <c r="N127" s="18"/>
       <c r="O127" s="20"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="25"/>
       <c r="B128" s="18"/>
       <c r="C128" s="19"/>
@@ -6657,7 +6785,7 @@
       <c r="N128" s="18"/>
       <c r="O128" s="20"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="25"/>
       <c r="B129" s="18"/>
       <c r="C129" s="19"/>
@@ -6674,7 +6802,7 @@
       <c r="N129" s="18"/>
       <c r="O129" s="20"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="23"/>
@@ -6691,7 +6819,7 @@
       <c r="N130" s="22"/>
       <c r="O130" s="17"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="23"/>
@@ -6708,7 +6836,7 @@
       <c r="N131" s="22"/>
       <c r="O131" s="17"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="25"/>
       <c r="B132" s="18"/>
       <c r="C132" s="19"/>
@@ -6725,7 +6853,7 @@
       <c r="N132" s="18"/>
       <c r="O132" s="20"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="25"/>
       <c r="B133" s="18"/>
       <c r="C133" s="19"/>
@@ -6742,7 +6870,7 @@
       <c r="N133" s="18"/>
       <c r="O133" s="20"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="25"/>
       <c r="B134" s="18"/>
       <c r="C134" s="19"/>
@@ -6759,7 +6887,7 @@
       <c r="N134" s="18"/>
       <c r="O134" s="20"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
       <c r="B135" s="18"/>
       <c r="C135" s="19"/>
@@ -6776,7 +6904,7 @@
       <c r="N135" s="18"/>
       <c r="O135" s="20"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="25"/>
       <c r="B136" s="18"/>
       <c r="C136" s="19"/>
@@ -6793,7 +6921,7 @@
       <c r="N136" s="18"/>
       <c r="O136" s="20"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="23"/>
@@ -6810,7 +6938,7 @@
       <c r="N137" s="22"/>
       <c r="O137" s="17"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="23"/>
@@ -6827,7 +6955,7 @@
       <c r="N138" s="22"/>
       <c r="O138" s="17"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="25"/>
       <c r="B139" s="18"/>
       <c r="C139" s="19"/>
@@ -6844,7 +6972,7 @@
       <c r="N139" s="18"/>
       <c r="O139" s="20"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="25"/>
       <c r="B140" s="18"/>
       <c r="C140" s="19"/>
@@ -6861,7 +6989,7 @@
       <c r="N140" s="18"/>
       <c r="O140" s="20"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="25"/>
       <c r="B141" s="18"/>
       <c r="C141" s="19"/>
@@ -6878,7 +7006,7 @@
       <c r="N141" s="18"/>
       <c r="O141" s="20"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="25"/>
       <c r="B142" s="18"/>
       <c r="C142" s="19"/>
@@ -6895,7 +7023,7 @@
       <c r="N142" s="18"/>
       <c r="O142" s="20"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="25"/>
       <c r="B143" s="18"/>
       <c r="C143" s="19"/>
@@ -6912,7 +7040,7 @@
       <c r="N143" s="18"/>
       <c r="O143" s="20"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="23"/>
@@ -6929,7 +7057,7 @@
       <c r="N144" s="22"/>
       <c r="O144" s="17"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="23"/>
@@ -6946,7 +7074,7 @@
       <c r="N145" s="22"/>
       <c r="O145" s="17"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="25"/>
       <c r="B146" s="18"/>
       <c r="C146" s="19"/>
@@ -6963,7 +7091,7 @@
       <c r="N146" s="18"/>
       <c r="O146" s="20"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="25"/>
       <c r="B147" s="18"/>
       <c r="C147" s="19"/>
@@ -6980,7 +7108,7 @@
       <c r="N147" s="18"/>
       <c r="O147" s="20"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="25"/>
       <c r="B148" s="18"/>
       <c r="C148" s="19"/>
@@ -6997,7 +7125,7 @@
       <c r="N148" s="18"/>
       <c r="O148" s="20"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="25"/>
       <c r="B149" s="18"/>
       <c r="C149" s="19"/>
@@ -7014,7 +7142,7 @@
       <c r="N149" s="18"/>
       <c r="O149" s="20"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="25"/>
       <c r="B150" s="18"/>
       <c r="C150" s="19"/>
@@ -7031,7 +7159,7 @@
       <c r="N150" s="18"/>
       <c r="O150" s="20"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="23"/>
@@ -7048,7 +7176,7 @@
       <c r="N151" s="22"/>
       <c r="O151" s="17"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="23"/>
@@ -7065,7 +7193,7 @@
       <c r="N152" s="22"/>
       <c r="O152" s="17"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="25"/>
       <c r="B153" s="18"/>
       <c r="C153" s="19"/>
@@ -7082,7 +7210,7 @@
       <c r="N153" s="18"/>
       <c r="O153" s="20"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="25"/>
       <c r="B154" s="18"/>
       <c r="C154" s="19"/>
@@ -7099,7 +7227,7 @@
       <c r="N154" s="18"/>
       <c r="O154" s="20"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="25"/>
       <c r="B155" s="18"/>
       <c r="C155" s="19"/>
@@ -7116,7 +7244,7 @@
       <c r="N155" s="18"/>
       <c r="O155" s="20"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="25"/>
       <c r="B156" s="18"/>
       <c r="C156" s="19"/>
@@ -7133,7 +7261,7 @@
       <c r="N156" s="18"/>
       <c r="O156" s="20"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="25"/>
       <c r="B157" s="18"/>
       <c r="C157" s="19"/>
@@ -7150,7 +7278,7 @@
       <c r="N157" s="18"/>
       <c r="O157" s="20"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="23"/>
@@ -7167,7 +7295,7 @@
       <c r="N158" s="22"/>
       <c r="O158" s="17"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="23"/>
@@ -7184,7 +7312,7 @@
       <c r="N159" s="22"/>
       <c r="O159" s="17"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="25"/>
       <c r="B160" s="18"/>
       <c r="C160" s="19"/>
@@ -7201,7 +7329,7 @@
       <c r="N160" s="18"/>
       <c r="O160" s="20"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="25"/>
       <c r="B161" s="18"/>
       <c r="C161" s="19"/>
@@ -7218,7 +7346,7 @@
       <c r="N161" s="18"/>
       <c r="O161" s="20"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="25"/>
       <c r="B162" s="18"/>
       <c r="C162" s="19"/>
@@ -7235,7 +7363,7 @@
       <c r="N162" s="18"/>
       <c r="O162" s="20"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="25"/>
       <c r="B163" s="18"/>
       <c r="C163" s="19"/>
@@ -7252,7 +7380,7 @@
       <c r="N163" s="18"/>
       <c r="O163" s="20"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="25"/>
       <c r="B164" s="18"/>
       <c r="C164" s="19"/>
@@ -7269,7 +7397,7 @@
       <c r="N164" s="18"/>
       <c r="O164" s="20"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="23"/>
@@ -7286,7 +7414,7 @@
       <c r="N165" s="22"/>
       <c r="O165" s="17"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="23"/>
@@ -7303,7 +7431,7 @@
       <c r="N166" s="22"/>
       <c r="O166" s="17"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="25"/>
       <c r="B167" s="18"/>
       <c r="C167" s="19"/>
@@ -7320,7 +7448,7 @@
       <c r="N167" s="18"/>
       <c r="O167" s="20"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="25"/>
       <c r="B168" s="18"/>
       <c r="C168" s="19"/>
@@ -7337,7 +7465,7 @@
       <c r="N168" s="18"/>
       <c r="O168" s="20"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
       <c r="B169" s="18"/>
       <c r="C169" s="19"/>
@@ -7354,7 +7482,7 @@
       <c r="N169" s="18"/>
       <c r="O169" s="20"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="25"/>
       <c r="B170" s="18"/>
       <c r="C170" s="19"/>
@@ -7371,7 +7499,7 @@
       <c r="N170" s="18"/>
       <c r="O170" s="20"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="25"/>
       <c r="B171" s="18"/>
       <c r="C171" s="19"/>
@@ -7388,7 +7516,7 @@
       <c r="N171" s="18"/>
       <c r="O171" s="20"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="23"/>
@@ -7405,7 +7533,7 @@
       <c r="N172" s="22"/>
       <c r="O172" s="17"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="23"/>
@@ -7422,7 +7550,7 @@
       <c r="N173" s="22"/>
       <c r="O173" s="17"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="B174" s="18"/>
       <c r="C174" s="19"/>
@@ -7439,7 +7567,7 @@
       <c r="N174" s="18"/>
       <c r="O174" s="20"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="B175" s="18"/>
       <c r="C175" s="19"/>
@@ -7456,7 +7584,7 @@
       <c r="N175" s="18"/>
       <c r="O175" s="20"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="B176" s="18"/>
       <c r="C176" s="19"/>
@@ -7473,7 +7601,7 @@
       <c r="N176" s="18"/>
       <c r="O176" s="20"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="B177" s="18"/>
       <c r="C177" s="19"/>
@@ -7490,7 +7618,7 @@
       <c r="N177" s="18"/>
       <c r="O177" s="20"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="B178" s="18"/>
       <c r="C178" s="19"/>
@@ -7507,7 +7635,7 @@
       <c r="N178" s="18"/>
       <c r="O178" s="20"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="23"/>
@@ -7524,7 +7652,7 @@
       <c r="N179" s="22"/>
       <c r="O179" s="17"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="23"/>
@@ -7541,7 +7669,7 @@
       <c r="N180" s="22"/>
       <c r="O180" s="17"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="25"/>
       <c r="B181" s="18"/>
       <c r="C181" s="19"/>
@@ -7558,7 +7686,7 @@
       <c r="N181" s="18"/>
       <c r="O181" s="20"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="B182" s="18"/>
       <c r="C182" s="19"/>
@@ -7575,7 +7703,7 @@
       <c r="N182" s="18"/>
       <c r="O182" s="20"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="25"/>
       <c r="B183" s="18"/>
       <c r="C183" s="19"/>
@@ -7592,7 +7720,7 @@
       <c r="N183" s="18"/>
       <c r="O183" s="20"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="25"/>
       <c r="B184" s="18"/>
       <c r="C184" s="19"/>
@@ -7609,7 +7737,7 @@
       <c r="N184" s="18"/>
       <c r="O184" s="20"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="25"/>
       <c r="B185" s="18"/>
       <c r="C185" s="19"/>
@@ -7626,7 +7754,7 @@
       <c r="N185" s="18"/>
       <c r="O185" s="20"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="21"/>
       <c r="B186" s="22"/>
       <c r="C186" s="23"/>
@@ -7643,7 +7771,7 @@
       <c r="N186" s="22"/>
       <c r="O186" s="17"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="21"/>
       <c r="B187" s="22"/>
       <c r="C187" s="23"/>
@@ -7660,7 +7788,7 @@
       <c r="N187" s="22"/>
       <c r="O187" s="17"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="25"/>
       <c r="B188" s="18"/>
       <c r="C188" s="19"/>
@@ -7677,7 +7805,7 @@
       <c r="N188" s="18"/>
       <c r="O188" s="20"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="25"/>
       <c r="B189" s="18"/>
       <c r="C189" s="19"/>
@@ -7694,7 +7822,7 @@
       <c r="N189" s="18"/>
       <c r="O189" s="20"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="18"/>
       <c r="C190" s="19"/>
@@ -7711,7 +7839,7 @@
       <c r="N190" s="18"/>
       <c r="O190" s="20"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="25"/>
       <c r="B191" s="18"/>
       <c r="C191" s="19"/>
@@ -7728,7 +7856,7 @@
       <c r="N191" s="18"/>
       <c r="O191" s="20"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="25"/>
       <c r="B192" s="18"/>
       <c r="C192" s="19"/>
@@ -7745,7 +7873,7 @@
       <c r="N192" s="18"/>
       <c r="O192" s="20"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="21"/>
       <c r="B193" s="22"/>
       <c r="C193" s="23"/>
@@ -7762,7 +7890,7 @@
       <c r="N193" s="22"/>
       <c r="O193" s="17"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="21"/>
       <c r="B194" s="22"/>
       <c r="C194" s="23"/>
@@ -7779,7 +7907,7 @@
       <c r="N194" s="22"/>
       <c r="O194" s="17"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="25"/>
       <c r="B195" s="18"/>
       <c r="C195" s="19"/>
@@ -7796,7 +7924,7 @@
       <c r="N195" s="18"/>
       <c r="O195" s="20"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="B196" s="18"/>
       <c r="C196" s="19"/>
@@ -7813,7 +7941,7 @@
       <c r="N196" s="18"/>
       <c r="O196" s="20"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="B197" s="18"/>
       <c r="C197" s="19"/>
@@ -7830,7 +7958,7 @@
       <c r="N197" s="18"/>
       <c r="O197" s="20"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="B198" s="18"/>
       <c r="C198" s="19"/>
@@ -7847,7 +7975,7 @@
       <c r="N198" s="18"/>
       <c r="O198" s="20"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="25"/>
       <c r="B199" s="18"/>
       <c r="C199" s="19"/>
@@ -7864,7 +7992,7 @@
       <c r="N199" s="18"/>
       <c r="O199" s="20"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="21"/>
       <c r="B200" s="22"/>
       <c r="C200" s="23"/>
@@ -7881,7 +8009,7 @@
       <c r="N200" s="22"/>
       <c r="O200" s="17"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="21"/>
       <c r="B201" s="22"/>
       <c r="C201" s="23"/>
@@ -7898,7 +8026,7 @@
       <c r="N201" s="22"/>
       <c r="O201" s="17"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="25"/>
       <c r="B202" s="18"/>
       <c r="C202" s="19"/>
@@ -7915,7 +8043,7 @@
       <c r="N202" s="18"/>
       <c r="O202" s="20"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="25"/>
       <c r="B203" s="18"/>
       <c r="C203" s="19"/>
@@ -7932,7 +8060,7 @@
       <c r="N203" s="18"/>
       <c r="O203" s="20"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="25"/>
       <c r="B204" s="18"/>
       <c r="C204" s="19"/>
@@ -7949,7 +8077,7 @@
       <c r="N204" s="18"/>
       <c r="O204" s="20"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="25"/>
       <c r="B205" s="18"/>
       <c r="C205" s="19"/>
@@ -7966,7 +8094,7 @@
       <c r="N205" s="18"/>
       <c r="O205" s="20"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="25"/>
       <c r="B206" s="18"/>
       <c r="C206" s="19"/>
@@ -7983,7 +8111,7 @@
       <c r="N206" s="18"/>
       <c r="O206" s="20"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="21"/>
       <c r="B207" s="22"/>
       <c r="C207" s="23"/>
@@ -8000,7 +8128,7 @@
       <c r="N207" s="22"/>
       <c r="O207" s="17"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="21"/>
       <c r="B208" s="22"/>
       <c r="C208" s="23"/>
@@ -8017,7 +8145,7 @@
       <c r="N208" s="22"/>
       <c r="O208" s="17"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="25"/>
       <c r="B209" s="18"/>
       <c r="C209" s="19"/>
@@ -8034,7 +8162,7 @@
       <c r="N209" s="18"/>
       <c r="O209" s="20"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="25"/>
       <c r="B210" s="18"/>
       <c r="C210" s="19"/>
@@ -8051,7 +8179,7 @@
       <c r="N210" s="18"/>
       <c r="O210" s="20"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="25"/>
       <c r="B211" s="18"/>
       <c r="C211" s="19"/>
@@ -8068,7 +8196,7 @@
       <c r="N211" s="18"/>
       <c r="O211" s="20"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="25"/>
       <c r="B212" s="18"/>
       <c r="C212" s="19"/>
@@ -8085,7 +8213,7 @@
       <c r="N212" s="18"/>
       <c r="O212" s="20"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="25"/>
       <c r="B213" s="18"/>
       <c r="C213" s="19"/>
@@ -8102,7 +8230,7 @@
       <c r="N213" s="18"/>
       <c r="O213" s="20"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="21"/>
       <c r="B214" s="22"/>
       <c r="C214" s="23"/>
@@ -8119,7 +8247,7 @@
       <c r="N214" s="22"/>
       <c r="O214" s="17"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="21"/>
       <c r="B215" s="22"/>
       <c r="C215" s="23"/>
@@ -8136,7 +8264,7 @@
       <c r="N215" s="22"/>
       <c r="O215" s="17"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="25"/>
       <c r="B216" s="18"/>
       <c r="C216" s="19"/>
@@ -8153,7 +8281,7 @@
       <c r="N216" s="18"/>
       <c r="O216" s="20"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="25"/>
       <c r="B217" s="18"/>
       <c r="C217" s="19"/>
@@ -8170,7 +8298,7 @@
       <c r="N217" s="18"/>
       <c r="O217" s="20"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="25"/>
       <c r="B218" s="18"/>
       <c r="C218" s="19"/>
@@ -8187,7 +8315,7 @@
       <c r="N218" s="18"/>
       <c r="O218" s="20"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="25"/>
       <c r="B219" s="18"/>
       <c r="C219" s="19"/>
@@ -8204,7 +8332,7 @@
       <c r="N219" s="18"/>
       <c r="O219" s="20"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="25"/>
       <c r="B220" s="18"/>
       <c r="C220" s="19"/>
@@ -8221,7 +8349,7 @@
       <c r="N220" s="18"/>
       <c r="O220" s="20"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="21"/>
       <c r="B221" s="22"/>
       <c r="C221" s="23"/>
@@ -8238,7 +8366,7 @@
       <c r="N221" s="22"/>
       <c r="O221" s="17"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="21"/>
       <c r="B222" s="22"/>
       <c r="C222" s="23"/>
@@ -8255,7 +8383,7 @@
       <c r="N222" s="22"/>
       <c r="O222" s="17"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="25"/>
       <c r="B223" s="18"/>
       <c r="C223" s="19"/>
@@ -8272,7 +8400,7 @@
       <c r="N223" s="18"/>
       <c r="O223" s="20"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="25"/>
       <c r="B224" s="18"/>
       <c r="C224" s="19"/>
@@ -8289,7 +8417,7 @@
       <c r="N224" s="18"/>
       <c r="O224" s="20"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="25"/>
       <c r="B225" s="18"/>
       <c r="C225" s="19"/>
@@ -8306,7 +8434,7 @@
       <c r="N225" s="18"/>
       <c r="O225" s="20"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="25"/>
       <c r="B226" s="18"/>
       <c r="C226" s="19"/>
@@ -8323,7 +8451,7 @@
       <c r="N226" s="18"/>
       <c r="O226" s="20"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="25"/>
       <c r="B227" s="18"/>
       <c r="C227" s="19"/>
@@ -8340,7 +8468,7 @@
       <c r="N227" s="18"/>
       <c r="O227" s="20"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="21"/>
       <c r="B228" s="22"/>
       <c r="C228" s="23"/>
@@ -8357,7 +8485,7 @@
       <c r="N228" s="22"/>
       <c r="O228" s="17"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="21"/>
       <c r="B229" s="22"/>
       <c r="C229" s="23"/>
@@ -8374,7 +8502,7 @@
       <c r="N229" s="22"/>
       <c r="O229" s="17"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="25"/>
       <c r="B230" s="18"/>
       <c r="C230" s="19"/>
@@ -8391,7 +8519,7 @@
       <c r="N230" s="18"/>
       <c r="O230" s="20"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="25"/>
       <c r="B231" s="18"/>
       <c r="C231" s="19"/>
@@ -8408,7 +8536,7 @@
       <c r="N231" s="18"/>
       <c r="O231" s="20"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="25"/>
       <c r="B232" s="18"/>
       <c r="C232" s="19"/>
@@ -8425,7 +8553,7 @@
       <c r="N232" s="18"/>
       <c r="O232" s="20"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="25"/>
       <c r="B233" s="18"/>
       <c r="C233" s="19"/>
@@ -8442,7 +8570,7 @@
       <c r="N233" s="18"/>
       <c r="O233" s="20"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="25"/>
       <c r="B234" s="18"/>
       <c r="C234" s="19"/>
@@ -8459,7 +8587,7 @@
       <c r="N234" s="18"/>
       <c r="O234" s="20"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="21"/>
       <c r="B235" s="22"/>
       <c r="C235" s="23"/>
@@ -8476,7 +8604,7 @@
       <c r="N235" s="22"/>
       <c r="O235" s="17"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="21"/>
       <c r="B236" s="22"/>
       <c r="C236" s="23"/>
@@ -8493,7 +8621,7 @@
       <c r="N236" s="22"/>
       <c r="O236" s="17"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="25"/>
       <c r="B237" s="18"/>
       <c r="C237" s="19"/>
@@ -8510,7 +8638,7 @@
       <c r="N237" s="18"/>
       <c r="O237" s="20"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="25"/>
       <c r="B238" s="18"/>
       <c r="C238" s="19"/>
@@ -8527,7 +8655,7 @@
       <c r="N238" s="18"/>
       <c r="O238" s="20"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="25"/>
       <c r="B239" s="18"/>
       <c r="C239" s="19"/>
@@ -8544,7 +8672,7 @@
       <c r="N239" s="18"/>
       <c r="O239" s="20"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="25"/>
       <c r="B240" s="18"/>
       <c r="C240" s="19"/>
@@ -8561,7 +8689,7 @@
       <c r="N240" s="18"/>
       <c r="O240" s="20"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="25"/>
       <c r="B241" s="18"/>
       <c r="C241" s="19"/>
@@ -8578,7 +8706,7 @@
       <c r="N241" s="18"/>
       <c r="O241" s="20"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="21"/>
       <c r="B242" s="22"/>
       <c r="C242" s="23"/>
@@ -8595,7 +8723,7 @@
       <c r="N242" s="22"/>
       <c r="O242" s="17"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="21"/>
       <c r="B243" s="22"/>
       <c r="C243" s="23"/>
@@ -8612,7 +8740,7 @@
       <c r="N243" s="22"/>
       <c r="O243" s="17"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="25"/>
       <c r="B244" s="18"/>
       <c r="C244" s="19"/>
@@ -8629,7 +8757,7 @@
       <c r="N244" s="18"/>
       <c r="O244" s="20"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="25"/>
       <c r="B245" s="18"/>
       <c r="C245" s="19"/>
@@ -8646,7 +8774,7 @@
       <c r="N245" s="18"/>
       <c r="O245" s="20"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="25"/>
       <c r="B246" s="18"/>
       <c r="C246" s="19"/>
@@ -8663,7 +8791,7 @@
       <c r="N246" s="18"/>
       <c r="O246" s="20"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="25"/>
       <c r="B247" s="18"/>
       <c r="C247" s="19"/>
@@ -8680,7 +8808,7 @@
       <c r="N247" s="18"/>
       <c r="O247" s="20"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="25"/>
       <c r="B248" s="18"/>
       <c r="C248" s="19"/>
@@ -8697,7 +8825,7 @@
       <c r="N248" s="18"/>
       <c r="O248" s="20"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="21"/>
       <c r="B249" s="22"/>
       <c r="C249" s="23"/>
@@ -8714,7 +8842,7 @@
       <c r="N249" s="22"/>
       <c r="O249" s="17"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="21"/>
       <c r="B250" s="22"/>
       <c r="C250" s="23"/>
@@ -8731,7 +8859,7 @@
       <c r="N250" s="22"/>
       <c r="O250" s="17"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="25"/>
       <c r="B251" s="18"/>
       <c r="C251" s="19"/>
@@ -8748,7 +8876,7 @@
       <c r="N251" s="18"/>
       <c r="O251" s="20"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="25"/>
       <c r="B252" s="18"/>
       <c r="C252" s="19"/>
@@ -8765,7 +8893,7 @@
       <c r="N252" s="18"/>
       <c r="O252" s="20"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="25"/>
       <c r="B253" s="18"/>
       <c r="C253" s="19"/>
@@ -8782,7 +8910,7 @@
       <c r="N253" s="18"/>
       <c r="O253" s="20"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="25"/>
       <c r="B254" s="18"/>
       <c r="C254" s="19"/>
@@ -8799,7 +8927,7 @@
       <c r="N254" s="18"/>
       <c r="O254" s="20"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="25"/>
       <c r="B255" s="18"/>
       <c r="C255" s="19"/>
@@ -8816,7 +8944,7 @@
       <c r="N255" s="18"/>
       <c r="O255" s="20"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="21"/>
       <c r="B256" s="22"/>
       <c r="C256" s="23"/>
@@ -8833,7 +8961,7 @@
       <c r="N256" s="22"/>
       <c r="O256" s="17"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="21"/>
       <c r="B257" s="22"/>
       <c r="C257" s="23"/>
@@ -8850,7 +8978,7 @@
       <c r="N257" s="22"/>
       <c r="O257" s="17"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="25"/>
       <c r="B258" s="18"/>
       <c r="C258" s="19"/>
@@ -8867,7 +8995,7 @@
       <c r="N258" s="18"/>
       <c r="O258" s="20"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="25"/>
       <c r="B259" s="18"/>
       <c r="C259" s="19"/>
@@ -8884,7 +9012,7 @@
       <c r="N259" s="18"/>
       <c r="O259" s="20"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="25"/>
       <c r="B260" s="18"/>
       <c r="C260" s="19"/>
@@ -8901,7 +9029,7 @@
       <c r="N260" s="18"/>
       <c r="O260" s="20"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="25"/>
       <c r="B261" s="18"/>
       <c r="C261" s="19"/>
@@ -8918,7 +9046,7 @@
       <c r="N261" s="18"/>
       <c r="O261" s="20"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="25"/>
       <c r="B262" s="18"/>
       <c r="C262" s="19"/>
@@ -8935,7 +9063,7 @@
       <c r="N262" s="18"/>
       <c r="O262" s="20"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="21"/>
       <c r="B263" s="22"/>
       <c r="C263" s="23"/>
@@ -8952,7 +9080,7 @@
       <c r="N263" s="22"/>
       <c r="O263" s="17"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="21"/>
       <c r="B264" s="22"/>
       <c r="C264" s="23"/>
@@ -8969,7 +9097,7 @@
       <c r="N264" s="22"/>
       <c r="O264" s="17"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="25"/>
       <c r="B265" s="18"/>
       <c r="C265" s="19"/>
@@ -8986,7 +9114,7 @@
       <c r="N265" s="18"/>
       <c r="O265" s="20"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="25"/>
       <c r="B266" s="18"/>
       <c r="C266" s="19"/>
@@ -9003,7 +9131,7 @@
       <c r="N266" s="18"/>
       <c r="O266" s="20"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="25"/>
       <c r="B267" s="18"/>
       <c r="C267" s="19"/>
@@ -9020,7 +9148,7 @@
       <c r="N267" s="18"/>
       <c r="O267" s="20"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="25"/>
       <c r="B268" s="18"/>
       <c r="C268" s="19"/>
@@ -9037,7 +9165,7 @@
       <c r="N268" s="18"/>
       <c r="O268" s="20"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="25"/>
       <c r="B269" s="18"/>
       <c r="C269" s="19"/>
@@ -9054,7 +9182,7 @@
       <c r="N269" s="18"/>
       <c r="O269" s="20"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="21"/>
       <c r="B270" s="22"/>
       <c r="C270" s="23"/>
@@ -9071,7 +9199,7 @@
       <c r="N270" s="22"/>
       <c r="O270" s="17"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="21"/>
       <c r="B271" s="22"/>
       <c r="C271" s="23"/>
@@ -9088,7 +9216,7 @@
       <c r="N271" s="22"/>
       <c r="O271" s="17"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="25"/>
       <c r="B272" s="18"/>
       <c r="C272" s="19"/>
@@ -9105,7 +9233,7 @@
       <c r="N272" s="18"/>
       <c r="O272" s="20"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="25"/>
       <c r="B273" s="18"/>
       <c r="C273" s="19"/>
@@ -9122,7 +9250,7 @@
       <c r="N273" s="18"/>
       <c r="O273" s="20"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="25"/>
       <c r="B274" s="18"/>
       <c r="C274" s="19"/>
@@ -9139,7 +9267,7 @@
       <c r="N274" s="18"/>
       <c r="O274" s="20"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="25"/>
       <c r="B275" s="18"/>
       <c r="C275" s="19"/>
@@ -9156,7 +9284,7 @@
       <c r="N275" s="18"/>
       <c r="O275" s="20"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="25"/>
       <c r="B276" s="18"/>
       <c r="C276" s="19"/>
@@ -9173,7 +9301,7 @@
       <c r="N276" s="18"/>
       <c r="O276" s="20"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="21"/>
       <c r="B277" s="22"/>
       <c r="C277" s="23"/>
@@ -9190,7 +9318,7 @@
       <c r="N277" s="22"/>
       <c r="O277" s="17"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="21"/>
       <c r="B278" s="22"/>
       <c r="C278" s="23"/>
@@ -9207,7 +9335,7 @@
       <c r="N278" s="22"/>
       <c r="O278" s="17"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="25"/>
       <c r="B279" s="18"/>
       <c r="C279" s="19"/>
@@ -9224,7 +9352,7 @@
       <c r="N279" s="18"/>
       <c r="O279" s="20"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="25"/>
       <c r="B280" s="18"/>
       <c r="C280" s="19"/>
@@ -9241,7 +9369,7 @@
       <c r="N280" s="18"/>
       <c r="O280" s="20"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="25"/>
       <c r="B281" s="18"/>
       <c r="C281" s="19"/>
@@ -9258,7 +9386,7 @@
       <c r="N281" s="18"/>
       <c r="O281" s="20"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="25"/>
       <c r="B282" s="18"/>
       <c r="C282" s="19"/>
@@ -9275,7 +9403,7 @@
       <c r="N282" s="18"/>
       <c r="O282" s="20"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="25"/>
       <c r="B283" s="18"/>
       <c r="C283" s="19"/>
@@ -9292,7 +9420,7 @@
       <c r="N283" s="18"/>
       <c r="O283" s="20"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="21"/>
       <c r="B284" s="22"/>
       <c r="C284" s="23"/>
@@ -9309,7 +9437,7 @@
       <c r="N284" s="22"/>
       <c r="O284" s="17"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="21"/>
       <c r="B285" s="22"/>
       <c r="C285" s="23"/>
@@ -9326,7 +9454,7 @@
       <c r="N285" s="22"/>
       <c r="O285" s="17"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="25"/>
       <c r="B286" s="18"/>
       <c r="C286" s="19"/>
@@ -9343,7 +9471,7 @@
       <c r="N286" s="18"/>
       <c r="O286" s="20"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="25"/>
       <c r="B287" s="18"/>
       <c r="C287" s="19"/>
@@ -9360,7 +9488,7 @@
       <c r="N287" s="18"/>
       <c r="O287" s="20"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="25"/>
       <c r="B288" s="18"/>
       <c r="C288" s="19"/>
@@ -9377,7 +9505,7 @@
       <c r="N288" s="18"/>
       <c r="O288" s="20"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="25"/>
       <c r="B289" s="18"/>
       <c r="C289" s="19"/>
@@ -9394,7 +9522,7 @@
       <c r="N289" s="18"/>
       <c r="O289" s="20"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="25"/>
       <c r="B290" s="18"/>
       <c r="C290" s="19"/>
@@ -9411,7 +9539,7 @@
       <c r="N290" s="18"/>
       <c r="O290" s="20"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="21"/>
       <c r="B291" s="22"/>
       <c r="C291" s="23"/>
@@ -9428,7 +9556,7 @@
       <c r="N291" s="22"/>
       <c r="O291" s="17"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="21"/>
       <c r="B292" s="22"/>
       <c r="C292" s="23"/>
@@ -9445,7 +9573,7 @@
       <c r="N292" s="22"/>
       <c r="O292" s="17"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="25"/>
       <c r="B293" s="18"/>
       <c r="C293" s="19"/>
@@ -9462,7 +9590,7 @@
       <c r="N293" s="18"/>
       <c r="O293" s="20"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="25"/>
       <c r="B294" s="18"/>
       <c r="C294" s="19"/>
@@ -9479,7 +9607,7 @@
       <c r="N294" s="18"/>
       <c r="O294" s="20"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="25"/>
       <c r="B295" s="18"/>
       <c r="C295" s="19"/>
@@ -9496,7 +9624,7 @@
       <c r="N295" s="18"/>
       <c r="O295" s="20"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="25"/>
       <c r="B296" s="18"/>
       <c r="C296" s="19"/>
@@ -9513,7 +9641,7 @@
       <c r="N296" s="18"/>
       <c r="O296" s="20"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="25"/>
       <c r="B297" s="18"/>
       <c r="C297" s="19"/>
@@ -9530,7 +9658,7 @@
       <c r="N297" s="18"/>
       <c r="O297" s="20"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="21"/>
       <c r="B298" s="22"/>
       <c r="C298" s="23"/>
@@ -9547,7 +9675,7 @@
       <c r="N298" s="22"/>
       <c r="O298" s="17"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="21"/>
       <c r="B299" s="22"/>
       <c r="C299" s="23"/>
@@ -9564,7 +9692,7 @@
       <c r="N299" s="22"/>
       <c r="O299" s="17"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="25"/>
       <c r="B300" s="18"/>
       <c r="C300" s="19"/>
@@ -9581,7 +9709,7 @@
       <c r="N300" s="18"/>
       <c r="O300" s="20"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="25"/>
       <c r="B301" s="18"/>
       <c r="C301" s="19"/>
@@ -9598,7 +9726,7 @@
       <c r="N301" s="18"/>
       <c r="O301" s="20"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="25"/>
       <c r="B302" s="18"/>
       <c r="C302" s="19"/>
@@ -9615,7 +9743,7 @@
       <c r="N302" s="18"/>
       <c r="O302" s="20"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="25"/>
       <c r="B303" s="18"/>
       <c r="C303" s="19"/>
@@ -9632,7 +9760,7 @@
       <c r="N303" s="18"/>
       <c r="O303" s="20"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="25"/>
       <c r="B304" s="18"/>
       <c r="C304" s="19"/>
@@ -9649,7 +9777,7 @@
       <c r="N304" s="18"/>
       <c r="O304" s="20"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="21"/>
       <c r="B305" s="22"/>
       <c r="C305" s="23"/>
@@ -9666,7 +9794,7 @@
       <c r="N305" s="22"/>
       <c r="O305" s="17"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="21"/>
       <c r="B306" s="22"/>
       <c r="C306" s="23"/>
@@ -9683,7 +9811,7 @@
       <c r="N306" s="22"/>
       <c r="O306" s="17"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="25"/>
       <c r="B307" s="18"/>
       <c r="C307" s="19"/>
@@ -9700,7 +9828,7 @@
       <c r="N307" s="18"/>
       <c r="O307" s="20"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="25"/>
       <c r="B308" s="18"/>
       <c r="C308" s="19"/>
@@ -9717,7 +9845,7 @@
       <c r="N308" s="18"/>
       <c r="O308" s="20"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="25"/>
       <c r="B309" s="18"/>
       <c r="C309" s="19"/>
@@ -9734,7 +9862,7 @@
       <c r="N309" s="18"/>
       <c r="O309" s="20"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="25"/>
       <c r="B310" s="18"/>
       <c r="C310" s="19"/>
@@ -9751,7 +9879,7 @@
       <c r="N310" s="18"/>
       <c r="O310" s="20"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="25"/>
       <c r="B311" s="18"/>
       <c r="C311" s="19"/>
@@ -9768,7 +9896,7 @@
       <c r="N311" s="18"/>
       <c r="O311" s="20"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="21"/>
       <c r="B312" s="22"/>
       <c r="C312" s="23"/>
@@ -9785,7 +9913,7 @@
       <c r="N312" s="22"/>
       <c r="O312" s="17"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="21"/>
       <c r="B313" s="22"/>
       <c r="C313" s="23"/>
@@ -9802,7 +9930,7 @@
       <c r="N313" s="22"/>
       <c r="O313" s="17"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="25"/>
       <c r="B314" s="18"/>
       <c r="C314" s="19"/>
@@ -9819,7 +9947,7 @@
       <c r="N314" s="18"/>
       <c r="O314" s="20"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="25"/>
       <c r="B315" s="18"/>
       <c r="C315" s="19"/>
@@ -9836,7 +9964,7 @@
       <c r="N315" s="18"/>
       <c r="O315" s="20"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="25"/>
       <c r="B316" s="18"/>
       <c r="C316" s="19"/>
@@ -9853,7 +9981,7 @@
       <c r="N316" s="18"/>
       <c r="O316" s="20"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="25"/>
       <c r="B317" s="18"/>
       <c r="C317" s="19"/>
@@ -9870,7 +9998,7 @@
       <c r="N317" s="18"/>
       <c r="O317" s="20"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="25"/>
       <c r="B318" s="18"/>
       <c r="C318" s="19"/>
@@ -9887,7 +10015,7 @@
       <c r="N318" s="18"/>
       <c r="O318" s="20"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="21"/>
       <c r="B319" s="22"/>
       <c r="C319" s="23"/>
@@ -9904,7 +10032,7 @@
       <c r="N319" s="22"/>
       <c r="O319" s="17"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="21"/>
       <c r="B320" s="22"/>
       <c r="C320" s="23"/>
@@ -9921,7 +10049,7 @@
       <c r="N320" s="22"/>
       <c r="O320" s="17"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="25"/>
       <c r="B321" s="18"/>
       <c r="C321" s="19"/>
@@ -9938,7 +10066,7 @@
       <c r="N321" s="18"/>
       <c r="O321" s="20"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="25"/>
       <c r="B322" s="18"/>
       <c r="C322" s="19"/>
@@ -9955,7 +10083,7 @@
       <c r="N322" s="18"/>
       <c r="O322" s="20"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="25"/>
       <c r="B323" s="18"/>
       <c r="C323" s="19"/>
@@ -9972,7 +10100,7 @@
       <c r="N323" s="18"/>
       <c r="O323" s="20"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="25"/>
       <c r="B324" s="18"/>
       <c r="C324" s="19"/>
@@ -9989,7 +10117,7 @@
       <c r="N324" s="18"/>
       <c r="O324" s="20"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="25"/>
       <c r="B325" s="18"/>
       <c r="C325" s="19"/>
@@ -10006,7 +10134,7 @@
       <c r="N325" s="18"/>
       <c r="O325" s="20"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="21"/>
       <c r="B326" s="22"/>
       <c r="C326" s="23"/>
@@ -10023,7 +10151,7 @@
       <c r="N326" s="22"/>
       <c r="O326" s="17"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="21"/>
       <c r="B327" s="22"/>
       <c r="C327" s="23"/>
@@ -10040,7 +10168,7 @@
       <c r="N327" s="22"/>
       <c r="O327" s="17"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="25"/>
       <c r="B328" s="18"/>
       <c r="C328" s="19"/>
@@ -10057,7 +10185,7 @@
       <c r="N328" s="18"/>
       <c r="O328" s="20"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="25"/>
       <c r="B329" s="18"/>
       <c r="C329" s="19"/>
@@ -10074,7 +10202,7 @@
       <c r="N329" s="18"/>
       <c r="O329" s="20"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="25"/>
       <c r="B330" s="18"/>
       <c r="C330" s="19"/>
@@ -10091,7 +10219,7 @@
       <c r="N330" s="18"/>
       <c r="O330" s="20"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="25"/>
       <c r="B331" s="18"/>
       <c r="C331" s="19"/>
@@ -10108,7 +10236,7 @@
       <c r="N331" s="18"/>
       <c r="O331" s="20"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="25"/>
       <c r="B332" s="18"/>
       <c r="C332" s="19"/>
@@ -10125,7 +10253,7 @@
       <c r="N332" s="18"/>
       <c r="O332" s="20"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="21"/>
       <c r="B333" s="22"/>
       <c r="C333" s="23"/>
@@ -10142,7 +10270,7 @@
       <c r="N333" s="22"/>
       <c r="O333" s="17"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="21"/>
       <c r="B334" s="22"/>
       <c r="C334" s="23"/>
@@ -10159,7 +10287,7 @@
       <c r="N334" s="22"/>
       <c r="O334" s="17"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="25"/>
       <c r="B335" s="18"/>
       <c r="C335" s="19"/>
@@ -10176,7 +10304,7 @@
       <c r="N335" s="18"/>
       <c r="O335" s="20"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="25"/>
       <c r="B336" s="18"/>
       <c r="C336" s="19"/>
@@ -10193,7 +10321,7 @@
       <c r="N336" s="18"/>
       <c r="O336" s="20"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="25"/>
       <c r="B337" s="18"/>
       <c r="C337" s="19"/>
@@ -10210,7 +10338,7 @@
       <c r="N337" s="18"/>
       <c r="O337" s="20"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="25"/>
       <c r="B338" s="18"/>
       <c r="C338" s="19"/>
@@ -10227,7 +10355,7 @@
       <c r="N338" s="18"/>
       <c r="O338" s="20"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="25"/>
       <c r="B339" s="18"/>
       <c r="C339" s="19"/>
@@ -10244,7 +10372,7 @@
       <c r="N339" s="18"/>
       <c r="O339" s="20"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="21"/>
       <c r="B340" s="22"/>
       <c r="C340" s="23"/>
@@ -10261,7 +10389,7 @@
       <c r="N340" s="22"/>
       <c r="O340" s="17"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="21"/>
       <c r="B341" s="22"/>
       <c r="C341" s="23"/>
@@ -10278,7 +10406,7 @@
       <c r="N341" s="22"/>
       <c r="O341" s="17"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="25"/>
       <c r="B342" s="18"/>
       <c r="C342" s="19"/>
@@ -10295,7 +10423,7 @@
       <c r="N342" s="18"/>
       <c r="O342" s="20"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="25"/>
       <c r="B343" s="18"/>
       <c r="C343" s="19"/>
@@ -10312,7 +10440,7 @@
       <c r="N343" s="18"/>
       <c r="O343" s="20"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="25"/>
       <c r="B344" s="18"/>
       <c r="C344" s="19"/>
@@ -10329,7 +10457,7 @@
       <c r="N344" s="18"/>
       <c r="O344" s="20"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="25"/>
       <c r="B345" s="18"/>
       <c r="C345" s="19"/>
@@ -10346,7 +10474,7 @@
       <c r="N345" s="18"/>
       <c r="O345" s="20"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="25"/>
       <c r="B346" s="18"/>
       <c r="C346" s="19"/>
@@ -10363,7 +10491,7 @@
       <c r="N346" s="18"/>
       <c r="O346" s="20"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="21"/>
       <c r="B347" s="22"/>
       <c r="C347" s="23"/>
@@ -10380,7 +10508,7 @@
       <c r="N347" s="22"/>
       <c r="O347" s="17"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="21"/>
       <c r="B348" s="22"/>
       <c r="C348" s="23"/>
@@ -10397,7 +10525,7 @@
       <c r="N348" s="22"/>
       <c r="O348" s="17"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="25"/>
       <c r="B349" s="18"/>
       <c r="C349" s="19"/>
@@ -10414,7 +10542,7 @@
       <c r="N349" s="18"/>
       <c r="O349" s="20"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="25"/>
       <c r="B350" s="18"/>
       <c r="C350" s="19"/>
@@ -10431,7 +10559,7 @@
       <c r="N350" s="18"/>
       <c r="O350" s="20"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="25"/>
       <c r="B351" s="18"/>
       <c r="C351" s="19"/>
@@ -10448,7 +10576,7 @@
       <c r="N351" s="18"/>
       <c r="O351" s="20"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="25"/>
       <c r="B352" s="18"/>
       <c r="C352" s="19"/>
@@ -10465,7 +10593,7 @@
       <c r="N352" s="18"/>
       <c r="O352" s="20"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="25"/>
       <c r="B353" s="18"/>
       <c r="C353" s="19"/>
@@ -10482,7 +10610,7 @@
       <c r="N353" s="18"/>
       <c r="O353" s="20"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="21"/>
       <c r="B354" s="22"/>
       <c r="C354" s="23"/>
@@ -10499,7 +10627,7 @@
       <c r="N354" s="22"/>
       <c r="O354" s="17"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="21"/>
       <c r="B355" s="22"/>
       <c r="C355" s="23"/>
@@ -10516,7 +10644,7 @@
       <c r="N355" s="22"/>
       <c r="O355" s="17"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="25"/>
       <c r="B356" s="18"/>
       <c r="C356" s="19"/>
@@ -10533,7 +10661,7 @@
       <c r="N356" s="18"/>
       <c r="O356" s="20"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="25"/>
       <c r="B357" s="18"/>
       <c r="C357" s="19"/>
@@ -10550,7 +10678,7 @@
       <c r="N357" s="18"/>
       <c r="O357" s="20"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="25"/>
       <c r="B358" s="18"/>
       <c r="C358" s="19"/>
@@ -10567,7 +10695,7 @@
       <c r="N358" s="18"/>
       <c r="O358" s="20"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="25"/>
       <c r="B359" s="18"/>
       <c r="C359" s="19"/>
@@ -10584,7 +10712,7 @@
       <c r="N359" s="18"/>
       <c r="O359" s="20"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="25"/>
       <c r="B360" s="18"/>
       <c r="C360" s="19"/>
@@ -10601,7 +10729,7 @@
       <c r="N360" s="18"/>
       <c r="O360" s="20"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="21"/>
       <c r="B361" s="22"/>
       <c r="C361" s="23"/>
@@ -10618,7 +10746,7 @@
       <c r="N361" s="22"/>
       <c r="O361" s="17"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="21"/>
       <c r="B362" s="22"/>
       <c r="C362" s="23"/>
@@ -10635,7 +10763,7 @@
       <c r="N362" s="22"/>
       <c r="O362" s="17"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="25"/>
       <c r="B363" s="18"/>
       <c r="C363" s="19"/>
@@ -10652,7 +10780,7 @@
       <c r="N363" s="18"/>
       <c r="O363" s="20"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="25"/>
       <c r="B364" s="18"/>
       <c r="C364" s="19"/>
@@ -10669,7 +10797,7 @@
       <c r="N364" s="18"/>
       <c r="O364" s="20"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="25"/>
       <c r="B365" s="18"/>
       <c r="C365" s="19"/>
@@ -10686,7 +10814,7 @@
       <c r="N365" s="18"/>
       <c r="O365" s="20"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="25"/>
       <c r="B366" s="18"/>
       <c r="C366" s="19"/>
@@ -10739,36 +10867,36 @@
       <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="13" width="5.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="13" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -10807,7 +10935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -10849,18 +10977,18 @@
       </c>
       <c r="K4" s="3">
         <f>AVERAGE('ежедневные данные'!K2:K8)</f>
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L4" s="3">
         <f>AVERAGE('ежедневные данные'!L2:L8)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M4" s="3">
         <f>AVERAGE('ежедневные данные'!M2:M8)</f>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -10913,7 +11041,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -10966,7 +11094,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -11019,7 +11147,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -11072,7 +11200,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -11125,7 +11253,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -11178,7 +11306,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -11231,7 +11359,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
@@ -11284,7 +11412,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
@@ -11337,7 +11465,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
@@ -11390,7 +11518,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>31</v>
       </c>
@@ -11443,7 +11571,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
@@ -11496,7 +11624,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
@@ -11549,7 +11677,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
@@ -11602,7 +11730,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
@@ -11655,7 +11783,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
@@ -11708,7 +11836,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>37</v>
       </c>
@@ -11761,7 +11889,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
@@ -11814,7 +11942,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>39</v>
       </c>
@@ -11867,7 +11995,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>40</v>
       </c>
@@ -11920,7 +12048,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>41</v>
       </c>
@@ -11973,7 +12101,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>42</v>
       </c>
@@ -12026,7 +12154,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
@@ -12079,7 +12207,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>44</v>
       </c>
@@ -12132,7 +12260,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>45</v>
       </c>
@@ -12185,7 +12313,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>46</v>
       </c>
@@ -12238,7 +12366,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>47</v>
       </c>
@@ -12291,7 +12419,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>48</v>
       </c>
@@ -12344,7 +12472,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>49</v>
       </c>
@@ -12397,7 +12525,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>50</v>
       </c>
@@ -12450,7 +12578,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>51</v>
       </c>
@@ -12503,7 +12631,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>52</v>
       </c>
@@ -12556,7 +12684,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>53</v>
       </c>
@@ -12609,7 +12737,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>54</v>
       </c>
@@ -12662,7 +12790,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>55</v>
       </c>
@@ -12715,7 +12843,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>56</v>
       </c>
@@ -12768,7 +12896,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>57</v>
       </c>
@@ -12821,7 +12949,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>58</v>
       </c>
@@ -12874,7 +13002,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>59</v>
       </c>
@@ -12927,7 +13055,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -12980,7 +13108,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -13033,7 +13161,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -13086,7 +13214,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -13139,7 +13267,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
@@ -13192,7 +13320,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -13245,7 +13373,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -13298,7 +13426,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -13351,7 +13479,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
@@ -13404,7 +13532,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
@@ -13457,7 +13585,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
@@ -13510,7 +13638,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
@@ -13584,39 +13712,39 @@
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="14" width="5.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="14" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="41" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="40"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="11" t="s">
@@ -13656,7 +13784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>42005</v>
       </c>
@@ -13701,18 +13829,18 @@
       </c>
       <c r="L4" s="12">
         <f>AVERAGE('ежедневные данные'!K2:K15)</f>
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M4" s="12">
         <f>AVERAGE('ежедневные данные'!L2:L15)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N4" s="12">
         <f>AVERAGE('ежедневные данные'!M2:M15)</f>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>42019</v>
       </c>
@@ -13768,7 +13896,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>42033</v>
       </c>
@@ -13824,7 +13952,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>42047</v>
       </c>
@@ -13880,7 +14008,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>42061</v>
       </c>
@@ -13936,7 +14064,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>42075</v>
       </c>
@@ -13992,7 +14120,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>42089</v>
       </c>
@@ -14048,7 +14176,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>42103</v>
       </c>
@@ -14104,7 +14232,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>42117</v>
       </c>
@@ -14160,7 +14288,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>42131</v>
       </c>
@@ -14216,7 +14344,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>42145</v>
       </c>
@@ -14272,7 +14400,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>42159</v>
       </c>
@@ -14328,7 +14456,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>42173</v>
       </c>
@@ -14384,7 +14512,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>42187</v>
       </c>
@@ -14440,7 +14568,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>42201</v>
       </c>
@@ -14496,7 +14624,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>42215</v>
       </c>
@@ -14552,7 +14680,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>42229</v>
       </c>
@@ -14608,7 +14736,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>42243</v>
       </c>
@@ -14664,7 +14792,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>42257</v>
       </c>
@@ -14720,7 +14848,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>42271</v>
       </c>
@@ -14776,7 +14904,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>42285</v>
       </c>
@@ -14832,7 +14960,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>42299</v>
       </c>
@@ -14888,7 +15016,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>42313</v>
       </c>
@@ -14944,7 +15072,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>42327</v>
       </c>
@@ -15000,7 +15128,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>42341</v>
       </c>
@@ -15056,7 +15184,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>42355</v>
       </c>

--- a/dnevnik.xlsx
+++ b/dnevnik.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>число</t>
   </si>
@@ -591,6 +591,9 @@
   <si>
     <t>Лекарства</t>
   </si>
+  <si>
+    <t>29.02.2018</t>
+  </si>
 </sst>
 </file>
 
@@ -941,6 +944,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -973,12 +982,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1149,7 +1152,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1334,7 +1337,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1519,7 +1522,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1611,11 +1614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53229056"/>
-        <c:axId val="53230592"/>
+        <c:axId val="48650112"/>
+        <c:axId val="48651648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="53229056"/>
+        <c:axId val="48650112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,7 +1654,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53230592"/>
+        <c:crossAx val="48651648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -1662,7 +1665,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="53230592"/>
+        <c:axId val="48651648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -1686,7 +1689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53229056"/>
+        <c:crossAx val="48650112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1883,7 +1886,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2253,7 +2256,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>89.5</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2345,11 +2348,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53273344"/>
-        <c:axId val="53274880"/>
+        <c:axId val="50144384"/>
+        <c:axId val="50145920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="53273344"/>
+        <c:axId val="50144384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2385,7 +2388,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53274880"/>
+        <c:crossAx val="50145920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -2396,7 +2399,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="53274880"/>
+        <c:axId val="50145920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -2420,7 +2423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53273344"/>
+        <c:crossAx val="50144384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -2619,7 +2622,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2804,7 +2807,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>82</c:v>
+                  <c:v>84.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2989,7 +2992,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3081,11 +3084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53309440"/>
-        <c:axId val="53310976"/>
+        <c:axId val="50188672"/>
+        <c:axId val="50190208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="53309440"/>
+        <c:axId val="50188672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3121,7 +3124,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53310976"/>
+        <c:crossAx val="50190208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -3132,7 +3135,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="53310976"/>
+        <c:axId val="50190208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3156,7 +3159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53309440"/>
+        <c:crossAx val="50188672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -3807,11 +3810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53330688"/>
-        <c:axId val="53332224"/>
+        <c:axId val="49962368"/>
+        <c:axId val="49976448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="53330688"/>
+        <c:axId val="49962368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3847,7 +3850,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53332224"/>
+        <c:crossAx val="49976448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -3858,7 +3861,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="53332224"/>
+        <c:axId val="49976448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3882,7 +3885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53330688"/>
+        <c:crossAx val="49962368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -4348,28 +4351,28 @@
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="27" t="s">
         <v>14</v>
       </c>
@@ -4380,9 +4383,9 @@
       <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="27" t="s">
         <v>16</v>
       </c>
@@ -4419,7 +4422,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4435,30 +4438,30 @@
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="34" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="42" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="32" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4533,16 +4536,36 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="17"/>
+      <c r="A4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="22">
+        <v>132</v>
+      </c>
+      <c r="C4" s="23">
+        <v>81</v>
+      </c>
+      <c r="D4" s="17">
+        <v>71</v>
+      </c>
+      <c r="E4" s="22">
+        <v>122</v>
+      </c>
+      <c r="F4" s="23">
+        <v>90</v>
+      </c>
+      <c r="G4" s="17">
+        <v>85</v>
+      </c>
+      <c r="H4" s="22">
+        <v>123</v>
+      </c>
+      <c r="I4" s="23">
+        <v>87</v>
+      </c>
+      <c r="J4" s="17">
+        <v>106</v>
+      </c>
       <c r="K4" s="22"/>
       <c r="L4" s="23"/>
       <c r="M4" s="17"/>
@@ -10747,26 +10770,26 @@
   <sheetData>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -10811,21 +10834,21 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="e">
+      <c r="B4" s="3">
         <f>AVERAGE('ежедневные данные'!B2:B8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C4" s="3" t="e">
+        <v>132</v>
+      </c>
+      <c r="C4" s="3">
         <f>AVERAGE('ежедневные данные'!C2:C8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D4" s="3" t="e">
+        <v>81</v>
+      </c>
+      <c r="D4" s="3">
         <f>AVERAGE('ежедневные данные'!D2:D8)</f>
-        <v>#DIV/0!</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3">
         <f>AVERAGE('ежедневные данные'!E2:E8)</f>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F4" s="3">
         <f>AVERAGE('ежедневные данные'!F2:F8)</f>
@@ -10833,19 +10856,19 @@
       </c>
       <c r="G4" s="3">
         <f>AVERAGE('ежедневные данные'!G2:G8)</f>
-        <v>89.5</v>
+        <v>88</v>
       </c>
       <c r="H4" s="3">
         <f>AVERAGE('ежедневные данные'!H2:H8)</f>
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I4" s="3">
         <f>AVERAGE('ежедневные данные'!I2:I8)</f>
-        <v>82</v>
+        <v>84.5</v>
       </c>
       <c r="J4" s="3">
         <f>AVERAGE('ежедневные данные'!J2:J8)</f>
-        <v>97</v>
+        <v>101.5</v>
       </c>
       <c r="K4" s="3">
         <f>AVERAGE('ежедневные данные'!K2:K8)</f>
@@ -13595,26 +13618,26 @@
     <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="41" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -13663,21 +13686,21 @@
       <c r="B4" s="14">
         <v>42018</v>
       </c>
-      <c r="C4" s="12" t="e">
+      <c r="C4" s="12">
         <f>AVERAGE('ежедневные данные'!B2:B15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D4" s="12" t="e">
+        <v>132</v>
+      </c>
+      <c r="D4" s="12">
         <f>AVERAGE('ежедневные данные'!C2:C15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" s="12" t="e">
+        <v>81</v>
+      </c>
+      <c r="E4" s="12">
         <f>AVERAGE('ежедневные данные'!D2:D15)</f>
-        <v>#DIV/0!</v>
+        <v>71</v>
       </c>
       <c r="F4" s="12">
         <f>AVERAGE('ежедневные данные'!E2:E15)</f>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G4" s="12">
         <f>AVERAGE('ежедневные данные'!F2:F15)</f>
@@ -13685,19 +13708,19 @@
       </c>
       <c r="H4" s="12">
         <f>AVERAGE('ежедневные данные'!G2:G15)</f>
-        <v>89.5</v>
+        <v>88</v>
       </c>
       <c r="I4" s="12">
         <f>AVERAGE('ежедневные данные'!H2:H15)</f>
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J4" s="12">
         <f>AVERAGE('ежедневные данные'!I2:I15)</f>
-        <v>82</v>
+        <v>84.5</v>
       </c>
       <c r="K4" s="12">
         <f>AVERAGE('ежедневные данные'!J2:J15)</f>
-        <v>97</v>
+        <v>101.5</v>
       </c>
       <c r="L4" s="12">
         <f>AVERAGE('ежедневные данные'!K2:K15)</f>

--- a/dnevnik.xlsx
+++ b/dnevnik.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pro\AdDiary\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7992" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные пациента" sheetId="4" r:id="rId1"/>
@@ -20,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'ежедневные данные'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -30,7 +25,7 @@
     <author>пользователь</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
   <si>
     <t>число</t>
   </si>
@@ -596,11 +591,17 @@
   <si>
     <t>Лекарства</t>
   </si>
+  <si>
+    <t>29.02.2018</t>
+  </si>
+  <si>
+    <t>норма</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
@@ -1003,7 +1004,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1157,7 +1158,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1238,7 +1239,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9890-4D3C-AADF-64EFFDFD616C}"/>
             </c:ext>
@@ -1347,7 +1348,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1428,7 +1429,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9890-4D3C-AADF-64EFFDFD616C}"/>
             </c:ext>
@@ -1537,7 +1538,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1618,7 +1619,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9890-4D3C-AADF-64EFFDFD616C}"/>
             </c:ext>
@@ -1632,12 +1633,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53229056"/>
-        <c:axId val="53230592"/>
+        <c:axId val="183729152"/>
+        <c:axId val="183739136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="53229056"/>
+        <c:axId val="183729152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +1675,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53230592"/>
+        <c:crossAx val="183739136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -1684,7 +1686,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="53230592"/>
+        <c:axId val="183739136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -1708,7 +1710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53229056"/>
+        <c:crossAx val="183729152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1741,7 +1743,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1905,7 +1907,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>127.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1986,7 +1988,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D1C6-4AFC-BBDF-E1DF060B2297}"/>
             </c:ext>
@@ -2095,7 +2097,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2176,7 +2178,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D1C6-4AFC-BBDF-E1DF060B2297}"/>
             </c:ext>
@@ -2285,7 +2287,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>89.5</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2366,7 +2368,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D1C6-4AFC-BBDF-E1DF060B2297}"/>
             </c:ext>
@@ -2380,12 +2382,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53273344"/>
-        <c:axId val="53274880"/>
+        <c:axId val="184364416"/>
+        <c:axId val="184378496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="53273344"/>
+        <c:axId val="184364416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,7 +2424,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53274880"/>
+        <c:crossAx val="184378496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -2432,7 +2435,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="53274880"/>
+        <c:axId val="184378496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -2456,7 +2459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53273344"/>
+        <c:crossAx val="184364416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -2491,7 +2494,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2655,7 +2658,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2736,7 +2739,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0CB7-48F1-9021-986975C81594}"/>
             </c:ext>
@@ -2845,7 +2848,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>82</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2926,7 +2929,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0CB7-48F1-9021-986975C81594}"/>
             </c:ext>
@@ -3035,7 +3038,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3116,7 +3119,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0CB7-48F1-9021-986975C81594}"/>
             </c:ext>
@@ -3130,12 +3133,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53309440"/>
-        <c:axId val="53310976"/>
+        <c:axId val="184414208"/>
+        <c:axId val="184415744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="53309440"/>
+        <c:axId val="184414208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3171,7 +3175,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53310976"/>
+        <c:crossAx val="184415744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -3182,7 +3186,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="53310976"/>
+        <c:axId val="184415744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3206,7 +3210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53309440"/>
+        <c:crossAx val="184414208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -3241,7 +3245,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3395,7 +3399,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>130</c:v>
+                  <c:v>127.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3476,7 +3480,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F7E4-45AA-BAA6-4706AC119451}"/>
             </c:ext>
@@ -3585,7 +3589,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>85.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3666,7 +3670,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F7E4-45AA-BAA6-4706AC119451}"/>
             </c:ext>
@@ -3775,7 +3779,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>102</c:v>
+                  <c:v>103.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3856,7 +3860,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F7E4-45AA-BAA6-4706AC119451}"/>
             </c:ext>
@@ -3870,12 +3874,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53330688"/>
-        <c:axId val="53332224"/>
+        <c:axId val="187339136"/>
+        <c:axId val="187340672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="53330688"/>
+        <c:axId val="187339136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,7 +3916,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53332224"/>
+        <c:crossAx val="187340672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -3922,7 +3927,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="53332224"/>
+        <c:axId val="187340672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3946,7 +3951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53330688"/>
+        <c:crossAx val="187339136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -4000,7 +4005,7 @@
         <xdr:cNvPr id="2049" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4038,7 +4043,7 @@
         <xdr:cNvPr id="2050" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4076,7 +4081,7 @@
         <xdr:cNvPr id="2051" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4114,7 +4119,7 @@
         <xdr:cNvPr id="2052" name="Диаграмма 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4180,7 +4185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4213,26 +4218,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4265,23 +4253,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -4464,9 +4435,9 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -4482,7 +4453,7 @@
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
@@ -4498,7 +4469,7 @@
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
@@ -4541,19 +4512,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="5.7109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" style="24" customWidth="1"/>
+    <col min="2" max="13" width="5.6640625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" style="24" customWidth="1"/>
     <col min="15" max="15" width="32" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="24"/>
+    <col min="16" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -4584,7 +4555,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="25">
         <v>43158</v>
       </c>
@@ -4619,7 +4590,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="25">
         <v>43159</v>
       </c>
@@ -4660,24 +4631,52 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="22"/>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="22">
+        <v>130</v>
+      </c>
+      <c r="C4" s="23">
+        <v>87</v>
+      </c>
+      <c r="D4" s="17">
+        <v>75</v>
+      </c>
+      <c r="E4" s="22">
+        <v>127</v>
+      </c>
+      <c r="F4" s="23">
+        <v>87</v>
+      </c>
+      <c r="G4" s="17">
+        <v>97</v>
+      </c>
+      <c r="H4" s="22">
+        <v>122</v>
+      </c>
+      <c r="I4" s="23">
+        <v>90</v>
+      </c>
+      <c r="J4" s="17">
+        <v>85</v>
+      </c>
+      <c r="K4" s="22">
+        <v>123</v>
+      </c>
+      <c r="L4" s="23">
+        <v>87</v>
+      </c>
+      <c r="M4" s="17">
+        <v>106</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>77</v>
+      </c>
       <c r="O4" s="17"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -4694,7 +4693,7 @@
       <c r="N5" s="22"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>
@@ -4711,7 +4710,7 @@
       <c r="N6" s="18"/>
       <c r="O6" s="20"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
@@ -4728,7 +4727,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
@@ -4745,7 +4744,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
@@ -4762,7 +4761,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
@@ -4779,7 +4778,7 @@
       <c r="N10" s="18"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
@@ -4796,7 +4795,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
@@ -4813,7 +4812,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
@@ -4830,7 +4829,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
@@ -4847,7 +4846,7 @@
       <c r="N14" s="18"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
@@ -4864,7 +4863,7 @@
       <c r="N15" s="18"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
@@ -4881,7 +4880,7 @@
       <c r="N16" s="18"/>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
@@ -4898,7 +4897,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="20"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
@@ -4915,7 +4914,7 @@
       <c r="N18" s="22"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
@@ -4932,7 +4931,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -4949,7 +4948,7 @@
       <c r="N20" s="18"/>
       <c r="O20" s="20"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -4966,7 +4965,7 @@
       <c r="N21" s="18"/>
       <c r="O21" s="20"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -4983,7 +4982,7 @@
       <c r="N22" s="18"/>
       <c r="O22" s="20"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -5000,7 +4999,7 @@
       <c r="N23" s="18"/>
       <c r="O23" s="20"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -5017,7 +5016,7 @@
       <c r="N24" s="18"/>
       <c r="O24" s="20"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -5034,7 +5033,7 @@
       <c r="N25" s="22"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
@@ -5051,7 +5050,7 @@
       <c r="N26" s="22"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
@@ -5068,7 +5067,7 @@
       <c r="N27" s="18"/>
       <c r="O27" s="20"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -5085,7 +5084,7 @@
       <c r="N28" s="18"/>
       <c r="O28" s="20"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
@@ -5102,7 +5101,7 @@
       <c r="N29" s="18"/>
       <c r="O29" s="20"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
@@ -5119,7 +5118,7 @@
       <c r="N30" s="18"/>
       <c r="O30" s="20"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
@@ -5136,7 +5135,7 @@
       <c r="N31" s="18"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
@@ -5153,7 +5152,7 @@
       <c r="N32" s="22"/>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
@@ -5170,7 +5169,7 @@
       <c r="N33" s="22"/>
       <c r="O33" s="17"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -5187,7 +5186,7 @@
       <c r="N34" s="18"/>
       <c r="O34" s="20"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
@@ -5204,7 +5203,7 @@
       <c r="N35" s="18"/>
       <c r="O35" s="20"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
@@ -5221,7 +5220,7 @@
       <c r="N36" s="18"/>
       <c r="O36" s="20"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
@@ -5238,7 +5237,7 @@
       <c r="N37" s="18"/>
       <c r="O37" s="20"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="25"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
@@ -5255,7 +5254,7 @@
       <c r="N38" s="18"/>
       <c r="O38" s="20"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="23"/>
@@ -5272,7 +5271,7 @@
       <c r="N39" s="22"/>
       <c r="O39" s="17"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="23"/>
@@ -5289,7 +5288,7 @@
       <c r="N40" s="22"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
@@ -5306,7 +5305,7 @@
       <c r="N41" s="18"/>
       <c r="O41" s="20"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -5323,7 +5322,7 @@
       <c r="N42" s="18"/>
       <c r="O42" s="20"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="25"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
@@ -5340,7 +5339,7 @@
       <c r="N43" s="18"/>
       <c r="O43" s="20"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="25"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -5357,7 +5356,7 @@
       <c r="N44" s="18"/>
       <c r="O44" s="20"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
@@ -5374,7 +5373,7 @@
       <c r="N45" s="18"/>
       <c r="O45" s="20"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="23"/>
@@ -5391,7 +5390,7 @@
       <c r="N46" s="22"/>
       <c r="O46" s="17"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="23"/>
@@ -5408,7 +5407,7 @@
       <c r="N47" s="22"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
@@ -5425,7 +5424,7 @@
       <c r="N48" s="18"/>
       <c r="O48" s="20"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
@@ -5442,7 +5441,7 @@
       <c r="N49" s="18"/>
       <c r="O49" s="20"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
@@ -5459,7 +5458,7 @@
       <c r="N50" s="18"/>
       <c r="O50" s="20"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
@@ -5476,7 +5475,7 @@
       <c r="N51" s="18"/>
       <c r="O51" s="20"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
@@ -5493,7 +5492,7 @@
       <c r="N52" s="18"/>
       <c r="O52" s="20"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="23"/>
@@ -5510,7 +5509,7 @@
       <c r="N53" s="22"/>
       <c r="O53" s="17"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="23"/>
@@ -5527,7 +5526,7 @@
       <c r="N54" s="22"/>
       <c r="O54" s="17"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
@@ -5544,7 +5543,7 @@
       <c r="N55" s="18"/>
       <c r="O55" s="20"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
@@ -5561,7 +5560,7 @@
       <c r="N56" s="18"/>
       <c r="O56" s="20"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
@@ -5578,7 +5577,7 @@
       <c r="N57" s="18"/>
       <c r="O57" s="20"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
@@ -5595,7 +5594,7 @@
       <c r="N58" s="18"/>
       <c r="O58" s="20"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="25"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
@@ -5612,7 +5611,7 @@
       <c r="N59" s="18"/>
       <c r="O59" s="20"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="23"/>
@@ -5629,7 +5628,7 @@
       <c r="N60" s="22"/>
       <c r="O60" s="17"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="23"/>
@@ -5646,7 +5645,7 @@
       <c r="N61" s="22"/>
       <c r="O61" s="17"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
@@ -5663,7 +5662,7 @@
       <c r="N62" s="18"/>
       <c r="O62" s="20"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="25"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
@@ -5680,7 +5679,7 @@
       <c r="N63" s="18"/>
       <c r="O63" s="20"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="25"/>
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
@@ -5697,7 +5696,7 @@
       <c r="N64" s="18"/>
       <c r="O64" s="20"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="25"/>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
@@ -5714,7 +5713,7 @@
       <c r="N65" s="18"/>
       <c r="O65" s="20"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="25"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
@@ -5731,7 +5730,7 @@
       <c r="N66" s="18"/>
       <c r="O66" s="20"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="23"/>
@@ -5748,7 +5747,7 @@
       <c r="N67" s="22"/>
       <c r="O67" s="17"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="23"/>
@@ -5765,7 +5764,7 @@
       <c r="N68" s="22"/>
       <c r="O68" s="17"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="25"/>
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
@@ -5782,7 +5781,7 @@
       <c r="N69" s="18"/>
       <c r="O69" s="20"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="25"/>
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
@@ -5799,7 +5798,7 @@
       <c r="N70" s="18"/>
       <c r="O70" s="20"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="25"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
@@ -5816,7 +5815,7 @@
       <c r="N71" s="18"/>
       <c r="O71" s="20"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="25"/>
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
@@ -5833,7 +5832,7 @@
       <c r="N72" s="18"/>
       <c r="O72" s="20"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="25"/>
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
@@ -5850,7 +5849,7 @@
       <c r="N73" s="18"/>
       <c r="O73" s="20"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="23"/>
@@ -5867,7 +5866,7 @@
       <c r="N74" s="22"/>
       <c r="O74" s="17"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="23"/>
@@ -5884,7 +5883,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="17"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="25"/>
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
@@ -5901,7 +5900,7 @@
       <c r="N76" s="18"/>
       <c r="O76" s="20"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="25"/>
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
@@ -5918,7 +5917,7 @@
       <c r="N77" s="18"/>
       <c r="O77" s="20"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="25"/>
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
@@ -5935,7 +5934,7 @@
       <c r="N78" s="18"/>
       <c r="O78" s="20"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="25"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
@@ -5952,7 +5951,7 @@
       <c r="N79" s="18"/>
       <c r="O79" s="20"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="25"/>
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
@@ -5969,7 +5968,7 @@
       <c r="N80" s="18"/>
       <c r="O80" s="20"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="23"/>
@@ -5986,7 +5985,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="17"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="23"/>
@@ -6003,7 +6002,7 @@
       <c r="N82" s="22"/>
       <c r="O82" s="17"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="25"/>
       <c r="B83" s="18"/>
       <c r="C83" s="19"/>
@@ -6020,7 +6019,7 @@
       <c r="N83" s="18"/>
       <c r="O83" s="20"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="25"/>
       <c r="B84" s="18"/>
       <c r="C84" s="19"/>
@@ -6037,7 +6036,7 @@
       <c r="N84" s="18"/>
       <c r="O84" s="20"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="25"/>
       <c r="B85" s="18"/>
       <c r="C85" s="19"/>
@@ -6054,7 +6053,7 @@
       <c r="N85" s="18"/>
       <c r="O85" s="20"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="25"/>
       <c r="B86" s="18"/>
       <c r="C86" s="19"/>
@@ -6071,7 +6070,7 @@
       <c r="N86" s="18"/>
       <c r="O86" s="20"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="25"/>
       <c r="B87" s="18"/>
       <c r="C87" s="19"/>
@@ -6088,7 +6087,7 @@
       <c r="N87" s="18"/>
       <c r="O87" s="20"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="23"/>
@@ -6105,7 +6104,7 @@
       <c r="N88" s="22"/>
       <c r="O88" s="17"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="23"/>
@@ -6122,7 +6121,7 @@
       <c r="N89" s="22"/>
       <c r="O89" s="17"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="25"/>
       <c r="B90" s="18"/>
       <c r="C90" s="19"/>
@@ -6139,7 +6138,7 @@
       <c r="N90" s="18"/>
       <c r="O90" s="20"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="25"/>
       <c r="B91" s="18"/>
       <c r="C91" s="19"/>
@@ -6156,7 +6155,7 @@
       <c r="N91" s="18"/>
       <c r="O91" s="20"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="25"/>
       <c r="B92" s="18"/>
       <c r="C92" s="19"/>
@@ -6173,7 +6172,7 @@
       <c r="N92" s="18"/>
       <c r="O92" s="20"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="25"/>
       <c r="B93" s="18"/>
       <c r="C93" s="19"/>
@@ -6190,7 +6189,7 @@
       <c r="N93" s="18"/>
       <c r="O93" s="20"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="25"/>
       <c r="B94" s="18"/>
       <c r="C94" s="19"/>
@@ -6207,7 +6206,7 @@
       <c r="N94" s="18"/>
       <c r="O94" s="20"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="23"/>
@@ -6224,7 +6223,7 @@
       <c r="N95" s="22"/>
       <c r="O95" s="17"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="23"/>
@@ -6241,7 +6240,7 @@
       <c r="N96" s="22"/>
       <c r="O96" s="17"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="25"/>
       <c r="B97" s="18"/>
       <c r="C97" s="19"/>
@@ -6258,7 +6257,7 @@
       <c r="N97" s="18"/>
       <c r="O97" s="20"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="25"/>
       <c r="B98" s="18"/>
       <c r="C98" s="19"/>
@@ -6275,7 +6274,7 @@
       <c r="N98" s="18"/>
       <c r="O98" s="20"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="25"/>
       <c r="B99" s="18"/>
       <c r="C99" s="19"/>
@@ -6292,7 +6291,7 @@
       <c r="N99" s="18"/>
       <c r="O99" s="20"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="25"/>
       <c r="B100" s="18"/>
       <c r="C100" s="19"/>
@@ -6309,7 +6308,7 @@
       <c r="N100" s="18"/>
       <c r="O100" s="20"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="25"/>
       <c r="B101" s="18"/>
       <c r="C101" s="19"/>
@@ -6326,7 +6325,7 @@
       <c r="N101" s="18"/>
       <c r="O101" s="20"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="23"/>
@@ -6343,7 +6342,7 @@
       <c r="N102" s="22"/>
       <c r="O102" s="17"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="23"/>
@@ -6360,7 +6359,7 @@
       <c r="N103" s="22"/>
       <c r="O103" s="17"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="25"/>
       <c r="B104" s="18"/>
       <c r="C104" s="19"/>
@@ -6377,7 +6376,7 @@
       <c r="N104" s="18"/>
       <c r="O104" s="20"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="25"/>
       <c r="B105" s="18"/>
       <c r="C105" s="19"/>
@@ -6394,7 +6393,7 @@
       <c r="N105" s="18"/>
       <c r="O105" s="20"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="25"/>
       <c r="B106" s="18"/>
       <c r="C106" s="19"/>
@@ -6411,7 +6410,7 @@
       <c r="N106" s="18"/>
       <c r="O106" s="20"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="25"/>
       <c r="B107" s="18"/>
       <c r="C107" s="19"/>
@@ -6428,7 +6427,7 @@
       <c r="N107" s="18"/>
       <c r="O107" s="20"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="25"/>
       <c r="B108" s="18"/>
       <c r="C108" s="19"/>
@@ -6445,7 +6444,7 @@
       <c r="N108" s="18"/>
       <c r="O108" s="20"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="23"/>
@@ -6462,7 +6461,7 @@
       <c r="N109" s="22"/>
       <c r="O109" s="17"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="23"/>
@@ -6479,7 +6478,7 @@
       <c r="N110" s="22"/>
       <c r="O110" s="17"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="25"/>
       <c r="B111" s="18"/>
       <c r="C111" s="19"/>
@@ -6496,7 +6495,7 @@
       <c r="N111" s="18"/>
       <c r="O111" s="20"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="25"/>
       <c r="B112" s="18"/>
       <c r="C112" s="19"/>
@@ -6513,7 +6512,7 @@
       <c r="N112" s="18"/>
       <c r="O112" s="20"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="25"/>
       <c r="B113" s="18"/>
       <c r="C113" s="19"/>
@@ -6530,7 +6529,7 @@
       <c r="N113" s="18"/>
       <c r="O113" s="20"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="25"/>
       <c r="B114" s="18"/>
       <c r="C114" s="19"/>
@@ -6547,7 +6546,7 @@
       <c r="N114" s="18"/>
       <c r="O114" s="20"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="25"/>
       <c r="B115" s="18"/>
       <c r="C115" s="19"/>
@@ -6564,7 +6563,7 @@
       <c r="N115" s="18"/>
       <c r="O115" s="20"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="23"/>
@@ -6581,7 +6580,7 @@
       <c r="N116" s="22"/>
       <c r="O116" s="17"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="23"/>
@@ -6598,7 +6597,7 @@
       <c r="N117" s="22"/>
       <c r="O117" s="17"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="25"/>
       <c r="B118" s="18"/>
       <c r="C118" s="19"/>
@@ -6615,7 +6614,7 @@
       <c r="N118" s="18"/>
       <c r="O118" s="20"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="25"/>
       <c r="B119" s="18"/>
       <c r="C119" s="19"/>
@@ -6632,7 +6631,7 @@
       <c r="N119" s="18"/>
       <c r="O119" s="20"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="25"/>
       <c r="B120" s="18"/>
       <c r="C120" s="19"/>
@@ -6649,7 +6648,7 @@
       <c r="N120" s="18"/>
       <c r="O120" s="20"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="25"/>
       <c r="B121" s="18"/>
       <c r="C121" s="19"/>
@@ -6666,7 +6665,7 @@
       <c r="N121" s="18"/>
       <c r="O121" s="20"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="25"/>
       <c r="B122" s="18"/>
       <c r="C122" s="19"/>
@@ -6683,7 +6682,7 @@
       <c r="N122" s="18"/>
       <c r="O122" s="20"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="23"/>
@@ -6700,7 +6699,7 @@
       <c r="N123" s="22"/>
       <c r="O123" s="17"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="23"/>
@@ -6717,7 +6716,7 @@
       <c r="N124" s="22"/>
       <c r="O124" s="17"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="25"/>
       <c r="B125" s="18"/>
       <c r="C125" s="19"/>
@@ -6734,7 +6733,7 @@
       <c r="N125" s="18"/>
       <c r="O125" s="20"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="25"/>
       <c r="B126" s="18"/>
       <c r="C126" s="19"/>
@@ -6751,7 +6750,7 @@
       <c r="N126" s="18"/>
       <c r="O126" s="20"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="25"/>
       <c r="B127" s="18"/>
       <c r="C127" s="19"/>
@@ -6768,7 +6767,7 @@
       <c r="N127" s="18"/>
       <c r="O127" s="20"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="25"/>
       <c r="B128" s="18"/>
       <c r="C128" s="19"/>
@@ -6785,7 +6784,7 @@
       <c r="N128" s="18"/>
       <c r="O128" s="20"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="25"/>
       <c r="B129" s="18"/>
       <c r="C129" s="19"/>
@@ -6802,7 +6801,7 @@
       <c r="N129" s="18"/>
       <c r="O129" s="20"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="23"/>
@@ -6819,7 +6818,7 @@
       <c r="N130" s="22"/>
       <c r="O130" s="17"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="23"/>
@@ -6836,7 +6835,7 @@
       <c r="N131" s="22"/>
       <c r="O131" s="17"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="25"/>
       <c r="B132" s="18"/>
       <c r="C132" s="19"/>
@@ -6853,7 +6852,7 @@
       <c r="N132" s="18"/>
       <c r="O132" s="20"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="25"/>
       <c r="B133" s="18"/>
       <c r="C133" s="19"/>
@@ -6870,7 +6869,7 @@
       <c r="N133" s="18"/>
       <c r="O133" s="20"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="25"/>
       <c r="B134" s="18"/>
       <c r="C134" s="19"/>
@@ -6887,7 +6886,7 @@
       <c r="N134" s="18"/>
       <c r="O134" s="20"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="25"/>
       <c r="B135" s="18"/>
       <c r="C135" s="19"/>
@@ -6904,7 +6903,7 @@
       <c r="N135" s="18"/>
       <c r="O135" s="20"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="25"/>
       <c r="B136" s="18"/>
       <c r="C136" s="19"/>
@@ -6921,7 +6920,7 @@
       <c r="N136" s="18"/>
       <c r="O136" s="20"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="23"/>
@@ -6938,7 +6937,7 @@
       <c r="N137" s="22"/>
       <c r="O137" s="17"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="23"/>
@@ -6955,7 +6954,7 @@
       <c r="N138" s="22"/>
       <c r="O138" s="17"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="25"/>
       <c r="B139" s="18"/>
       <c r="C139" s="19"/>
@@ -6972,7 +6971,7 @@
       <c r="N139" s="18"/>
       <c r="O139" s="20"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="25"/>
       <c r="B140" s="18"/>
       <c r="C140" s="19"/>
@@ -6989,7 +6988,7 @@
       <c r="N140" s="18"/>
       <c r="O140" s="20"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="25"/>
       <c r="B141" s="18"/>
       <c r="C141" s="19"/>
@@ -7006,7 +7005,7 @@
       <c r="N141" s="18"/>
       <c r="O141" s="20"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="25"/>
       <c r="B142" s="18"/>
       <c r="C142" s="19"/>
@@ -7023,7 +7022,7 @@
       <c r="N142" s="18"/>
       <c r="O142" s="20"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="25"/>
       <c r="B143" s="18"/>
       <c r="C143" s="19"/>
@@ -7040,7 +7039,7 @@
       <c r="N143" s="18"/>
       <c r="O143" s="20"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="23"/>
@@ -7057,7 +7056,7 @@
       <c r="N144" s="22"/>
       <c r="O144" s="17"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="23"/>
@@ -7074,7 +7073,7 @@
       <c r="N145" s="22"/>
       <c r="O145" s="17"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="25"/>
       <c r="B146" s="18"/>
       <c r="C146" s="19"/>
@@ -7091,7 +7090,7 @@
       <c r="N146" s="18"/>
       <c r="O146" s="20"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="25"/>
       <c r="B147" s="18"/>
       <c r="C147" s="19"/>
@@ -7108,7 +7107,7 @@
       <c r="N147" s="18"/>
       <c r="O147" s="20"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="25"/>
       <c r="B148" s="18"/>
       <c r="C148" s="19"/>
@@ -7125,7 +7124,7 @@
       <c r="N148" s="18"/>
       <c r="O148" s="20"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="25"/>
       <c r="B149" s="18"/>
       <c r="C149" s="19"/>
@@ -7142,7 +7141,7 @@
       <c r="N149" s="18"/>
       <c r="O149" s="20"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="25"/>
       <c r="B150" s="18"/>
       <c r="C150" s="19"/>
@@ -7159,7 +7158,7 @@
       <c r="N150" s="18"/>
       <c r="O150" s="20"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="23"/>
@@ -7176,7 +7175,7 @@
       <c r="N151" s="22"/>
       <c r="O151" s="17"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="23"/>
@@ -7193,7 +7192,7 @@
       <c r="N152" s="22"/>
       <c r="O152" s="17"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="25"/>
       <c r="B153" s="18"/>
       <c r="C153" s="19"/>
@@ -7210,7 +7209,7 @@
       <c r="N153" s="18"/>
       <c r="O153" s="20"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="25"/>
       <c r="B154" s="18"/>
       <c r="C154" s="19"/>
@@ -7227,7 +7226,7 @@
       <c r="N154" s="18"/>
       <c r="O154" s="20"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="25"/>
       <c r="B155" s="18"/>
       <c r="C155" s="19"/>
@@ -7244,7 +7243,7 @@
       <c r="N155" s="18"/>
       <c r="O155" s="20"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="25"/>
       <c r="B156" s="18"/>
       <c r="C156" s="19"/>
@@ -7261,7 +7260,7 @@
       <c r="N156" s="18"/>
       <c r="O156" s="20"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="25"/>
       <c r="B157" s="18"/>
       <c r="C157" s="19"/>
@@ -7278,7 +7277,7 @@
       <c r="N157" s="18"/>
       <c r="O157" s="20"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="23"/>
@@ -7295,7 +7294,7 @@
       <c r="N158" s="22"/>
       <c r="O158" s="17"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="23"/>
@@ -7312,7 +7311,7 @@
       <c r="N159" s="22"/>
       <c r="O159" s="17"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="25"/>
       <c r="B160" s="18"/>
       <c r="C160" s="19"/>
@@ -7329,7 +7328,7 @@
       <c r="N160" s="18"/>
       <c r="O160" s="20"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="25"/>
       <c r="B161" s="18"/>
       <c r="C161" s="19"/>
@@ -7346,7 +7345,7 @@
       <c r="N161" s="18"/>
       <c r="O161" s="20"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="25"/>
       <c r="B162" s="18"/>
       <c r="C162" s="19"/>
@@ -7363,7 +7362,7 @@
       <c r="N162" s="18"/>
       <c r="O162" s="20"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="25"/>
       <c r="B163" s="18"/>
       <c r="C163" s="19"/>
@@ -7380,7 +7379,7 @@
       <c r="N163" s="18"/>
       <c r="O163" s="20"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="25"/>
       <c r="B164" s="18"/>
       <c r="C164" s="19"/>
@@ -7397,7 +7396,7 @@
       <c r="N164" s="18"/>
       <c r="O164" s="20"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="23"/>
@@ -7414,7 +7413,7 @@
       <c r="N165" s="22"/>
       <c r="O165" s="17"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="23"/>
@@ -7431,7 +7430,7 @@
       <c r="N166" s="22"/>
       <c r="O166" s="17"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="25"/>
       <c r="B167" s="18"/>
       <c r="C167" s="19"/>
@@ -7448,7 +7447,7 @@
       <c r="N167" s="18"/>
       <c r="O167" s="20"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="25"/>
       <c r="B168" s="18"/>
       <c r="C168" s="19"/>
@@ -7465,7 +7464,7 @@
       <c r="N168" s="18"/>
       <c r="O168" s="20"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="25"/>
       <c r="B169" s="18"/>
       <c r="C169" s="19"/>
@@ -7482,7 +7481,7 @@
       <c r="N169" s="18"/>
       <c r="O169" s="20"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="25"/>
       <c r="B170" s="18"/>
       <c r="C170" s="19"/>
@@ -7499,7 +7498,7 @@
       <c r="N170" s="18"/>
       <c r="O170" s="20"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="25"/>
       <c r="B171" s="18"/>
       <c r="C171" s="19"/>
@@ -7516,7 +7515,7 @@
       <c r="N171" s="18"/>
       <c r="O171" s="20"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="23"/>
@@ -7533,7 +7532,7 @@
       <c r="N172" s="22"/>
       <c r="O172" s="17"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="23"/>
@@ -7550,7 +7549,7 @@
       <c r="N173" s="22"/>
       <c r="O173" s="17"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="25"/>
       <c r="B174" s="18"/>
       <c r="C174" s="19"/>
@@ -7567,7 +7566,7 @@
       <c r="N174" s="18"/>
       <c r="O174" s="20"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="25"/>
       <c r="B175" s="18"/>
       <c r="C175" s="19"/>
@@ -7584,7 +7583,7 @@
       <c r="N175" s="18"/>
       <c r="O175" s="20"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="25"/>
       <c r="B176" s="18"/>
       <c r="C176" s="19"/>
@@ -7601,7 +7600,7 @@
       <c r="N176" s="18"/>
       <c r="O176" s="20"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="25"/>
       <c r="B177" s="18"/>
       <c r="C177" s="19"/>
@@ -7618,7 +7617,7 @@
       <c r="N177" s="18"/>
       <c r="O177" s="20"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="25"/>
       <c r="B178" s="18"/>
       <c r="C178" s="19"/>
@@ -7635,7 +7634,7 @@
       <c r="N178" s="18"/>
       <c r="O178" s="20"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="23"/>
@@ -7652,7 +7651,7 @@
       <c r="N179" s="22"/>
       <c r="O179" s="17"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="23"/>
@@ -7669,7 +7668,7 @@
       <c r="N180" s="22"/>
       <c r="O180" s="17"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="25"/>
       <c r="B181" s="18"/>
       <c r="C181" s="19"/>
@@ -7686,7 +7685,7 @@
       <c r="N181" s="18"/>
       <c r="O181" s="20"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="25"/>
       <c r="B182" s="18"/>
       <c r="C182" s="19"/>
@@ -7703,7 +7702,7 @@
       <c r="N182" s="18"/>
       <c r="O182" s="20"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="25"/>
       <c r="B183" s="18"/>
       <c r="C183" s="19"/>
@@ -7720,7 +7719,7 @@
       <c r="N183" s="18"/>
       <c r="O183" s="20"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="25"/>
       <c r="B184" s="18"/>
       <c r="C184" s="19"/>
@@ -7737,7 +7736,7 @@
       <c r="N184" s="18"/>
       <c r="O184" s="20"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="25"/>
       <c r="B185" s="18"/>
       <c r="C185" s="19"/>
@@ -7754,7 +7753,7 @@
       <c r="N185" s="18"/>
       <c r="O185" s="20"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="21"/>
       <c r="B186" s="22"/>
       <c r="C186" s="23"/>
@@ -7771,7 +7770,7 @@
       <c r="N186" s="22"/>
       <c r="O186" s="17"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="21"/>
       <c r="B187" s="22"/>
       <c r="C187" s="23"/>
@@ -7788,7 +7787,7 @@
       <c r="N187" s="22"/>
       <c r="O187" s="17"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="25"/>
       <c r="B188" s="18"/>
       <c r="C188" s="19"/>
@@ -7805,7 +7804,7 @@
       <c r="N188" s="18"/>
       <c r="O188" s="20"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="25"/>
       <c r="B189" s="18"/>
       <c r="C189" s="19"/>
@@ -7822,7 +7821,7 @@
       <c r="N189" s="18"/>
       <c r="O189" s="20"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="25"/>
       <c r="B190" s="18"/>
       <c r="C190" s="19"/>
@@ -7839,7 +7838,7 @@
       <c r="N190" s="18"/>
       <c r="O190" s="20"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="25"/>
       <c r="B191" s="18"/>
       <c r="C191" s="19"/>
@@ -7856,7 +7855,7 @@
       <c r="N191" s="18"/>
       <c r="O191" s="20"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="25"/>
       <c r="B192" s="18"/>
       <c r="C192" s="19"/>
@@ -7873,7 +7872,7 @@
       <c r="N192" s="18"/>
       <c r="O192" s="20"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="21"/>
       <c r="B193" s="22"/>
       <c r="C193" s="23"/>
@@ -7890,7 +7889,7 @@
       <c r="N193" s="22"/>
       <c r="O193" s="17"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="21"/>
       <c r="B194" s="22"/>
       <c r="C194" s="23"/>
@@ -7907,7 +7906,7 @@
       <c r="N194" s="22"/>
       <c r="O194" s="17"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="25"/>
       <c r="B195" s="18"/>
       <c r="C195" s="19"/>
@@ -7924,7 +7923,7 @@
       <c r="N195" s="18"/>
       <c r="O195" s="20"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="25"/>
       <c r="B196" s="18"/>
       <c r="C196" s="19"/>
@@ -7941,7 +7940,7 @@
       <c r="N196" s="18"/>
       <c r="O196" s="20"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="25"/>
       <c r="B197" s="18"/>
       <c r="C197" s="19"/>
@@ -7958,7 +7957,7 @@
       <c r="N197" s="18"/>
       <c r="O197" s="20"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="25"/>
       <c r="B198" s="18"/>
       <c r="C198" s="19"/>
@@ -7975,7 +7974,7 @@
       <c r="N198" s="18"/>
       <c r="O198" s="20"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="25"/>
       <c r="B199" s="18"/>
       <c r="C199" s="19"/>
@@ -7992,7 +7991,7 @@
       <c r="N199" s="18"/>
       <c r="O199" s="20"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="21"/>
       <c r="B200" s="22"/>
       <c r="C200" s="23"/>
@@ -8009,7 +8008,7 @@
       <c r="N200" s="22"/>
       <c r="O200" s="17"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="21"/>
       <c r="B201" s="22"/>
       <c r="C201" s="23"/>
@@ -8026,7 +8025,7 @@
       <c r="N201" s="22"/>
       <c r="O201" s="17"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="25"/>
       <c r="B202" s="18"/>
       <c r="C202" s="19"/>
@@ -8043,7 +8042,7 @@
       <c r="N202" s="18"/>
       <c r="O202" s="20"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="25"/>
       <c r="B203" s="18"/>
       <c r="C203" s="19"/>
@@ -8060,7 +8059,7 @@
       <c r="N203" s="18"/>
       <c r="O203" s="20"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="25"/>
       <c r="B204" s="18"/>
       <c r="C204" s="19"/>
@@ -8077,7 +8076,7 @@
       <c r="N204" s="18"/>
       <c r="O204" s="20"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="25"/>
       <c r="B205" s="18"/>
       <c r="C205" s="19"/>
@@ -8094,7 +8093,7 @@
       <c r="N205" s="18"/>
       <c r="O205" s="20"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="25"/>
       <c r="B206" s="18"/>
       <c r="C206" s="19"/>
@@ -8111,7 +8110,7 @@
       <c r="N206" s="18"/>
       <c r="O206" s="20"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="21"/>
       <c r="B207" s="22"/>
       <c r="C207" s="23"/>
@@ -8128,7 +8127,7 @@
       <c r="N207" s="22"/>
       <c r="O207" s="17"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="21"/>
       <c r="B208" s="22"/>
       <c r="C208" s="23"/>
@@ -8145,7 +8144,7 @@
       <c r="N208" s="22"/>
       <c r="O208" s="17"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="25"/>
       <c r="B209" s="18"/>
       <c r="C209" s="19"/>
@@ -8162,7 +8161,7 @@
       <c r="N209" s="18"/>
       <c r="O209" s="20"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="25"/>
       <c r="B210" s="18"/>
       <c r="C210" s="19"/>
@@ -8179,7 +8178,7 @@
       <c r="N210" s="18"/>
       <c r="O210" s="20"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="25"/>
       <c r="B211" s="18"/>
       <c r="C211" s="19"/>
@@ -8196,7 +8195,7 @@
       <c r="N211" s="18"/>
       <c r="O211" s="20"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="25"/>
       <c r="B212" s="18"/>
       <c r="C212" s="19"/>
@@ -8213,7 +8212,7 @@
       <c r="N212" s="18"/>
       <c r="O212" s="20"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="25"/>
       <c r="B213" s="18"/>
       <c r="C213" s="19"/>
@@ -8230,7 +8229,7 @@
       <c r="N213" s="18"/>
       <c r="O213" s="20"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="21"/>
       <c r="B214" s="22"/>
       <c r="C214" s="23"/>
@@ -8247,7 +8246,7 @@
       <c r="N214" s="22"/>
       <c r="O214" s="17"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="21"/>
       <c r="B215" s="22"/>
       <c r="C215" s="23"/>
@@ -8264,7 +8263,7 @@
       <c r="N215" s="22"/>
       <c r="O215" s="17"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="25"/>
       <c r="B216" s="18"/>
       <c r="C216" s="19"/>
@@ -8281,7 +8280,7 @@
       <c r="N216" s="18"/>
       <c r="O216" s="20"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="25"/>
       <c r="B217" s="18"/>
       <c r="C217" s="19"/>
@@ -8298,7 +8297,7 @@
       <c r="N217" s="18"/>
       <c r="O217" s="20"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="25"/>
       <c r="B218" s="18"/>
       <c r="C218" s="19"/>
@@ -8315,7 +8314,7 @@
       <c r="N218" s="18"/>
       <c r="O218" s="20"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="25"/>
       <c r="B219" s="18"/>
       <c r="C219" s="19"/>
@@ -8332,7 +8331,7 @@
       <c r="N219" s="18"/>
       <c r="O219" s="20"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="25"/>
       <c r="B220" s="18"/>
       <c r="C220" s="19"/>
@@ -8349,7 +8348,7 @@
       <c r="N220" s="18"/>
       <c r="O220" s="20"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="21"/>
       <c r="B221" s="22"/>
       <c r="C221" s="23"/>
@@ -8366,7 +8365,7 @@
       <c r="N221" s="22"/>
       <c r="O221" s="17"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="21"/>
       <c r="B222" s="22"/>
       <c r="C222" s="23"/>
@@ -8383,7 +8382,7 @@
       <c r="N222" s="22"/>
       <c r="O222" s="17"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="25"/>
       <c r="B223" s="18"/>
       <c r="C223" s="19"/>
@@ -8400,7 +8399,7 @@
       <c r="N223" s="18"/>
       <c r="O223" s="20"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="25"/>
       <c r="B224" s="18"/>
       <c r="C224" s="19"/>
@@ -8417,7 +8416,7 @@
       <c r="N224" s="18"/>
       <c r="O224" s="20"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="25"/>
       <c r="B225" s="18"/>
       <c r="C225" s="19"/>
@@ -8434,7 +8433,7 @@
       <c r="N225" s="18"/>
       <c r="O225" s="20"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="25"/>
       <c r="B226" s="18"/>
       <c r="C226" s="19"/>
@@ -8451,7 +8450,7 @@
       <c r="N226" s="18"/>
       <c r="O226" s="20"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="25"/>
       <c r="B227" s="18"/>
       <c r="C227" s="19"/>
@@ -8468,7 +8467,7 @@
       <c r="N227" s="18"/>
       <c r="O227" s="20"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="21"/>
       <c r="B228" s="22"/>
       <c r="C228" s="23"/>
@@ -8485,7 +8484,7 @@
       <c r="N228" s="22"/>
       <c r="O228" s="17"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="21"/>
       <c r="B229" s="22"/>
       <c r="C229" s="23"/>
@@ -8502,7 +8501,7 @@
       <c r="N229" s="22"/>
       <c r="O229" s="17"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="25"/>
       <c r="B230" s="18"/>
       <c r="C230" s="19"/>
@@ -8519,7 +8518,7 @@
       <c r="N230" s="18"/>
       <c r="O230" s="20"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="25"/>
       <c r="B231" s="18"/>
       <c r="C231" s="19"/>
@@ -8536,7 +8535,7 @@
       <c r="N231" s="18"/>
       <c r="O231" s="20"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="25"/>
       <c r="B232" s="18"/>
       <c r="C232" s="19"/>
@@ -8553,7 +8552,7 @@
       <c r="N232" s="18"/>
       <c r="O232" s="20"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="25"/>
       <c r="B233" s="18"/>
       <c r="C233" s="19"/>
@@ -8570,7 +8569,7 @@
       <c r="N233" s="18"/>
       <c r="O233" s="20"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="25"/>
       <c r="B234" s="18"/>
       <c r="C234" s="19"/>
@@ -8587,7 +8586,7 @@
       <c r="N234" s="18"/>
       <c r="O234" s="20"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="21"/>
       <c r="B235" s="22"/>
       <c r="C235" s="23"/>
@@ -8604,7 +8603,7 @@
       <c r="N235" s="22"/>
       <c r="O235" s="17"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="21"/>
       <c r="B236" s="22"/>
       <c r="C236" s="23"/>
@@ -8621,7 +8620,7 @@
       <c r="N236" s="22"/>
       <c r="O236" s="17"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="25"/>
       <c r="B237" s="18"/>
       <c r="C237" s="19"/>
@@ -8638,7 +8637,7 @@
       <c r="N237" s="18"/>
       <c r="O237" s="20"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="25"/>
       <c r="B238" s="18"/>
       <c r="C238" s="19"/>
@@ -8655,7 +8654,7 @@
       <c r="N238" s="18"/>
       <c r="O238" s="20"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="25"/>
       <c r="B239" s="18"/>
       <c r="C239" s="19"/>
@@ -8672,7 +8671,7 @@
       <c r="N239" s="18"/>
       <c r="O239" s="20"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="25"/>
       <c r="B240" s="18"/>
       <c r="C240" s="19"/>
@@ -8689,7 +8688,7 @@
       <c r="N240" s="18"/>
       <c r="O240" s="20"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="25"/>
       <c r="B241" s="18"/>
       <c r="C241" s="19"/>
@@ -8706,7 +8705,7 @@
       <c r="N241" s="18"/>
       <c r="O241" s="20"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="21"/>
       <c r="B242" s="22"/>
       <c r="C242" s="23"/>
@@ -8723,7 +8722,7 @@
       <c r="N242" s="22"/>
       <c r="O242" s="17"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="21"/>
       <c r="B243" s="22"/>
       <c r="C243" s="23"/>
@@ -8740,7 +8739,7 @@
       <c r="N243" s="22"/>
       <c r="O243" s="17"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="25"/>
       <c r="B244" s="18"/>
       <c r="C244" s="19"/>
@@ -8757,7 +8756,7 @@
       <c r="N244" s="18"/>
       <c r="O244" s="20"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="25"/>
       <c r="B245" s="18"/>
       <c r="C245" s="19"/>
@@ -8774,7 +8773,7 @@
       <c r="N245" s="18"/>
       <c r="O245" s="20"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="25"/>
       <c r="B246" s="18"/>
       <c r="C246" s="19"/>
@@ -8791,7 +8790,7 @@
       <c r="N246" s="18"/>
       <c r="O246" s="20"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="25"/>
       <c r="B247" s="18"/>
       <c r="C247" s="19"/>
@@ -8808,7 +8807,7 @@
       <c r="N247" s="18"/>
       <c r="O247" s="20"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="25"/>
       <c r="B248" s="18"/>
       <c r="C248" s="19"/>
@@ -8825,7 +8824,7 @@
       <c r="N248" s="18"/>
       <c r="O248" s="20"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="21"/>
       <c r="B249" s="22"/>
       <c r="C249" s="23"/>
@@ -8842,7 +8841,7 @@
       <c r="N249" s="22"/>
       <c r="O249" s="17"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="21"/>
       <c r="B250" s="22"/>
       <c r="C250" s="23"/>
@@ -8859,7 +8858,7 @@
       <c r="N250" s="22"/>
       <c r="O250" s="17"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="25"/>
       <c r="B251" s="18"/>
       <c r="C251" s="19"/>
@@ -8876,7 +8875,7 @@
       <c r="N251" s="18"/>
       <c r="O251" s="20"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="25"/>
       <c r="B252" s="18"/>
       <c r="C252" s="19"/>
@@ -8893,7 +8892,7 @@
       <c r="N252" s="18"/>
       <c r="O252" s="20"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="25"/>
       <c r="B253" s="18"/>
       <c r="C253" s="19"/>
@@ -8910,7 +8909,7 @@
       <c r="N253" s="18"/>
       <c r="O253" s="20"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="25"/>
       <c r="B254" s="18"/>
       <c r="C254" s="19"/>
@@ -8927,7 +8926,7 @@
       <c r="N254" s="18"/>
       <c r="O254" s="20"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="25"/>
       <c r="B255" s="18"/>
       <c r="C255" s="19"/>
@@ -8944,7 +8943,7 @@
       <c r="N255" s="18"/>
       <c r="O255" s="20"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="21"/>
       <c r="B256" s="22"/>
       <c r="C256" s="23"/>
@@ -8961,7 +8960,7 @@
       <c r="N256" s="22"/>
       <c r="O256" s="17"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="21"/>
       <c r="B257" s="22"/>
       <c r="C257" s="23"/>
@@ -8978,7 +8977,7 @@
       <c r="N257" s="22"/>
       <c r="O257" s="17"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="25"/>
       <c r="B258" s="18"/>
       <c r="C258" s="19"/>
@@ -8995,7 +8994,7 @@
       <c r="N258" s="18"/>
       <c r="O258" s="20"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="25"/>
       <c r="B259" s="18"/>
       <c r="C259" s="19"/>
@@ -9012,7 +9011,7 @@
       <c r="N259" s="18"/>
       <c r="O259" s="20"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="25"/>
       <c r="B260" s="18"/>
       <c r="C260" s="19"/>
@@ -9029,7 +9028,7 @@
       <c r="N260" s="18"/>
       <c r="O260" s="20"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="25"/>
       <c r="B261" s="18"/>
       <c r="C261" s="19"/>
@@ -9046,7 +9045,7 @@
       <c r="N261" s="18"/>
       <c r="O261" s="20"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="25"/>
       <c r="B262" s="18"/>
       <c r="C262" s="19"/>
@@ -9063,7 +9062,7 @@
       <c r="N262" s="18"/>
       <c r="O262" s="20"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="21"/>
       <c r="B263" s="22"/>
       <c r="C263" s="23"/>
@@ -9080,7 +9079,7 @@
       <c r="N263" s="22"/>
       <c r="O263" s="17"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="21"/>
       <c r="B264" s="22"/>
       <c r="C264" s="23"/>
@@ -9097,7 +9096,7 @@
       <c r="N264" s="22"/>
       <c r="O264" s="17"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="25"/>
       <c r="B265" s="18"/>
       <c r="C265" s="19"/>
@@ -9114,7 +9113,7 @@
       <c r="N265" s="18"/>
       <c r="O265" s="20"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="25"/>
       <c r="B266" s="18"/>
       <c r="C266" s="19"/>
@@ -9131,7 +9130,7 @@
       <c r="N266" s="18"/>
       <c r="O266" s="20"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="25"/>
       <c r="B267" s="18"/>
       <c r="C267" s="19"/>
@@ -9148,7 +9147,7 @@
       <c r="N267" s="18"/>
       <c r="O267" s="20"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="25"/>
       <c r="B268" s="18"/>
       <c r="C268" s="19"/>
@@ -9165,7 +9164,7 @@
       <c r="N268" s="18"/>
       <c r="O268" s="20"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="25"/>
       <c r="B269" s="18"/>
       <c r="C269" s="19"/>
@@ -9182,7 +9181,7 @@
       <c r="N269" s="18"/>
       <c r="O269" s="20"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="21"/>
       <c r="B270" s="22"/>
       <c r="C270" s="23"/>
@@ -9199,7 +9198,7 @@
       <c r="N270" s="22"/>
       <c r="O270" s="17"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="21"/>
       <c r="B271" s="22"/>
       <c r="C271" s="23"/>
@@ -9216,7 +9215,7 @@
       <c r="N271" s="22"/>
       <c r="O271" s="17"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="25"/>
       <c r="B272" s="18"/>
       <c r="C272" s="19"/>
@@ -9233,7 +9232,7 @@
       <c r="N272" s="18"/>
       <c r="O272" s="20"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="25"/>
       <c r="B273" s="18"/>
       <c r="C273" s="19"/>
@@ -9250,7 +9249,7 @@
       <c r="N273" s="18"/>
       <c r="O273" s="20"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="25"/>
       <c r="B274" s="18"/>
       <c r="C274" s="19"/>
@@ -9267,7 +9266,7 @@
       <c r="N274" s="18"/>
       <c r="O274" s="20"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="25"/>
       <c r="B275" s="18"/>
       <c r="C275" s="19"/>
@@ -9284,7 +9283,7 @@
       <c r="N275" s="18"/>
       <c r="O275" s="20"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="25"/>
       <c r="B276" s="18"/>
       <c r="C276" s="19"/>
@@ -9301,7 +9300,7 @@
       <c r="N276" s="18"/>
       <c r="O276" s="20"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="21"/>
       <c r="B277" s="22"/>
       <c r="C277" s="23"/>
@@ -9318,7 +9317,7 @@
       <c r="N277" s="22"/>
       <c r="O277" s="17"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="21"/>
       <c r="B278" s="22"/>
       <c r="C278" s="23"/>
@@ -9335,7 +9334,7 @@
       <c r="N278" s="22"/>
       <c r="O278" s="17"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="25"/>
       <c r="B279" s="18"/>
       <c r="C279" s="19"/>
@@ -9352,7 +9351,7 @@
       <c r="N279" s="18"/>
       <c r="O279" s="20"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="25"/>
       <c r="B280" s="18"/>
       <c r="C280" s="19"/>
@@ -9369,7 +9368,7 @@
       <c r="N280" s="18"/>
       <c r="O280" s="20"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="25"/>
       <c r="B281" s="18"/>
       <c r="C281" s="19"/>
@@ -9386,7 +9385,7 @@
       <c r="N281" s="18"/>
       <c r="O281" s="20"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="25"/>
       <c r="B282" s="18"/>
       <c r="C282" s="19"/>
@@ -9403,7 +9402,7 @@
       <c r="N282" s="18"/>
       <c r="O282" s="20"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="25"/>
       <c r="B283" s="18"/>
       <c r="C283" s="19"/>
@@ -9420,7 +9419,7 @@
       <c r="N283" s="18"/>
       <c r="O283" s="20"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="21"/>
       <c r="B284" s="22"/>
       <c r="C284" s="23"/>
@@ -9437,7 +9436,7 @@
       <c r="N284" s="22"/>
       <c r="O284" s="17"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="21"/>
       <c r="B285" s="22"/>
       <c r="C285" s="23"/>
@@ -9454,7 +9453,7 @@
       <c r="N285" s="22"/>
       <c r="O285" s="17"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="25"/>
       <c r="B286" s="18"/>
       <c r="C286" s="19"/>
@@ -9471,7 +9470,7 @@
       <c r="N286" s="18"/>
       <c r="O286" s="20"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="25"/>
       <c r="B287" s="18"/>
       <c r="C287" s="19"/>
@@ -9488,7 +9487,7 @@
       <c r="N287" s="18"/>
       <c r="O287" s="20"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="25"/>
       <c r="B288" s="18"/>
       <c r="C288" s="19"/>
@@ -9505,7 +9504,7 @@
       <c r="N288" s="18"/>
       <c r="O288" s="20"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="25"/>
       <c r="B289" s="18"/>
       <c r="C289" s="19"/>
@@ -9522,7 +9521,7 @@
       <c r="N289" s="18"/>
       <c r="O289" s="20"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="25"/>
       <c r="B290" s="18"/>
       <c r="C290" s="19"/>
@@ -9539,7 +9538,7 @@
       <c r="N290" s="18"/>
       <c r="O290" s="20"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="21"/>
       <c r="B291" s="22"/>
       <c r="C291" s="23"/>
@@ -9556,7 +9555,7 @@
       <c r="N291" s="22"/>
       <c r="O291" s="17"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="21"/>
       <c r="B292" s="22"/>
       <c r="C292" s="23"/>
@@ -9573,7 +9572,7 @@
       <c r="N292" s="22"/>
       <c r="O292" s="17"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="25"/>
       <c r="B293" s="18"/>
       <c r="C293" s="19"/>
@@ -9590,7 +9589,7 @@
       <c r="N293" s="18"/>
       <c r="O293" s="20"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="25"/>
       <c r="B294" s="18"/>
       <c r="C294" s="19"/>
@@ -9607,7 +9606,7 @@
       <c r="N294" s="18"/>
       <c r="O294" s="20"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="25"/>
       <c r="B295" s="18"/>
       <c r="C295" s="19"/>
@@ -9624,7 +9623,7 @@
       <c r="N295" s="18"/>
       <c r="O295" s="20"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="25"/>
       <c r="B296" s="18"/>
       <c r="C296" s="19"/>
@@ -9641,7 +9640,7 @@
       <c r="N296" s="18"/>
       <c r="O296" s="20"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="25"/>
       <c r="B297" s="18"/>
       <c r="C297" s="19"/>
@@ -9658,7 +9657,7 @@
       <c r="N297" s="18"/>
       <c r="O297" s="20"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="21"/>
       <c r="B298" s="22"/>
       <c r="C298" s="23"/>
@@ -9675,7 +9674,7 @@
       <c r="N298" s="22"/>
       <c r="O298" s="17"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="21"/>
       <c r="B299" s="22"/>
       <c r="C299" s="23"/>
@@ -9692,7 +9691,7 @@
       <c r="N299" s="22"/>
       <c r="O299" s="17"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="25"/>
       <c r="B300" s="18"/>
       <c r="C300" s="19"/>
@@ -9709,7 +9708,7 @@
       <c r="N300" s="18"/>
       <c r="O300" s="20"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="25"/>
       <c r="B301" s="18"/>
       <c r="C301" s="19"/>
@@ -9726,7 +9725,7 @@
       <c r="N301" s="18"/>
       <c r="O301" s="20"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="25"/>
       <c r="B302" s="18"/>
       <c r="C302" s="19"/>
@@ -9743,7 +9742,7 @@
       <c r="N302" s="18"/>
       <c r="O302" s="20"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="25"/>
       <c r="B303" s="18"/>
       <c r="C303" s="19"/>
@@ -9760,7 +9759,7 @@
       <c r="N303" s="18"/>
       <c r="O303" s="20"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="25"/>
       <c r="B304" s="18"/>
       <c r="C304" s="19"/>
@@ -9777,7 +9776,7 @@
       <c r="N304" s="18"/>
       <c r="O304" s="20"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="21"/>
       <c r="B305" s="22"/>
       <c r="C305" s="23"/>
@@ -9794,7 +9793,7 @@
       <c r="N305" s="22"/>
       <c r="O305" s="17"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="21"/>
       <c r="B306" s="22"/>
       <c r="C306" s="23"/>
@@ -9811,7 +9810,7 @@
       <c r="N306" s="22"/>
       <c r="O306" s="17"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="25"/>
       <c r="B307" s="18"/>
       <c r="C307" s="19"/>
@@ -9828,7 +9827,7 @@
       <c r="N307" s="18"/>
       <c r="O307" s="20"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="25"/>
       <c r="B308" s="18"/>
       <c r="C308" s="19"/>
@@ -9845,7 +9844,7 @@
       <c r="N308" s="18"/>
       <c r="O308" s="20"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="25"/>
       <c r="B309" s="18"/>
       <c r="C309" s="19"/>
@@ -9862,7 +9861,7 @@
       <c r="N309" s="18"/>
       <c r="O309" s="20"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="25"/>
       <c r="B310" s="18"/>
       <c r="C310" s="19"/>
@@ -9879,7 +9878,7 @@
       <c r="N310" s="18"/>
       <c r="O310" s="20"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="25"/>
       <c r="B311" s="18"/>
       <c r="C311" s="19"/>
@@ -9896,7 +9895,7 @@
       <c r="N311" s="18"/>
       <c r="O311" s="20"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" s="21"/>
       <c r="B312" s="22"/>
       <c r="C312" s="23"/>
@@ -9913,7 +9912,7 @@
       <c r="N312" s="22"/>
       <c r="O312" s="17"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="21"/>
       <c r="B313" s="22"/>
       <c r="C313" s="23"/>
@@ -9930,7 +9929,7 @@
       <c r="N313" s="22"/>
       <c r="O313" s="17"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="25"/>
       <c r="B314" s="18"/>
       <c r="C314" s="19"/>
@@ -9947,7 +9946,7 @@
       <c r="N314" s="18"/>
       <c r="O314" s="20"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="25"/>
       <c r="B315" s="18"/>
       <c r="C315" s="19"/>
@@ -9964,7 +9963,7 @@
       <c r="N315" s="18"/>
       <c r="O315" s="20"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="25"/>
       <c r="B316" s="18"/>
       <c r="C316" s="19"/>
@@ -9981,7 +9980,7 @@
       <c r="N316" s="18"/>
       <c r="O316" s="20"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="25"/>
       <c r="B317" s="18"/>
       <c r="C317" s="19"/>
@@ -9998,7 +9997,7 @@
       <c r="N317" s="18"/>
       <c r="O317" s="20"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="25"/>
       <c r="B318" s="18"/>
       <c r="C318" s="19"/>
@@ -10015,7 +10014,7 @@
       <c r="N318" s="18"/>
       <c r="O318" s="20"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="21"/>
       <c r="B319" s="22"/>
       <c r="C319" s="23"/>
@@ -10032,7 +10031,7 @@
       <c r="N319" s="22"/>
       <c r="O319" s="17"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="21"/>
       <c r="B320" s="22"/>
       <c r="C320" s="23"/>
@@ -10049,7 +10048,7 @@
       <c r="N320" s="22"/>
       <c r="O320" s="17"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="25"/>
       <c r="B321" s="18"/>
       <c r="C321" s="19"/>
@@ -10066,7 +10065,7 @@
       <c r="N321" s="18"/>
       <c r="O321" s="20"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="25"/>
       <c r="B322" s="18"/>
       <c r="C322" s="19"/>
@@ -10083,7 +10082,7 @@
       <c r="N322" s="18"/>
       <c r="O322" s="20"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="25"/>
       <c r="B323" s="18"/>
       <c r="C323" s="19"/>
@@ -10100,7 +10099,7 @@
       <c r="N323" s="18"/>
       <c r="O323" s="20"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="25"/>
       <c r="B324" s="18"/>
       <c r="C324" s="19"/>
@@ -10117,7 +10116,7 @@
       <c r="N324" s="18"/>
       <c r="O324" s="20"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="25"/>
       <c r="B325" s="18"/>
       <c r="C325" s="19"/>
@@ -10134,7 +10133,7 @@
       <c r="N325" s="18"/>
       <c r="O325" s="20"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="21"/>
       <c r="B326" s="22"/>
       <c r="C326" s="23"/>
@@ -10151,7 +10150,7 @@
       <c r="N326" s="22"/>
       <c r="O326" s="17"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="21"/>
       <c r="B327" s="22"/>
       <c r="C327" s="23"/>
@@ -10168,7 +10167,7 @@
       <c r="N327" s="22"/>
       <c r="O327" s="17"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="25"/>
       <c r="B328" s="18"/>
       <c r="C328" s="19"/>
@@ -10185,7 +10184,7 @@
       <c r="N328" s="18"/>
       <c r="O328" s="20"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="25"/>
       <c r="B329" s="18"/>
       <c r="C329" s="19"/>
@@ -10202,7 +10201,7 @@
       <c r="N329" s="18"/>
       <c r="O329" s="20"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="25"/>
       <c r="B330" s="18"/>
       <c r="C330" s="19"/>
@@ -10219,7 +10218,7 @@
       <c r="N330" s="18"/>
       <c r="O330" s="20"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="25"/>
       <c r="B331" s="18"/>
       <c r="C331" s="19"/>
@@ -10236,7 +10235,7 @@
       <c r="N331" s="18"/>
       <c r="O331" s="20"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" s="25"/>
       <c r="B332" s="18"/>
       <c r="C332" s="19"/>
@@ -10253,7 +10252,7 @@
       <c r="N332" s="18"/>
       <c r="O332" s="20"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="21"/>
       <c r="B333" s="22"/>
       <c r="C333" s="23"/>
@@ -10270,7 +10269,7 @@
       <c r="N333" s="22"/>
       <c r="O333" s="17"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="21"/>
       <c r="B334" s="22"/>
       <c r="C334" s="23"/>
@@ -10287,7 +10286,7 @@
       <c r="N334" s="22"/>
       <c r="O334" s="17"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" s="25"/>
       <c r="B335" s="18"/>
       <c r="C335" s="19"/>
@@ -10304,7 +10303,7 @@
       <c r="N335" s="18"/>
       <c r="O335" s="20"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="25"/>
       <c r="B336" s="18"/>
       <c r="C336" s="19"/>
@@ -10321,7 +10320,7 @@
       <c r="N336" s="18"/>
       <c r="O336" s="20"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="25"/>
       <c r="B337" s="18"/>
       <c r="C337" s="19"/>
@@ -10338,7 +10337,7 @@
       <c r="N337" s="18"/>
       <c r="O337" s="20"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" s="25"/>
       <c r="B338" s="18"/>
       <c r="C338" s="19"/>
@@ -10355,7 +10354,7 @@
       <c r="N338" s="18"/>
       <c r="O338" s="20"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="25"/>
       <c r="B339" s="18"/>
       <c r="C339" s="19"/>
@@ -10372,7 +10371,7 @@
       <c r="N339" s="18"/>
       <c r="O339" s="20"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="21"/>
       <c r="B340" s="22"/>
       <c r="C340" s="23"/>
@@ -10389,7 +10388,7 @@
       <c r="N340" s="22"/>
       <c r="O340" s="17"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" s="21"/>
       <c r="B341" s="22"/>
       <c r="C341" s="23"/>
@@ -10406,7 +10405,7 @@
       <c r="N341" s="22"/>
       <c r="O341" s="17"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" s="25"/>
       <c r="B342" s="18"/>
       <c r="C342" s="19"/>
@@ -10423,7 +10422,7 @@
       <c r="N342" s="18"/>
       <c r="O342" s="20"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" s="25"/>
       <c r="B343" s="18"/>
       <c r="C343" s="19"/>
@@ -10440,7 +10439,7 @@
       <c r="N343" s="18"/>
       <c r="O343" s="20"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" s="25"/>
       <c r="B344" s="18"/>
       <c r="C344" s="19"/>
@@ -10457,7 +10456,7 @@
       <c r="N344" s="18"/>
       <c r="O344" s="20"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="25"/>
       <c r="B345" s="18"/>
       <c r="C345" s="19"/>
@@ -10474,7 +10473,7 @@
       <c r="N345" s="18"/>
       <c r="O345" s="20"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" s="25"/>
       <c r="B346" s="18"/>
       <c r="C346" s="19"/>
@@ -10491,7 +10490,7 @@
       <c r="N346" s="18"/>
       <c r="O346" s="20"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" s="21"/>
       <c r="B347" s="22"/>
       <c r="C347" s="23"/>
@@ -10508,7 +10507,7 @@
       <c r="N347" s="22"/>
       <c r="O347" s="17"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="21"/>
       <c r="B348" s="22"/>
       <c r="C348" s="23"/>
@@ -10525,7 +10524,7 @@
       <c r="N348" s="22"/>
       <c r="O348" s="17"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" s="25"/>
       <c r="B349" s="18"/>
       <c r="C349" s="19"/>
@@ -10542,7 +10541,7 @@
       <c r="N349" s="18"/>
       <c r="O349" s="20"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="25"/>
       <c r="B350" s="18"/>
       <c r="C350" s="19"/>
@@ -10559,7 +10558,7 @@
       <c r="N350" s="18"/>
       <c r="O350" s="20"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="25"/>
       <c r="B351" s="18"/>
       <c r="C351" s="19"/>
@@ -10576,7 +10575,7 @@
       <c r="N351" s="18"/>
       <c r="O351" s="20"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="25"/>
       <c r="B352" s="18"/>
       <c r="C352" s="19"/>
@@ -10593,7 +10592,7 @@
       <c r="N352" s="18"/>
       <c r="O352" s="20"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" s="25"/>
       <c r="B353" s="18"/>
       <c r="C353" s="19"/>
@@ -10610,7 +10609,7 @@
       <c r="N353" s="18"/>
       <c r="O353" s="20"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" s="21"/>
       <c r="B354" s="22"/>
       <c r="C354" s="23"/>
@@ -10627,7 +10626,7 @@
       <c r="N354" s="22"/>
       <c r="O354" s="17"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" s="21"/>
       <c r="B355" s="22"/>
       <c r="C355" s="23"/>
@@ -10644,7 +10643,7 @@
       <c r="N355" s="22"/>
       <c r="O355" s="17"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" s="25"/>
       <c r="B356" s="18"/>
       <c r="C356" s="19"/>
@@ -10661,7 +10660,7 @@
       <c r="N356" s="18"/>
       <c r="O356" s="20"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" s="25"/>
       <c r="B357" s="18"/>
       <c r="C357" s="19"/>
@@ -10678,7 +10677,7 @@
       <c r="N357" s="18"/>
       <c r="O357" s="20"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" s="25"/>
       <c r="B358" s="18"/>
       <c r="C358" s="19"/>
@@ -10695,7 +10694,7 @@
       <c r="N358" s="18"/>
       <c r="O358" s="20"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" s="25"/>
       <c r="B359" s="18"/>
       <c r="C359" s="19"/>
@@ -10712,7 +10711,7 @@
       <c r="N359" s="18"/>
       <c r="O359" s="20"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" s="25"/>
       <c r="B360" s="18"/>
       <c r="C360" s="19"/>
@@ -10729,7 +10728,7 @@
       <c r="N360" s="18"/>
       <c r="O360" s="20"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" s="21"/>
       <c r="B361" s="22"/>
       <c r="C361" s="23"/>
@@ -10746,7 +10745,7 @@
       <c r="N361" s="22"/>
       <c r="O361" s="17"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" s="21"/>
       <c r="B362" s="22"/>
       <c r="C362" s="23"/>
@@ -10763,7 +10762,7 @@
       <c r="N362" s="22"/>
       <c r="O362" s="17"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" s="25"/>
       <c r="B363" s="18"/>
       <c r="C363" s="19"/>
@@ -10780,7 +10779,7 @@
       <c r="N363" s="18"/>
       <c r="O363" s="20"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" s="25"/>
       <c r="B364" s="18"/>
       <c r="C364" s="19"/>
@@ -10797,7 +10796,7 @@
       <c r="N364" s="18"/>
       <c r="O364" s="20"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" s="25"/>
       <c r="B365" s="18"/>
       <c r="C365" s="19"/>
@@ -10814,7 +10813,7 @@
       <c r="N365" s="18"/>
       <c r="O365" s="20"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" s="25"/>
       <c r="B366" s="18"/>
       <c r="C366" s="19"/>
@@ -10867,13 +10866,13 @@
       <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="13" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="13" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="39" t="s">
         <v>4</v>
@@ -10896,7 +10895,7 @@
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -10935,60 +10934,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="e">
+      <c r="B4" s="3">
         <f>AVERAGE('ежедневные данные'!B2:B8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C4" s="3" t="e">
+        <v>130</v>
+      </c>
+      <c r="C4" s="3">
         <f>AVERAGE('ежедневные данные'!C2:C8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D4" s="3" t="e">
+        <v>87</v>
+      </c>
+      <c r="D4" s="3">
         <f>AVERAGE('ежедневные данные'!D2:D8)</f>
-        <v>#DIV/0!</v>
+        <v>75</v>
       </c>
       <c r="E4" s="3">
         <f>AVERAGE('ежедневные данные'!E2:E8)</f>
-        <v>128</v>
+        <v>127.66666666666667</v>
       </c>
       <c r="F4" s="3">
         <f>AVERAGE('ежедневные данные'!F2:F8)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" s="3">
         <f>AVERAGE('ежедневные данные'!G2:G8)</f>
-        <v>89.5</v>
+        <v>92</v>
       </c>
       <c r="H4" s="3">
         <f>AVERAGE('ежедневные данные'!H2:H8)</f>
-        <v>135</v>
+        <v>128.5</v>
       </c>
       <c r="I4" s="3">
         <f>AVERAGE('ежедневные данные'!I2:I8)</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J4" s="3">
         <f>AVERAGE('ежедневные данные'!J2:J8)</f>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K4" s="3">
         <f>AVERAGE('ежедневные данные'!K2:K8)</f>
-        <v>130</v>
+        <v>127.66666666666667</v>
       </c>
       <c r="L4" s="3">
         <f>AVERAGE('ежедневные данные'!L2:L8)</f>
-        <v>85</v>
+        <v>85.666666666666671</v>
       </c>
       <c r="M4" s="3">
         <f>AVERAGE('ежедневные данные'!M2:M8)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>103.33333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -11041,7 +11040,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -11094,7 +11093,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -11147,7 +11146,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -11200,7 +11199,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -11253,7 +11252,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -11306,7 +11305,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -11359,7 +11358,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
@@ -11412,7 +11411,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
@@ -11465,7 +11464,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
@@ -11518,7 +11517,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>31</v>
       </c>
@@ -11571,7 +11570,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
@@ -11624,7 +11623,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
@@ -11677,7 +11676,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
@@ -11730,7 +11729,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
@@ -11783,7 +11782,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
@@ -11836,7 +11835,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>37</v>
       </c>
@@ -11889,7 +11888,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
@@ -11942,7 +11941,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>39</v>
       </c>
@@ -11995,7 +11994,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>40</v>
       </c>
@@ -12048,7 +12047,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>41</v>
       </c>
@@ -12101,7 +12100,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>42</v>
       </c>
@@ -12154,7 +12153,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
@@ -12207,7 +12206,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>44</v>
       </c>
@@ -12260,7 +12259,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>45</v>
       </c>
@@ -12313,7 +12312,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>46</v>
       </c>
@@ -12366,7 +12365,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>47</v>
       </c>
@@ -12419,7 +12418,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>48</v>
       </c>
@@ -12472,7 +12471,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>49</v>
       </c>
@@ -12525,7 +12524,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>50</v>
       </c>
@@ -12578,7 +12577,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>51</v>
       </c>
@@ -12631,7 +12630,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>52</v>
       </c>
@@ -12684,7 +12683,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>53</v>
       </c>
@@ -12737,7 +12736,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>54</v>
       </c>
@@ -12790,7 +12789,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>55</v>
       </c>
@@ -12843,7 +12842,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>56</v>
       </c>
@@ -12896,7 +12895,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>57</v>
       </c>
@@ -12949,7 +12948,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>58</v>
       </c>
@@ -13002,7 +13001,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>59</v>
       </c>
@@ -13055,7 +13054,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -13108,7 +13107,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -13161,7 +13160,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -13214,7 +13213,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -13267,7 +13266,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
@@ -13320,7 +13319,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -13373,7 +13372,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -13426,7 +13425,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -13479,7 +13478,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
@@ -13532,7 +13531,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
@@ -13585,7 +13584,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
@@ -13638,7 +13637,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
@@ -13712,15 +13711,15 @@
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="14" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="14" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="1"/>
       <c r="C2" s="40" t="s">
@@ -13744,7 +13743,7 @@
       <c r="M2" s="41"/>
       <c r="N2" s="42"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="11" t="s">
@@ -13784,63 +13783,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>42005</v>
       </c>
       <c r="B4" s="14">
         <v>42018</v>
       </c>
-      <c r="C4" s="12" t="e">
+      <c r="C4" s="12">
         <f>AVERAGE('ежедневные данные'!B2:B15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D4" s="12" t="e">
+        <v>130</v>
+      </c>
+      <c r="D4" s="12">
         <f>AVERAGE('ежедневные данные'!C2:C15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" s="12" t="e">
+        <v>87</v>
+      </c>
+      <c r="E4" s="12">
         <f>AVERAGE('ежедневные данные'!D2:D15)</f>
-        <v>#DIV/0!</v>
+        <v>75</v>
       </c>
       <c r="F4" s="12">
         <f>AVERAGE('ежедневные данные'!E2:E15)</f>
-        <v>128</v>
+        <v>127.66666666666667</v>
       </c>
       <c r="G4" s="12">
         <f>AVERAGE('ежедневные данные'!F2:F15)</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="12">
         <f>AVERAGE('ежедневные данные'!G2:G15)</f>
-        <v>89.5</v>
+        <v>92</v>
       </c>
       <c r="I4" s="12">
         <f>AVERAGE('ежедневные данные'!H2:H15)</f>
-        <v>135</v>
+        <v>128.5</v>
       </c>
       <c r="J4" s="12">
         <f>AVERAGE('ежедневные данные'!I2:I15)</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K4" s="12">
         <f>AVERAGE('ежедневные данные'!J2:J15)</f>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L4" s="12">
         <f>AVERAGE('ежедневные данные'!K2:K15)</f>
-        <v>130</v>
+        <v>127.66666666666667</v>
       </c>
       <c r="M4" s="12">
         <f>AVERAGE('ежедневные данные'!L2:L15)</f>
-        <v>85</v>
+        <v>85.666666666666671</v>
       </c>
       <c r="N4" s="12">
         <f>AVERAGE('ежедневные данные'!M2:M15)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>103.33333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>42019</v>
       </c>
@@ -13896,7 +13895,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>42033</v>
       </c>
@@ -14008,7 +14007,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>42061</v>
       </c>
@@ -14064,7 +14063,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>42075</v>
       </c>
@@ -14120,7 +14119,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>42089</v>
       </c>
@@ -14232,7 +14231,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>42117</v>
       </c>
@@ -14288,7 +14287,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>42131</v>
       </c>
@@ -14344,7 +14343,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>42145</v>
       </c>
@@ -14456,7 +14455,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>42173</v>
       </c>
@@ -14512,7 +14511,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>42187</v>
       </c>
@@ -14568,7 +14567,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>42201</v>
       </c>
@@ -14680,7 +14679,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>42229</v>
       </c>
@@ -14736,7 +14735,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>42243</v>
       </c>
@@ -14792,7 +14791,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>42257</v>
       </c>
@@ -14904,7 +14903,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>42285</v>
       </c>
@@ -14960,7 +14959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>42299</v>
       </c>
@@ -15016,7 +15015,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>42313</v>
       </c>
@@ -15128,7 +15127,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>42341</v>
       </c>
@@ -15184,7 +15183,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>42355</v>
       </c>

--- a/dnevnik.xlsx
+++ b/dnevnik.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>число</t>
   </si>
@@ -592,10 +592,7 @@
     <t>Лекарства</t>
   </si>
   <si>
-    <t>29.02.2018</t>
-  </si>
-  <si>
-    <t>норма</t>
+    <t>вечером было плохо</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1155,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>130</c:v>
+                  <c:v>130.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1348,7 +1345,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>87</c:v>
+                  <c:v>83.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1538,7 +1535,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1635,11 +1632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183729152"/>
-        <c:axId val="183739136"/>
+        <c:axId val="41643008"/>
+        <c:axId val="41657088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="183729152"/>
+        <c:axId val="41643008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,7 +1672,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183739136"/>
+        <c:crossAx val="41657088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -1686,7 +1683,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="183739136"/>
+        <c:axId val="41657088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -1710,7 +1707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183729152"/>
+        <c:crossAx val="41643008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1907,7 +1904,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>127.66666666666667</c:v>
+                  <c:v>129.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2097,7 +2094,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>89</c:v>
+                  <c:v>87.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2287,7 +2284,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>92</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2384,11 +2381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184364416"/>
-        <c:axId val="184378496"/>
+        <c:axId val="50736512"/>
+        <c:axId val="50750592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="184364416"/>
+        <c:axId val="50736512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,7 +2421,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184378496"/>
+        <c:crossAx val="50750592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -2435,7 +2432,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="184378496"/>
+        <c:axId val="50750592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -2459,7 +2456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184364416"/>
+        <c:crossAx val="50736512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -2658,7 +2655,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>128.5</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2848,7 +2845,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>86</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3038,7 +3035,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3135,11 +3132,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184414208"/>
-        <c:axId val="184415744"/>
+        <c:axId val="50786304"/>
+        <c:axId val="50787840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="184414208"/>
+        <c:axId val="50786304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3175,7 +3172,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184415744"/>
+        <c:crossAx val="50787840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -3186,7 +3183,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="184415744"/>
+        <c:axId val="50787840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3210,7 +3207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184414208"/>
+        <c:crossAx val="50786304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -3876,11 +3873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="187339136"/>
-        <c:axId val="187340672"/>
+        <c:axId val="50565504"/>
+        <c:axId val="50567040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="187339136"/>
+        <c:axId val="50565504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3916,7 +3913,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187340672"/>
+        <c:crossAx val="50567040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -3927,7 +3924,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="187340672"/>
+        <c:axId val="50567040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3951,7 +3948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187339136"/>
+        <c:crossAx val="50565504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -4005,7 +4002,7 @@
         <xdr:cNvPr id="2049" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4043,7 +4040,7 @@
         <xdr:cNvPr id="2050" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4081,7 +4078,7 @@
         <xdr:cNvPr id="2051" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4119,7 +4116,7 @@
         <xdr:cNvPr id="2052" name="Диаграмма 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4512,7 +4509,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4632,8 +4629,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>76</v>
+      <c r="A4" s="21">
+        <v>43160</v>
       </c>
       <c r="B4" s="22">
         <v>130</v>
@@ -4672,26 +4669,50 @@
         <v>106</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="17"/>
+        <v>76</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="17"/>
+      <c r="A5" s="21">
+        <v>43161</v>
+      </c>
+      <c r="B5" s="22">
+        <v>131</v>
+      </c>
+      <c r="C5" s="23">
+        <v>80</v>
+      </c>
+      <c r="D5" s="17">
+        <v>85</v>
+      </c>
+      <c r="E5" s="22">
+        <v>134</v>
+      </c>
+      <c r="F5" s="23">
+        <v>82</v>
+      </c>
+      <c r="G5" s="17">
+        <v>114</v>
+      </c>
+      <c r="H5" s="22">
+        <v>130</v>
+      </c>
+      <c r="I5" s="23">
+        <v>83</v>
+      </c>
+      <c r="J5" s="17">
+        <v>100</v>
+      </c>
       <c r="K5" s="22"/>
       <c r="L5" s="23"/>
       <c r="M5" s="17"/>
       <c r="N5" s="22"/>
-      <c r="O5" s="17"/>
+      <c r="O5" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
@@ -10940,39 +10961,39 @@
       </c>
       <c r="B4" s="3">
         <f>AVERAGE('ежедневные данные'!B2:B8)</f>
-        <v>130</v>
+        <v>130.5</v>
       </c>
       <c r="C4" s="3">
         <f>AVERAGE('ежедневные данные'!C2:C8)</f>
-        <v>87</v>
+        <v>83.5</v>
       </c>
       <c r="D4" s="3">
         <f>AVERAGE('ежедневные данные'!D2:D8)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3">
         <f>AVERAGE('ежедневные данные'!E2:E8)</f>
-        <v>127.66666666666667</v>
+        <v>129.25</v>
       </c>
       <c r="F4" s="3">
         <f>AVERAGE('ежедневные данные'!F2:F8)</f>
-        <v>89</v>
+        <v>87.25</v>
       </c>
       <c r="G4" s="3">
         <f>AVERAGE('ежедневные данные'!G2:G8)</f>
-        <v>92</v>
+        <v>97.5</v>
       </c>
       <c r="H4" s="3">
         <f>AVERAGE('ежедневные данные'!H2:H8)</f>
-        <v>128.5</v>
+        <v>129</v>
       </c>
       <c r="I4" s="3">
         <f>AVERAGE('ежедневные данные'!I2:I8)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" s="3">
         <f>AVERAGE('ежедневные данные'!J2:J8)</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K4" s="3">
         <f>AVERAGE('ежедневные данные'!K2:K8)</f>
@@ -13792,39 +13813,39 @@
       </c>
       <c r="C4" s="12">
         <f>AVERAGE('ежедневные данные'!B2:B15)</f>
-        <v>130</v>
+        <v>130.5</v>
       </c>
       <c r="D4" s="12">
         <f>AVERAGE('ежедневные данные'!C2:C15)</f>
-        <v>87</v>
+        <v>83.5</v>
       </c>
       <c r="E4" s="12">
         <f>AVERAGE('ежедневные данные'!D2:D15)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F4" s="12">
         <f>AVERAGE('ежедневные данные'!E2:E15)</f>
-        <v>127.66666666666667</v>
+        <v>129.25</v>
       </c>
       <c r="G4" s="12">
         <f>AVERAGE('ежедневные данные'!F2:F15)</f>
-        <v>89</v>
+        <v>87.25</v>
       </c>
       <c r="H4" s="12">
         <f>AVERAGE('ежедневные данные'!G2:G15)</f>
-        <v>92</v>
+        <v>97.5</v>
       </c>
       <c r="I4" s="12">
         <f>AVERAGE('ежедневные данные'!H2:H15)</f>
-        <v>128.5</v>
+        <v>129</v>
       </c>
       <c r="J4" s="12">
         <f>AVERAGE('ежедневные данные'!I2:I15)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K4" s="12">
         <f>AVERAGE('ежедневные данные'!J2:J15)</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L4" s="12">
         <f>AVERAGE('ежедневные данные'!K2:K15)</f>

--- a/dnevnik.xlsx
+++ b/dnevnik.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pro\AdDiary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7992" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные пациента" sheetId="4" r:id="rId1"/>
@@ -15,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'ежедневные данные'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author>пользователь</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
   <si>
     <t>число</t>
   </si>
@@ -594,11 +599,17 @@
   <si>
     <t>вечером было плохо</t>
   </si>
+  <si>
+    <t>ВАЛЗ 2 Диувер, Глицин</t>
+  </si>
+  <si>
+    <t>то плохо, то нормально</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
@@ -1001,7 +1012,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1155,7 +1166,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>130.5</c:v>
+                  <c:v>130.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1236,7 +1247,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9890-4D3C-AADF-64EFFDFD616C}"/>
             </c:ext>
@@ -1345,7 +1356,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>83.5</c:v>
+                  <c:v>81.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1426,7 +1437,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9890-4D3C-AADF-64EFFDFD616C}"/>
             </c:ext>
@@ -1535,7 +1546,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>78.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1616,7 +1627,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9890-4D3C-AADF-64EFFDFD616C}"/>
             </c:ext>
@@ -1630,7 +1641,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="41643008"/>
         <c:axId val="41657088"/>
@@ -1740,7 +1750,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1904,7 +1914,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>129.25</c:v>
+                  <c:v>128.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1985,7 +1995,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D1C6-4AFC-BBDF-E1DF060B2297}"/>
             </c:ext>
@@ -2094,7 +2104,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>87.25</c:v>
+                  <c:v>85.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2175,7 +2185,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D1C6-4AFC-BBDF-E1DF060B2297}"/>
             </c:ext>
@@ -2284,7 +2294,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>97.5</c:v>
+                  <c:v>95.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2365,7 +2375,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D1C6-4AFC-BBDF-E1DF060B2297}"/>
             </c:ext>
@@ -2379,7 +2389,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="50736512"/>
         <c:axId val="50750592"/>
@@ -2491,7 +2500,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2655,7 +2664,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>129</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2736,7 +2745,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0CB7-48F1-9021-986975C81594}"/>
             </c:ext>
@@ -2845,7 +2854,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>83.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2926,7 +2935,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0CB7-48F1-9021-986975C81594}"/>
             </c:ext>
@@ -3035,7 +3044,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>94</c:v>
+                  <c:v>102.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3116,7 +3125,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0CB7-48F1-9021-986975C81594}"/>
             </c:ext>
@@ -3130,7 +3139,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="50786304"/>
         <c:axId val="50787840"/>
@@ -3242,7 +3250,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3396,7 +3404,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>127.66666666666667</c:v>
+                  <c:v>127.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3477,7 +3485,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F7E4-45AA-BAA6-4706AC119451}"/>
             </c:ext>
@@ -3586,7 +3594,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>85.666666666666671</c:v>
+                  <c:v>82.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3667,7 +3675,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F7E4-45AA-BAA6-4706AC119451}"/>
             </c:ext>
@@ -3776,7 +3784,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>103.33333333333333</c:v>
+                  <c:v>100.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3857,7 +3865,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F7E4-45AA-BAA6-4706AC119451}"/>
             </c:ext>
@@ -3871,7 +3879,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="50565504"/>
         <c:axId val="50567040"/>
@@ -4002,7 +4009,7 @@
         <xdr:cNvPr id="2049" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4040,7 +4047,7 @@
         <xdr:cNvPr id="2050" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4078,7 +4085,7 @@
         <xdr:cNvPr id="2051" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4116,7 +4123,7 @@
         <xdr:cNvPr id="2052" name="Диаграмма 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4182,7 +4189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4215,9 +4222,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4250,6 +4274,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -4432,9 +4473,9 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -4450,7 +4491,7 @@
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
@@ -4466,7 +4507,7 @@
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
@@ -4509,19 +4550,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="5.6640625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" style="24" customWidth="1"/>
+    <col min="2" max="13" width="5.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" style="24" customWidth="1"/>
     <col min="15" max="15" width="32" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="24"/>
+    <col min="16" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -4552,7 +4593,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>43158</v>
       </c>
@@ -4587,7 +4628,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>43159</v>
       </c>
@@ -4628,7 +4669,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>43160</v>
       </c>
@@ -4675,7 +4716,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>43161</v>
       </c>
@@ -4706,32 +4747,70 @@
       <c r="J5" s="17">
         <v>100</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="22"/>
+      <c r="K5" s="22">
+        <v>127</v>
+      </c>
+      <c r="L5" s="23">
+        <v>79</v>
+      </c>
+      <c r="M5" s="17">
+        <v>98</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="O5" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>43162</v>
+      </c>
+      <c r="B6" s="18">
+        <v>130</v>
+      </c>
+      <c r="C6" s="19">
+        <v>78</v>
+      </c>
+      <c r="D6" s="20">
+        <v>75</v>
+      </c>
+      <c r="E6" s="18">
+        <v>127</v>
+      </c>
+      <c r="F6" s="19">
+        <v>78</v>
+      </c>
+      <c r="G6" s="20">
+        <v>88</v>
+      </c>
+      <c r="H6" s="18">
+        <v>125</v>
+      </c>
+      <c r="I6" s="19">
+        <v>78</v>
+      </c>
+      <c r="J6" s="20">
+        <v>127</v>
+      </c>
+      <c r="K6" s="18">
+        <v>127</v>
+      </c>
+      <c r="L6" s="19">
+        <v>78</v>
+      </c>
+      <c r="M6" s="20">
+        <v>95</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
@@ -4748,7 +4827,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
@@ -4765,7 +4844,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
@@ -4782,7 +4861,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
@@ -4799,7 +4878,7 @@
       <c r="N10" s="18"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
@@ -4816,7 +4895,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
@@ -4833,7 +4912,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
@@ -4850,7 +4929,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
@@ -4867,7 +4946,7 @@
       <c r="N14" s="18"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
@@ -4884,7 +4963,7 @@
       <c r="N15" s="18"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
@@ -4901,7 +4980,7 @@
       <c r="N16" s="18"/>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
@@ -4918,7 +4997,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="20"/>
     </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
@@ -4935,7 +5014,7 @@
       <c r="N18" s="22"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
@@ -4952,7 +5031,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -4969,7 +5048,7 @@
       <c r="N20" s="18"/>
       <c r="O20" s="20"/>
     </row>
-    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -4986,7 +5065,7 @@
       <c r="N21" s="18"/>
       <c r="O21" s="20"/>
     </row>
-    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -5003,7 +5082,7 @@
       <c r="N22" s="18"/>
       <c r="O22" s="20"/>
     </row>
-    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -5020,7 +5099,7 @@
       <c r="N23" s="18"/>
       <c r="O23" s="20"/>
     </row>
-    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -5037,7 +5116,7 @@
       <c r="N24" s="18"/>
       <c r="O24" s="20"/>
     </row>
-    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -5054,7 +5133,7 @@
       <c r="N25" s="22"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
@@ -5071,7 +5150,7 @@
       <c r="N26" s="22"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
@@ -5088,7 +5167,7 @@
       <c r="N27" s="18"/>
       <c r="O27" s="20"/>
     </row>
-    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -5105,7 +5184,7 @@
       <c r="N28" s="18"/>
       <c r="O28" s="20"/>
     </row>
-    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
@@ -5122,7 +5201,7 @@
       <c r="N29" s="18"/>
       <c r="O29" s="20"/>
     </row>
-    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
@@ -5139,7 +5218,7 @@
       <c r="N30" s="18"/>
       <c r="O30" s="20"/>
     </row>
-    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
@@ -5156,7 +5235,7 @@
       <c r="N31" s="18"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
@@ -5173,7 +5252,7 @@
       <c r="N32" s="22"/>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
@@ -5190,7 +5269,7 @@
       <c r="N33" s="22"/>
       <c r="O33" s="17"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -5207,7 +5286,7 @@
       <c r="N34" s="18"/>
       <c r="O34" s="20"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
@@ -5224,7 +5303,7 @@
       <c r="N35" s="18"/>
       <c r="O35" s="20"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
@@ -5241,7 +5320,7 @@
       <c r="N36" s="18"/>
       <c r="O36" s="20"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
@@ -5258,7 +5337,7 @@
       <c r="N37" s="18"/>
       <c r="O37" s="20"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
@@ -5275,7 +5354,7 @@
       <c r="N38" s="18"/>
       <c r="O38" s="20"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="23"/>
@@ -5292,7 +5371,7 @@
       <c r="N39" s="22"/>
       <c r="O39" s="17"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="23"/>
@@ -5309,7 +5388,7 @@
       <c r="N40" s="22"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
@@ -5326,7 +5405,7 @@
       <c r="N41" s="18"/>
       <c r="O41" s="20"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -5343,7 +5422,7 @@
       <c r="N42" s="18"/>
       <c r="O42" s="20"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
@@ -5360,7 +5439,7 @@
       <c r="N43" s="18"/>
       <c r="O43" s="20"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -5377,7 +5456,7 @@
       <c r="N44" s="18"/>
       <c r="O44" s="20"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
@@ -5394,7 +5473,7 @@
       <c r="N45" s="18"/>
       <c r="O45" s="20"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="23"/>
@@ -5411,7 +5490,7 @@
       <c r="N46" s="22"/>
       <c r="O46" s="17"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="23"/>
@@ -5428,7 +5507,7 @@
       <c r="N47" s="22"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
@@ -5445,7 +5524,7 @@
       <c r="N48" s="18"/>
       <c r="O48" s="20"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
@@ -5462,7 +5541,7 @@
       <c r="N49" s="18"/>
       <c r="O49" s="20"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
@@ -5479,7 +5558,7 @@
       <c r="N50" s="18"/>
       <c r="O50" s="20"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
@@ -5496,7 +5575,7 @@
       <c r="N51" s="18"/>
       <c r="O51" s="20"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
@@ -5513,7 +5592,7 @@
       <c r="N52" s="18"/>
       <c r="O52" s="20"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="23"/>
@@ -5530,7 +5609,7 @@
       <c r="N53" s="22"/>
       <c r="O53" s="17"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="23"/>
@@ -5547,7 +5626,7 @@
       <c r="N54" s="22"/>
       <c r="O54" s="17"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
@@ -5564,7 +5643,7 @@
       <c r="N55" s="18"/>
       <c r="O55" s="20"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
@@ -5581,7 +5660,7 @@
       <c r="N56" s="18"/>
       <c r="O56" s="20"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
@@ -5598,7 +5677,7 @@
       <c r="N57" s="18"/>
       <c r="O57" s="20"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
@@ -5615,7 +5694,7 @@
       <c r="N58" s="18"/>
       <c r="O58" s="20"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
@@ -5632,7 +5711,7 @@
       <c r="N59" s="18"/>
       <c r="O59" s="20"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="23"/>
@@ -5649,7 +5728,7 @@
       <c r="N60" s="22"/>
       <c r="O60" s="17"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="23"/>
@@ -5666,7 +5745,7 @@
       <c r="N61" s="22"/>
       <c r="O61" s="17"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
@@ -5683,7 +5762,7 @@
       <c r="N62" s="18"/>
       <c r="O62" s="20"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
@@ -5700,7 +5779,7 @@
       <c r="N63" s="18"/>
       <c r="O63" s="20"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
@@ -5717,7 +5796,7 @@
       <c r="N64" s="18"/>
       <c r="O64" s="20"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
@@ -5734,7 +5813,7 @@
       <c r="N65" s="18"/>
       <c r="O65" s="20"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
@@ -5751,7 +5830,7 @@
       <c r="N66" s="18"/>
       <c r="O66" s="20"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="23"/>
@@ -5768,7 +5847,7 @@
       <c r="N67" s="22"/>
       <c r="O67" s="17"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="23"/>
@@ -5785,7 +5864,7 @@
       <c r="N68" s="22"/>
       <c r="O68" s="17"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
@@ -5802,7 +5881,7 @@
       <c r="N69" s="18"/>
       <c r="O69" s="20"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
@@ -5819,7 +5898,7 @@
       <c r="N70" s="18"/>
       <c r="O70" s="20"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
@@ -5836,7 +5915,7 @@
       <c r="N71" s="18"/>
       <c r="O71" s="20"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
@@ -5853,7 +5932,7 @@
       <c r="N72" s="18"/>
       <c r="O72" s="20"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
@@ -5870,7 +5949,7 @@
       <c r="N73" s="18"/>
       <c r="O73" s="20"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="23"/>
@@ -5887,7 +5966,7 @@
       <c r="N74" s="22"/>
       <c r="O74" s="17"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="23"/>
@@ -5904,7 +5983,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="17"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
@@ -5921,7 +6000,7 @@
       <c r="N76" s="18"/>
       <c r="O76" s="20"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
@@ -5938,7 +6017,7 @@
       <c r="N77" s="18"/>
       <c r="O77" s="20"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
@@ -5955,7 +6034,7 @@
       <c r="N78" s="18"/>
       <c r="O78" s="20"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
@@ -5972,7 +6051,7 @@
       <c r="N79" s="18"/>
       <c r="O79" s="20"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="25"/>
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
@@ -5989,7 +6068,7 @@
       <c r="N80" s="18"/>
       <c r="O80" s="20"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="23"/>
@@ -6006,7 +6085,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="17"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="23"/>
@@ -6023,7 +6102,7 @@
       <c r="N82" s="22"/>
       <c r="O82" s="17"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
       <c r="B83" s="18"/>
       <c r="C83" s="19"/>
@@ -6040,7 +6119,7 @@
       <c r="N83" s="18"/>
       <c r="O83" s="20"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
       <c r="B84" s="18"/>
       <c r="C84" s="19"/>
@@ -6057,7 +6136,7 @@
       <c r="N84" s="18"/>
       <c r="O84" s="20"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
       <c r="B85" s="18"/>
       <c r="C85" s="19"/>
@@ -6074,7 +6153,7 @@
       <c r="N85" s="18"/>
       <c r="O85" s="20"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
       <c r="B86" s="18"/>
       <c r="C86" s="19"/>
@@ -6091,7 +6170,7 @@
       <c r="N86" s="18"/>
       <c r="O86" s="20"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>
       <c r="B87" s="18"/>
       <c r="C87" s="19"/>
@@ -6108,7 +6187,7 @@
       <c r="N87" s="18"/>
       <c r="O87" s="20"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="23"/>
@@ -6125,7 +6204,7 @@
       <c r="N88" s="22"/>
       <c r="O88" s="17"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="23"/>
@@ -6142,7 +6221,7 @@
       <c r="N89" s="22"/>
       <c r="O89" s="17"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
       <c r="B90" s="18"/>
       <c r="C90" s="19"/>
@@ -6159,7 +6238,7 @@
       <c r="N90" s="18"/>
       <c r="O90" s="20"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
       <c r="B91" s="18"/>
       <c r="C91" s="19"/>
@@ -6176,7 +6255,7 @@
       <c r="N91" s="18"/>
       <c r="O91" s="20"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="25"/>
       <c r="B92" s="18"/>
       <c r="C92" s="19"/>
@@ -6193,7 +6272,7 @@
       <c r="N92" s="18"/>
       <c r="O92" s="20"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
       <c r="B93" s="18"/>
       <c r="C93" s="19"/>
@@ -6210,7 +6289,7 @@
       <c r="N93" s="18"/>
       <c r="O93" s="20"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
       <c r="B94" s="18"/>
       <c r="C94" s="19"/>
@@ -6227,7 +6306,7 @@
       <c r="N94" s="18"/>
       <c r="O94" s="20"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="23"/>
@@ -6244,7 +6323,7 @@
       <c r="N95" s="22"/>
       <c r="O95" s="17"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="23"/>
@@ -6261,7 +6340,7 @@
       <c r="N96" s="22"/>
       <c r="O96" s="17"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="B97" s="18"/>
       <c r="C97" s="19"/>
@@ -6278,7 +6357,7 @@
       <c r="N97" s="18"/>
       <c r="O97" s="20"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
       <c r="B98" s="18"/>
       <c r="C98" s="19"/>
@@ -6295,7 +6374,7 @@
       <c r="N98" s="18"/>
       <c r="O98" s="20"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="25"/>
       <c r="B99" s="18"/>
       <c r="C99" s="19"/>
@@ -6312,7 +6391,7 @@
       <c r="N99" s="18"/>
       <c r="O99" s="20"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
       <c r="B100" s="18"/>
       <c r="C100" s="19"/>
@@ -6329,7 +6408,7 @@
       <c r="N100" s="18"/>
       <c r="O100" s="20"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="25"/>
       <c r="B101" s="18"/>
       <c r="C101" s="19"/>
@@ -6346,7 +6425,7 @@
       <c r="N101" s="18"/>
       <c r="O101" s="20"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="23"/>
@@ -6363,7 +6442,7 @@
       <c r="N102" s="22"/>
       <c r="O102" s="17"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="23"/>
@@ -6380,7 +6459,7 @@
       <c r="N103" s="22"/>
       <c r="O103" s="17"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="25"/>
       <c r="B104" s="18"/>
       <c r="C104" s="19"/>
@@ -6397,7 +6476,7 @@
       <c r="N104" s="18"/>
       <c r="O104" s="20"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="25"/>
       <c r="B105" s="18"/>
       <c r="C105" s="19"/>
@@ -6414,7 +6493,7 @@
       <c r="N105" s="18"/>
       <c r="O105" s="20"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="25"/>
       <c r="B106" s="18"/>
       <c r="C106" s="19"/>
@@ -6431,7 +6510,7 @@
       <c r="N106" s="18"/>
       <c r="O106" s="20"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="25"/>
       <c r="B107" s="18"/>
       <c r="C107" s="19"/>
@@ -6448,7 +6527,7 @@
       <c r="N107" s="18"/>
       <c r="O107" s="20"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="25"/>
       <c r="B108" s="18"/>
       <c r="C108" s="19"/>
@@ -6465,7 +6544,7 @@
       <c r="N108" s="18"/>
       <c r="O108" s="20"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="23"/>
@@ -6482,7 +6561,7 @@
       <c r="N109" s="22"/>
       <c r="O109" s="17"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="23"/>
@@ -6499,7 +6578,7 @@
       <c r="N110" s="22"/>
       <c r="O110" s="17"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="25"/>
       <c r="B111" s="18"/>
       <c r="C111" s="19"/>
@@ -6516,7 +6595,7 @@
       <c r="N111" s="18"/>
       <c r="O111" s="20"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="25"/>
       <c r="B112" s="18"/>
       <c r="C112" s="19"/>
@@ -6533,7 +6612,7 @@
       <c r="N112" s="18"/>
       <c r="O112" s="20"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="25"/>
       <c r="B113" s="18"/>
       <c r="C113" s="19"/>
@@ -6550,7 +6629,7 @@
       <c r="N113" s="18"/>
       <c r="O113" s="20"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="25"/>
       <c r="B114" s="18"/>
       <c r="C114" s="19"/>
@@ -6567,7 +6646,7 @@
       <c r="N114" s="18"/>
       <c r="O114" s="20"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="25"/>
       <c r="B115" s="18"/>
       <c r="C115" s="19"/>
@@ -6584,7 +6663,7 @@
       <c r="N115" s="18"/>
       <c r="O115" s="20"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="23"/>
@@ -6601,7 +6680,7 @@
       <c r="N116" s="22"/>
       <c r="O116" s="17"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="23"/>
@@ -6618,7 +6697,7 @@
       <c r="N117" s="22"/>
       <c r="O117" s="17"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="25"/>
       <c r="B118" s="18"/>
       <c r="C118" s="19"/>
@@ -6635,7 +6714,7 @@
       <c r="N118" s="18"/>
       <c r="O118" s="20"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="25"/>
       <c r="B119" s="18"/>
       <c r="C119" s="19"/>
@@ -6652,7 +6731,7 @@
       <c r="N119" s="18"/>
       <c r="O119" s="20"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="25"/>
       <c r="B120" s="18"/>
       <c r="C120" s="19"/>
@@ -6669,7 +6748,7 @@
       <c r="N120" s="18"/>
       <c r="O120" s="20"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="25"/>
       <c r="B121" s="18"/>
       <c r="C121" s="19"/>
@@ -6686,7 +6765,7 @@
       <c r="N121" s="18"/>
       <c r="O121" s="20"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="25"/>
       <c r="B122" s="18"/>
       <c r="C122" s="19"/>
@@ -6703,7 +6782,7 @@
       <c r="N122" s="18"/>
       <c r="O122" s="20"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="23"/>
@@ -6720,7 +6799,7 @@
       <c r="N123" s="22"/>
       <c r="O123" s="17"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="23"/>
@@ -6737,7 +6816,7 @@
       <c r="N124" s="22"/>
       <c r="O124" s="17"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="25"/>
       <c r="B125" s="18"/>
       <c r="C125" s="19"/>
@@ -6754,7 +6833,7 @@
       <c r="N125" s="18"/>
       <c r="O125" s="20"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="25"/>
       <c r="B126" s="18"/>
       <c r="C126" s="19"/>
@@ -6771,7 +6850,7 @@
       <c r="N126" s="18"/>
       <c r="O126" s="20"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="25"/>
       <c r="B127" s="18"/>
       <c r="C127" s="19"/>
@@ -6788,7 +6867,7 @@
       <c r="N127" s="18"/>
       <c r="O127" s="20"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="25"/>
       <c r="B128" s="18"/>
       <c r="C128" s="19"/>
@@ -6805,7 +6884,7 @@
       <c r="N128" s="18"/>
       <c r="O128" s="20"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="25"/>
       <c r="B129" s="18"/>
       <c r="C129" s="19"/>
@@ -6822,7 +6901,7 @@
       <c r="N129" s="18"/>
       <c r="O129" s="20"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="23"/>
@@ -6839,7 +6918,7 @@
       <c r="N130" s="22"/>
       <c r="O130" s="17"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="23"/>
@@ -6856,7 +6935,7 @@
       <c r="N131" s="22"/>
       <c r="O131" s="17"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="25"/>
       <c r="B132" s="18"/>
       <c r="C132" s="19"/>
@@ -6873,7 +6952,7 @@
       <c r="N132" s="18"/>
       <c r="O132" s="20"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="25"/>
       <c r="B133" s="18"/>
       <c r="C133" s="19"/>
@@ -6890,7 +6969,7 @@
       <c r="N133" s="18"/>
       <c r="O133" s="20"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="25"/>
       <c r="B134" s="18"/>
       <c r="C134" s="19"/>
@@ -6907,7 +6986,7 @@
       <c r="N134" s="18"/>
       <c r="O134" s="20"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
       <c r="B135" s="18"/>
       <c r="C135" s="19"/>
@@ -6924,7 +7003,7 @@
       <c r="N135" s="18"/>
       <c r="O135" s="20"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="25"/>
       <c r="B136" s="18"/>
       <c r="C136" s="19"/>
@@ -6941,7 +7020,7 @@
       <c r="N136" s="18"/>
       <c r="O136" s="20"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="23"/>
@@ -6958,7 +7037,7 @@
       <c r="N137" s="22"/>
       <c r="O137" s="17"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="23"/>
@@ -6975,7 +7054,7 @@
       <c r="N138" s="22"/>
       <c r="O138" s="17"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="25"/>
       <c r="B139" s="18"/>
       <c r="C139" s="19"/>
@@ -6992,7 +7071,7 @@
       <c r="N139" s="18"/>
       <c r="O139" s="20"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="25"/>
       <c r="B140" s="18"/>
       <c r="C140" s="19"/>
@@ -7009,7 +7088,7 @@
       <c r="N140" s="18"/>
       <c r="O140" s="20"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="25"/>
       <c r="B141" s="18"/>
       <c r="C141" s="19"/>
@@ -7026,7 +7105,7 @@
       <c r="N141" s="18"/>
       <c r="O141" s="20"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="25"/>
       <c r="B142" s="18"/>
       <c r="C142" s="19"/>
@@ -7043,7 +7122,7 @@
       <c r="N142" s="18"/>
       <c r="O142" s="20"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="25"/>
       <c r="B143" s="18"/>
       <c r="C143" s="19"/>
@@ -7060,7 +7139,7 @@
       <c r="N143" s="18"/>
       <c r="O143" s="20"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="23"/>
@@ -7077,7 +7156,7 @@
       <c r="N144" s="22"/>
       <c r="O144" s="17"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="23"/>
@@ -7094,7 +7173,7 @@
       <c r="N145" s="22"/>
       <c r="O145" s="17"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="25"/>
       <c r="B146" s="18"/>
       <c r="C146" s="19"/>
@@ -7111,7 +7190,7 @@
       <c r="N146" s="18"/>
       <c r="O146" s="20"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="25"/>
       <c r="B147" s="18"/>
       <c r="C147" s="19"/>
@@ -7128,7 +7207,7 @@
       <c r="N147" s="18"/>
       <c r="O147" s="20"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="25"/>
       <c r="B148" s="18"/>
       <c r="C148" s="19"/>
@@ -7145,7 +7224,7 @@
       <c r="N148" s="18"/>
       <c r="O148" s="20"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="25"/>
       <c r="B149" s="18"/>
       <c r="C149" s="19"/>
@@ -7162,7 +7241,7 @@
       <c r="N149" s="18"/>
       <c r="O149" s="20"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="25"/>
       <c r="B150" s="18"/>
       <c r="C150" s="19"/>
@@ -7179,7 +7258,7 @@
       <c r="N150" s="18"/>
       <c r="O150" s="20"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="23"/>
@@ -7196,7 +7275,7 @@
       <c r="N151" s="22"/>
       <c r="O151" s="17"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="23"/>
@@ -7213,7 +7292,7 @@
       <c r="N152" s="22"/>
       <c r="O152" s="17"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="25"/>
       <c r="B153" s="18"/>
       <c r="C153" s="19"/>
@@ -7230,7 +7309,7 @@
       <c r="N153" s="18"/>
       <c r="O153" s="20"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="25"/>
       <c r="B154" s="18"/>
       <c r="C154" s="19"/>
@@ -7247,7 +7326,7 @@
       <c r="N154" s="18"/>
       <c r="O154" s="20"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="25"/>
       <c r="B155" s="18"/>
       <c r="C155" s="19"/>
@@ -7264,7 +7343,7 @@
       <c r="N155" s="18"/>
       <c r="O155" s="20"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="25"/>
       <c r="B156" s="18"/>
       <c r="C156" s="19"/>
@@ -7281,7 +7360,7 @@
       <c r="N156" s="18"/>
       <c r="O156" s="20"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="25"/>
       <c r="B157" s="18"/>
       <c r="C157" s="19"/>
@@ -7298,7 +7377,7 @@
       <c r="N157" s="18"/>
       <c r="O157" s="20"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="23"/>
@@ -7315,7 +7394,7 @@
       <c r="N158" s="22"/>
       <c r="O158" s="17"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="23"/>
@@ -7332,7 +7411,7 @@
       <c r="N159" s="22"/>
       <c r="O159" s="17"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="25"/>
       <c r="B160" s="18"/>
       <c r="C160" s="19"/>
@@ -7349,7 +7428,7 @@
       <c r="N160" s="18"/>
       <c r="O160" s="20"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="25"/>
       <c r="B161" s="18"/>
       <c r="C161" s="19"/>
@@ -7366,7 +7445,7 @@
       <c r="N161" s="18"/>
       <c r="O161" s="20"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="25"/>
       <c r="B162" s="18"/>
       <c r="C162" s="19"/>
@@ -7383,7 +7462,7 @@
       <c r="N162" s="18"/>
       <c r="O162" s="20"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="25"/>
       <c r="B163" s="18"/>
       <c r="C163" s="19"/>
@@ -7400,7 +7479,7 @@
       <c r="N163" s="18"/>
       <c r="O163" s="20"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="25"/>
       <c r="B164" s="18"/>
       <c r="C164" s="19"/>
@@ -7417,7 +7496,7 @@
       <c r="N164" s="18"/>
       <c r="O164" s="20"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="23"/>
@@ -7434,7 +7513,7 @@
       <c r="N165" s="22"/>
       <c r="O165" s="17"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="23"/>
@@ -7451,7 +7530,7 @@
       <c r="N166" s="22"/>
       <c r="O166" s="17"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="25"/>
       <c r="B167" s="18"/>
       <c r="C167" s="19"/>
@@ -7468,7 +7547,7 @@
       <c r="N167" s="18"/>
       <c r="O167" s="20"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="25"/>
       <c r="B168" s="18"/>
       <c r="C168" s="19"/>
@@ -7485,7 +7564,7 @@
       <c r="N168" s="18"/>
       <c r="O168" s="20"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
       <c r="B169" s="18"/>
       <c r="C169" s="19"/>
@@ -7502,7 +7581,7 @@
       <c r="N169" s="18"/>
       <c r="O169" s="20"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="25"/>
       <c r="B170" s="18"/>
       <c r="C170" s="19"/>
@@ -7519,7 +7598,7 @@
       <c r="N170" s="18"/>
       <c r="O170" s="20"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="25"/>
       <c r="B171" s="18"/>
       <c r="C171" s="19"/>
@@ -7536,7 +7615,7 @@
       <c r="N171" s="18"/>
       <c r="O171" s="20"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="23"/>
@@ -7553,7 +7632,7 @@
       <c r="N172" s="22"/>
       <c r="O172" s="17"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="23"/>
@@ -7570,7 +7649,7 @@
       <c r="N173" s="22"/>
       <c r="O173" s="17"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="B174" s="18"/>
       <c r="C174" s="19"/>
@@ -7587,7 +7666,7 @@
       <c r="N174" s="18"/>
       <c r="O174" s="20"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="B175" s="18"/>
       <c r="C175" s="19"/>
@@ -7604,7 +7683,7 @@
       <c r="N175" s="18"/>
       <c r="O175" s="20"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="B176" s="18"/>
       <c r="C176" s="19"/>
@@ -7621,7 +7700,7 @@
       <c r="N176" s="18"/>
       <c r="O176" s="20"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="B177" s="18"/>
       <c r="C177" s="19"/>
@@ -7638,7 +7717,7 @@
       <c r="N177" s="18"/>
       <c r="O177" s="20"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="B178" s="18"/>
       <c r="C178" s="19"/>
@@ -7655,7 +7734,7 @@
       <c r="N178" s="18"/>
       <c r="O178" s="20"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="23"/>
@@ -7672,7 +7751,7 @@
       <c r="N179" s="22"/>
       <c r="O179" s="17"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="23"/>
@@ -7689,7 +7768,7 @@
       <c r="N180" s="22"/>
       <c r="O180" s="17"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="25"/>
       <c r="B181" s="18"/>
       <c r="C181" s="19"/>
@@ -7706,7 +7785,7 @@
       <c r="N181" s="18"/>
       <c r="O181" s="20"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="B182" s="18"/>
       <c r="C182" s="19"/>
@@ -7723,7 +7802,7 @@
       <c r="N182" s="18"/>
       <c r="O182" s="20"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="25"/>
       <c r="B183" s="18"/>
       <c r="C183" s="19"/>
@@ -7740,7 +7819,7 @@
       <c r="N183" s="18"/>
       <c r="O183" s="20"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="25"/>
       <c r="B184" s="18"/>
       <c r="C184" s="19"/>
@@ -7757,7 +7836,7 @@
       <c r="N184" s="18"/>
       <c r="O184" s="20"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="25"/>
       <c r="B185" s="18"/>
       <c r="C185" s="19"/>
@@ -7774,7 +7853,7 @@
       <c r="N185" s="18"/>
       <c r="O185" s="20"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="21"/>
       <c r="B186" s="22"/>
       <c r="C186" s="23"/>
@@ -7791,7 +7870,7 @@
       <c r="N186" s="22"/>
       <c r="O186" s="17"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="21"/>
       <c r="B187" s="22"/>
       <c r="C187" s="23"/>
@@ -7808,7 +7887,7 @@
       <c r="N187" s="22"/>
       <c r="O187" s="17"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="25"/>
       <c r="B188" s="18"/>
       <c r="C188" s="19"/>
@@ -7825,7 +7904,7 @@
       <c r="N188" s="18"/>
       <c r="O188" s="20"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="25"/>
       <c r="B189" s="18"/>
       <c r="C189" s="19"/>
@@ -7842,7 +7921,7 @@
       <c r="N189" s="18"/>
       <c r="O189" s="20"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="18"/>
       <c r="C190" s="19"/>
@@ -7859,7 +7938,7 @@
       <c r="N190" s="18"/>
       <c r="O190" s="20"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="25"/>
       <c r="B191" s="18"/>
       <c r="C191" s="19"/>
@@ -7876,7 +7955,7 @@
       <c r="N191" s="18"/>
       <c r="O191" s="20"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="25"/>
       <c r="B192" s="18"/>
       <c r="C192" s="19"/>
@@ -7893,7 +7972,7 @@
       <c r="N192" s="18"/>
       <c r="O192" s="20"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="21"/>
       <c r="B193" s="22"/>
       <c r="C193" s="23"/>
@@ -7910,7 +7989,7 @@
       <c r="N193" s="22"/>
       <c r="O193" s="17"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="21"/>
       <c r="B194" s="22"/>
       <c r="C194" s="23"/>
@@ -7927,7 +8006,7 @@
       <c r="N194" s="22"/>
       <c r="O194" s="17"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="25"/>
       <c r="B195" s="18"/>
       <c r="C195" s="19"/>
@@ -7944,7 +8023,7 @@
       <c r="N195" s="18"/>
       <c r="O195" s="20"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="B196" s="18"/>
       <c r="C196" s="19"/>
@@ -7961,7 +8040,7 @@
       <c r="N196" s="18"/>
       <c r="O196" s="20"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="B197" s="18"/>
       <c r="C197" s="19"/>
@@ -7978,7 +8057,7 @@
       <c r="N197" s="18"/>
       <c r="O197" s="20"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="B198" s="18"/>
       <c r="C198" s="19"/>
@@ -7995,7 +8074,7 @@
       <c r="N198" s="18"/>
       <c r="O198" s="20"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="25"/>
       <c r="B199" s="18"/>
       <c r="C199" s="19"/>
@@ -8012,7 +8091,7 @@
       <c r="N199" s="18"/>
       <c r="O199" s="20"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="21"/>
       <c r="B200" s="22"/>
       <c r="C200" s="23"/>
@@ -8029,7 +8108,7 @@
       <c r="N200" s="22"/>
       <c r="O200" s="17"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="21"/>
       <c r="B201" s="22"/>
       <c r="C201" s="23"/>
@@ -8046,7 +8125,7 @@
       <c r="N201" s="22"/>
       <c r="O201" s="17"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="25"/>
       <c r="B202" s="18"/>
       <c r="C202" s="19"/>
@@ -8063,7 +8142,7 @@
       <c r="N202" s="18"/>
       <c r="O202" s="20"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="25"/>
       <c r="B203" s="18"/>
       <c r="C203" s="19"/>
@@ -8080,7 +8159,7 @@
       <c r="N203" s="18"/>
       <c r="O203" s="20"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="25"/>
       <c r="B204" s="18"/>
       <c r="C204" s="19"/>
@@ -8097,7 +8176,7 @@
       <c r="N204" s="18"/>
       <c r="O204" s="20"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="25"/>
       <c r="B205" s="18"/>
       <c r="C205" s="19"/>
@@ -8114,7 +8193,7 @@
       <c r="N205" s="18"/>
       <c r="O205" s="20"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="25"/>
       <c r="B206" s="18"/>
       <c r="C206" s="19"/>
@@ -8131,7 +8210,7 @@
       <c r="N206" s="18"/>
       <c r="O206" s="20"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="21"/>
       <c r="B207" s="22"/>
       <c r="C207" s="23"/>
@@ -8148,7 +8227,7 @@
       <c r="N207" s="22"/>
       <c r="O207" s="17"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="21"/>
       <c r="B208" s="22"/>
       <c r="C208" s="23"/>
@@ -8165,7 +8244,7 @@
       <c r="N208" s="22"/>
       <c r="O208" s="17"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="25"/>
       <c r="B209" s="18"/>
       <c r="C209" s="19"/>
@@ -8182,7 +8261,7 @@
       <c r="N209" s="18"/>
       <c r="O209" s="20"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="25"/>
       <c r="B210" s="18"/>
       <c r="C210" s="19"/>
@@ -8199,7 +8278,7 @@
       <c r="N210" s="18"/>
       <c r="O210" s="20"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="25"/>
       <c r="B211" s="18"/>
       <c r="C211" s="19"/>
@@ -8216,7 +8295,7 @@
       <c r="N211" s="18"/>
       <c r="O211" s="20"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="25"/>
       <c r="B212" s="18"/>
       <c r="C212" s="19"/>
@@ -8233,7 +8312,7 @@
       <c r="N212" s="18"/>
       <c r="O212" s="20"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="25"/>
       <c r="B213" s="18"/>
       <c r="C213" s="19"/>
@@ -8250,7 +8329,7 @@
       <c r="N213" s="18"/>
       <c r="O213" s="20"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="21"/>
       <c r="B214" s="22"/>
       <c r="C214" s="23"/>
@@ -8267,7 +8346,7 @@
       <c r="N214" s="22"/>
       <c r="O214" s="17"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="21"/>
       <c r="B215" s="22"/>
       <c r="C215" s="23"/>
@@ -8284,7 +8363,7 @@
       <c r="N215" s="22"/>
       <c r="O215" s="17"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="25"/>
       <c r="B216" s="18"/>
       <c r="C216" s="19"/>
@@ -8301,7 +8380,7 @@
       <c r="N216" s="18"/>
       <c r="O216" s="20"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="25"/>
       <c r="B217" s="18"/>
       <c r="C217" s="19"/>
@@ -8318,7 +8397,7 @@
       <c r="N217" s="18"/>
       <c r="O217" s="20"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="25"/>
       <c r="B218" s="18"/>
       <c r="C218" s="19"/>
@@ -8335,7 +8414,7 @@
       <c r="N218" s="18"/>
       <c r="O218" s="20"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="25"/>
       <c r="B219" s="18"/>
       <c r="C219" s="19"/>
@@ -8352,7 +8431,7 @@
       <c r="N219" s="18"/>
       <c r="O219" s="20"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="25"/>
       <c r="B220" s="18"/>
       <c r="C220" s="19"/>
@@ -8369,7 +8448,7 @@
       <c r="N220" s="18"/>
       <c r="O220" s="20"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="21"/>
       <c r="B221" s="22"/>
       <c r="C221" s="23"/>
@@ -8386,7 +8465,7 @@
       <c r="N221" s="22"/>
       <c r="O221" s="17"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="21"/>
       <c r="B222" s="22"/>
       <c r="C222" s="23"/>
@@ -8403,7 +8482,7 @@
       <c r="N222" s="22"/>
       <c r="O222" s="17"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="25"/>
       <c r="B223" s="18"/>
       <c r="C223" s="19"/>
@@ -8420,7 +8499,7 @@
       <c r="N223" s="18"/>
       <c r="O223" s="20"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="25"/>
       <c r="B224" s="18"/>
       <c r="C224" s="19"/>
@@ -8437,7 +8516,7 @@
       <c r="N224" s="18"/>
       <c r="O224" s="20"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="25"/>
       <c r="B225" s="18"/>
       <c r="C225" s="19"/>
@@ -8454,7 +8533,7 @@
       <c r="N225" s="18"/>
       <c r="O225" s="20"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="25"/>
       <c r="B226" s="18"/>
       <c r="C226" s="19"/>
@@ -8471,7 +8550,7 @@
       <c r="N226" s="18"/>
       <c r="O226" s="20"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="25"/>
       <c r="B227" s="18"/>
       <c r="C227" s="19"/>
@@ -8488,7 +8567,7 @@
       <c r="N227" s="18"/>
       <c r="O227" s="20"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="21"/>
       <c r="B228" s="22"/>
       <c r="C228" s="23"/>
@@ -8505,7 +8584,7 @@
       <c r="N228" s="22"/>
       <c r="O228" s="17"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="21"/>
       <c r="B229" s="22"/>
       <c r="C229" s="23"/>
@@ -8522,7 +8601,7 @@
       <c r="N229" s="22"/>
       <c r="O229" s="17"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="25"/>
       <c r="B230" s="18"/>
       <c r="C230" s="19"/>
@@ -8539,7 +8618,7 @@
       <c r="N230" s="18"/>
       <c r="O230" s="20"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="25"/>
       <c r="B231" s="18"/>
       <c r="C231" s="19"/>
@@ -8556,7 +8635,7 @@
       <c r="N231" s="18"/>
       <c r="O231" s="20"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="25"/>
       <c r="B232" s="18"/>
       <c r="C232" s="19"/>
@@ -8573,7 +8652,7 @@
       <c r="N232" s="18"/>
       <c r="O232" s="20"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="25"/>
       <c r="B233" s="18"/>
       <c r="C233" s="19"/>
@@ -8590,7 +8669,7 @@
       <c r="N233" s="18"/>
       <c r="O233" s="20"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="25"/>
       <c r="B234" s="18"/>
       <c r="C234" s="19"/>
@@ -8607,7 +8686,7 @@
       <c r="N234" s="18"/>
       <c r="O234" s="20"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="21"/>
       <c r="B235" s="22"/>
       <c r="C235" s="23"/>
@@ -8624,7 +8703,7 @@
       <c r="N235" s="22"/>
       <c r="O235" s="17"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="21"/>
       <c r="B236" s="22"/>
       <c r="C236" s="23"/>
@@ -8641,7 +8720,7 @@
       <c r="N236" s="22"/>
       <c r="O236" s="17"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="25"/>
       <c r="B237" s="18"/>
       <c r="C237" s="19"/>
@@ -8658,7 +8737,7 @@
       <c r="N237" s="18"/>
       <c r="O237" s="20"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="25"/>
       <c r="B238" s="18"/>
       <c r="C238" s="19"/>
@@ -8675,7 +8754,7 @@
       <c r="N238" s="18"/>
       <c r="O238" s="20"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="25"/>
       <c r="B239" s="18"/>
       <c r="C239" s="19"/>
@@ -8692,7 +8771,7 @@
       <c r="N239" s="18"/>
       <c r="O239" s="20"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="25"/>
       <c r="B240" s="18"/>
       <c r="C240" s="19"/>
@@ -8709,7 +8788,7 @@
       <c r="N240" s="18"/>
       <c r="O240" s="20"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="25"/>
       <c r="B241" s="18"/>
       <c r="C241" s="19"/>
@@ -8726,7 +8805,7 @@
       <c r="N241" s="18"/>
       <c r="O241" s="20"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="21"/>
       <c r="B242" s="22"/>
       <c r="C242" s="23"/>
@@ -8743,7 +8822,7 @@
       <c r="N242" s="22"/>
       <c r="O242" s="17"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="21"/>
       <c r="B243" s="22"/>
       <c r="C243" s="23"/>
@@ -8760,7 +8839,7 @@
       <c r="N243" s="22"/>
       <c r="O243" s="17"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="25"/>
       <c r="B244" s="18"/>
       <c r="C244" s="19"/>
@@ -8777,7 +8856,7 @@
       <c r="N244" s="18"/>
       <c r="O244" s="20"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="25"/>
       <c r="B245" s="18"/>
       <c r="C245" s="19"/>
@@ -8794,7 +8873,7 @@
       <c r="N245" s="18"/>
       <c r="O245" s="20"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="25"/>
       <c r="B246" s="18"/>
       <c r="C246" s="19"/>
@@ -8811,7 +8890,7 @@
       <c r="N246" s="18"/>
       <c r="O246" s="20"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="25"/>
       <c r="B247" s="18"/>
       <c r="C247" s="19"/>
@@ -8828,7 +8907,7 @@
       <c r="N247" s="18"/>
       <c r="O247" s="20"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="25"/>
       <c r="B248" s="18"/>
       <c r="C248" s="19"/>
@@ -8845,7 +8924,7 @@
       <c r="N248" s="18"/>
       <c r="O248" s="20"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="21"/>
       <c r="B249" s="22"/>
       <c r="C249" s="23"/>
@@ -8862,7 +8941,7 @@
       <c r="N249" s="22"/>
       <c r="O249" s="17"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="21"/>
       <c r="B250" s="22"/>
       <c r="C250" s="23"/>
@@ -8879,7 +8958,7 @@
       <c r="N250" s="22"/>
       <c r="O250" s="17"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="25"/>
       <c r="B251" s="18"/>
       <c r="C251" s="19"/>
@@ -8896,7 +8975,7 @@
       <c r="N251" s="18"/>
       <c r="O251" s="20"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="25"/>
       <c r="B252" s="18"/>
       <c r="C252" s="19"/>
@@ -8913,7 +8992,7 @@
       <c r="N252" s="18"/>
       <c r="O252" s="20"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="25"/>
       <c r="B253" s="18"/>
       <c r="C253" s="19"/>
@@ -8930,7 +9009,7 @@
       <c r="N253" s="18"/>
       <c r="O253" s="20"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="25"/>
       <c r="B254" s="18"/>
       <c r="C254" s="19"/>
@@ -8947,7 +9026,7 @@
       <c r="N254" s="18"/>
       <c r="O254" s="20"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="25"/>
       <c r="B255" s="18"/>
       <c r="C255" s="19"/>
@@ -8964,7 +9043,7 @@
       <c r="N255" s="18"/>
       <c r="O255" s="20"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="21"/>
       <c r="B256" s="22"/>
       <c r="C256" s="23"/>
@@ -8981,7 +9060,7 @@
       <c r="N256" s="22"/>
       <c r="O256" s="17"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="21"/>
       <c r="B257" s="22"/>
       <c r="C257" s="23"/>
@@ -8998,7 +9077,7 @@
       <c r="N257" s="22"/>
       <c r="O257" s="17"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="25"/>
       <c r="B258" s="18"/>
       <c r="C258" s="19"/>
@@ -9015,7 +9094,7 @@
       <c r="N258" s="18"/>
       <c r="O258" s="20"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="25"/>
       <c r="B259" s="18"/>
       <c r="C259" s="19"/>
@@ -9032,7 +9111,7 @@
       <c r="N259" s="18"/>
       <c r="O259" s="20"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="25"/>
       <c r="B260" s="18"/>
       <c r="C260" s="19"/>
@@ -9049,7 +9128,7 @@
       <c r="N260" s="18"/>
       <c r="O260" s="20"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="25"/>
       <c r="B261" s="18"/>
       <c r="C261" s="19"/>
@@ -9066,7 +9145,7 @@
       <c r="N261" s="18"/>
       <c r="O261" s="20"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="25"/>
       <c r="B262" s="18"/>
       <c r="C262" s="19"/>
@@ -9083,7 +9162,7 @@
       <c r="N262" s="18"/>
       <c r="O262" s="20"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="21"/>
       <c r="B263" s="22"/>
       <c r="C263" s="23"/>
@@ -9100,7 +9179,7 @@
       <c r="N263" s="22"/>
       <c r="O263" s="17"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="21"/>
       <c r="B264" s="22"/>
       <c r="C264" s="23"/>
@@ -9117,7 +9196,7 @@
       <c r="N264" s="22"/>
       <c r="O264" s="17"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="25"/>
       <c r="B265" s="18"/>
       <c r="C265" s="19"/>
@@ -9134,7 +9213,7 @@
       <c r="N265" s="18"/>
       <c r="O265" s="20"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="25"/>
       <c r="B266" s="18"/>
       <c r="C266" s="19"/>
@@ -9151,7 +9230,7 @@
       <c r="N266" s="18"/>
       <c r="O266" s="20"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="25"/>
       <c r="B267" s="18"/>
       <c r="C267" s="19"/>
@@ -9168,7 +9247,7 @@
       <c r="N267" s="18"/>
       <c r="O267" s="20"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="25"/>
       <c r="B268" s="18"/>
       <c r="C268" s="19"/>
@@ -9185,7 +9264,7 @@
       <c r="N268" s="18"/>
       <c r="O268" s="20"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="25"/>
       <c r="B269" s="18"/>
       <c r="C269" s="19"/>
@@ -9202,7 +9281,7 @@
       <c r="N269" s="18"/>
       <c r="O269" s="20"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="21"/>
       <c r="B270" s="22"/>
       <c r="C270" s="23"/>
@@ -9219,7 +9298,7 @@
       <c r="N270" s="22"/>
       <c r="O270" s="17"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="21"/>
       <c r="B271" s="22"/>
       <c r="C271" s="23"/>
@@ -9236,7 +9315,7 @@
       <c r="N271" s="22"/>
       <c r="O271" s="17"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="25"/>
       <c r="B272" s="18"/>
       <c r="C272" s="19"/>
@@ -9253,7 +9332,7 @@
       <c r="N272" s="18"/>
       <c r="O272" s="20"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="25"/>
       <c r="B273" s="18"/>
       <c r="C273" s="19"/>
@@ -9270,7 +9349,7 @@
       <c r="N273" s="18"/>
       <c r="O273" s="20"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="25"/>
       <c r="B274" s="18"/>
       <c r="C274" s="19"/>
@@ -9287,7 +9366,7 @@
       <c r="N274" s="18"/>
       <c r="O274" s="20"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="25"/>
       <c r="B275" s="18"/>
       <c r="C275" s="19"/>
@@ -9304,7 +9383,7 @@
       <c r="N275" s="18"/>
       <c r="O275" s="20"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="25"/>
       <c r="B276" s="18"/>
       <c r="C276" s="19"/>
@@ -9321,7 +9400,7 @@
       <c r="N276" s="18"/>
       <c r="O276" s="20"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="21"/>
       <c r="B277" s="22"/>
       <c r="C277" s="23"/>
@@ -9338,7 +9417,7 @@
       <c r="N277" s="22"/>
       <c r="O277" s="17"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="21"/>
       <c r="B278" s="22"/>
       <c r="C278" s="23"/>
@@ -9355,7 +9434,7 @@
       <c r="N278" s="22"/>
       <c r="O278" s="17"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="25"/>
       <c r="B279" s="18"/>
       <c r="C279" s="19"/>
@@ -9372,7 +9451,7 @@
       <c r="N279" s="18"/>
       <c r="O279" s="20"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="25"/>
       <c r="B280" s="18"/>
       <c r="C280" s="19"/>
@@ -9389,7 +9468,7 @@
       <c r="N280" s="18"/>
       <c r="O280" s="20"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="25"/>
       <c r="B281" s="18"/>
       <c r="C281" s="19"/>
@@ -9406,7 +9485,7 @@
       <c r="N281" s="18"/>
       <c r="O281" s="20"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="25"/>
       <c r="B282" s="18"/>
       <c r="C282" s="19"/>
@@ -9423,7 +9502,7 @@
       <c r="N282" s="18"/>
       <c r="O282" s="20"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="25"/>
       <c r="B283" s="18"/>
       <c r="C283" s="19"/>
@@ -9440,7 +9519,7 @@
       <c r="N283" s="18"/>
       <c r="O283" s="20"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="21"/>
       <c r="B284" s="22"/>
       <c r="C284" s="23"/>
@@ -9457,7 +9536,7 @@
       <c r="N284" s="22"/>
       <c r="O284" s="17"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="21"/>
       <c r="B285" s="22"/>
       <c r="C285" s="23"/>
@@ -9474,7 +9553,7 @@
       <c r="N285" s="22"/>
       <c r="O285" s="17"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="25"/>
       <c r="B286" s="18"/>
       <c r="C286" s="19"/>
@@ -9491,7 +9570,7 @@
       <c r="N286" s="18"/>
       <c r="O286" s="20"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="25"/>
       <c r="B287" s="18"/>
       <c r="C287" s="19"/>
@@ -9508,7 +9587,7 @@
       <c r="N287" s="18"/>
       <c r="O287" s="20"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="25"/>
       <c r="B288" s="18"/>
       <c r="C288" s="19"/>
@@ -9525,7 +9604,7 @@
       <c r="N288" s="18"/>
       <c r="O288" s="20"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="25"/>
       <c r="B289" s="18"/>
       <c r="C289" s="19"/>
@@ -9542,7 +9621,7 @@
       <c r="N289" s="18"/>
       <c r="O289" s="20"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="25"/>
       <c r="B290" s="18"/>
       <c r="C290" s="19"/>
@@ -9559,7 +9638,7 @@
       <c r="N290" s="18"/>
       <c r="O290" s="20"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="21"/>
       <c r="B291" s="22"/>
       <c r="C291" s="23"/>
@@ -9576,7 +9655,7 @@
       <c r="N291" s="22"/>
       <c r="O291" s="17"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="21"/>
       <c r="B292" s="22"/>
       <c r="C292" s="23"/>
@@ -9593,7 +9672,7 @@
       <c r="N292" s="22"/>
       <c r="O292" s="17"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="25"/>
       <c r="B293" s="18"/>
       <c r="C293" s="19"/>
@@ -9610,7 +9689,7 @@
       <c r="N293" s="18"/>
       <c r="O293" s="20"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="25"/>
       <c r="B294" s="18"/>
       <c r="C294" s="19"/>
@@ -9627,7 +9706,7 @@
       <c r="N294" s="18"/>
       <c r="O294" s="20"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="25"/>
       <c r="B295" s="18"/>
       <c r="C295" s="19"/>
@@ -9644,7 +9723,7 @@
       <c r="N295" s="18"/>
       <c r="O295" s="20"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="25"/>
       <c r="B296" s="18"/>
       <c r="C296" s="19"/>
@@ -9661,7 +9740,7 @@
       <c r="N296" s="18"/>
       <c r="O296" s="20"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="25"/>
       <c r="B297" s="18"/>
       <c r="C297" s="19"/>
@@ -9678,7 +9757,7 @@
       <c r="N297" s="18"/>
       <c r="O297" s="20"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="21"/>
       <c r="B298" s="22"/>
       <c r="C298" s="23"/>
@@ -9695,7 +9774,7 @@
       <c r="N298" s="22"/>
       <c r="O298" s="17"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="21"/>
       <c r="B299" s="22"/>
       <c r="C299" s="23"/>
@@ -9712,7 +9791,7 @@
       <c r="N299" s="22"/>
       <c r="O299" s="17"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="25"/>
       <c r="B300" s="18"/>
       <c r="C300" s="19"/>
@@ -9729,7 +9808,7 @@
       <c r="N300" s="18"/>
       <c r="O300" s="20"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="25"/>
       <c r="B301" s="18"/>
       <c r="C301" s="19"/>
@@ -9746,7 +9825,7 @@
       <c r="N301" s="18"/>
       <c r="O301" s="20"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="25"/>
       <c r="B302" s="18"/>
       <c r="C302" s="19"/>
@@ -9763,7 +9842,7 @@
       <c r="N302" s="18"/>
       <c r="O302" s="20"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="25"/>
       <c r="B303" s="18"/>
       <c r="C303" s="19"/>
@@ -9780,7 +9859,7 @@
       <c r="N303" s="18"/>
       <c r="O303" s="20"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="25"/>
       <c r="B304" s="18"/>
       <c r="C304" s="19"/>
@@ -9797,7 +9876,7 @@
       <c r="N304" s="18"/>
       <c r="O304" s="20"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="21"/>
       <c r="B305" s="22"/>
       <c r="C305" s="23"/>
@@ -9814,7 +9893,7 @@
       <c r="N305" s="22"/>
       <c r="O305" s="17"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="21"/>
       <c r="B306" s="22"/>
       <c r="C306" s="23"/>
@@ -9831,7 +9910,7 @@
       <c r="N306" s="22"/>
       <c r="O306" s="17"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="25"/>
       <c r="B307" s="18"/>
       <c r="C307" s="19"/>
@@ -9848,7 +9927,7 @@
       <c r="N307" s="18"/>
       <c r="O307" s="20"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="25"/>
       <c r="B308" s="18"/>
       <c r="C308" s="19"/>
@@ -9865,7 +9944,7 @@
       <c r="N308" s="18"/>
       <c r="O308" s="20"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="25"/>
       <c r="B309" s="18"/>
       <c r="C309" s="19"/>
@@ -9882,7 +9961,7 @@
       <c r="N309" s="18"/>
       <c r="O309" s="20"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="25"/>
       <c r="B310" s="18"/>
       <c r="C310" s="19"/>
@@ -9899,7 +9978,7 @@
       <c r="N310" s="18"/>
       <c r="O310" s="20"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="25"/>
       <c r="B311" s="18"/>
       <c r="C311" s="19"/>
@@ -9916,7 +9995,7 @@
       <c r="N311" s="18"/>
       <c r="O311" s="20"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="21"/>
       <c r="B312" s="22"/>
       <c r="C312" s="23"/>
@@ -9933,7 +10012,7 @@
       <c r="N312" s="22"/>
       <c r="O312" s="17"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="21"/>
       <c r="B313" s="22"/>
       <c r="C313" s="23"/>
@@ -9950,7 +10029,7 @@
       <c r="N313" s="22"/>
       <c r="O313" s="17"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="25"/>
       <c r="B314" s="18"/>
       <c r="C314" s="19"/>
@@ -9967,7 +10046,7 @@
       <c r="N314" s="18"/>
       <c r="O314" s="20"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="25"/>
       <c r="B315" s="18"/>
       <c r="C315" s="19"/>
@@ -9984,7 +10063,7 @@
       <c r="N315" s="18"/>
       <c r="O315" s="20"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="25"/>
       <c r="B316" s="18"/>
       <c r="C316" s="19"/>
@@ -10001,7 +10080,7 @@
       <c r="N316" s="18"/>
       <c r="O316" s="20"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="25"/>
       <c r="B317" s="18"/>
       <c r="C317" s="19"/>
@@ -10018,7 +10097,7 @@
       <c r="N317" s="18"/>
       <c r="O317" s="20"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="25"/>
       <c r="B318" s="18"/>
       <c r="C318" s="19"/>
@@ -10035,7 +10114,7 @@
       <c r="N318" s="18"/>
       <c r="O318" s="20"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="21"/>
       <c r="B319" s="22"/>
       <c r="C319" s="23"/>
@@ -10052,7 +10131,7 @@
       <c r="N319" s="22"/>
       <c r="O319" s="17"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="21"/>
       <c r="B320" s="22"/>
       <c r="C320" s="23"/>
@@ -10069,7 +10148,7 @@
       <c r="N320" s="22"/>
       <c r="O320" s="17"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="25"/>
       <c r="B321" s="18"/>
       <c r="C321" s="19"/>
@@ -10086,7 +10165,7 @@
       <c r="N321" s="18"/>
       <c r="O321" s="20"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="25"/>
       <c r="B322" s="18"/>
       <c r="C322" s="19"/>
@@ -10103,7 +10182,7 @@
       <c r="N322" s="18"/>
       <c r="O322" s="20"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="25"/>
       <c r="B323" s="18"/>
       <c r="C323" s="19"/>
@@ -10120,7 +10199,7 @@
       <c r="N323" s="18"/>
       <c r="O323" s="20"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="25"/>
       <c r="B324" s="18"/>
       <c r="C324" s="19"/>
@@ -10137,7 +10216,7 @@
       <c r="N324" s="18"/>
       <c r="O324" s="20"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="25"/>
       <c r="B325" s="18"/>
       <c r="C325" s="19"/>
@@ -10154,7 +10233,7 @@
       <c r="N325" s="18"/>
       <c r="O325" s="20"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="21"/>
       <c r="B326" s="22"/>
       <c r="C326" s="23"/>
@@ -10171,7 +10250,7 @@
       <c r="N326" s="22"/>
       <c r="O326" s="17"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="21"/>
       <c r="B327" s="22"/>
       <c r="C327" s="23"/>
@@ -10188,7 +10267,7 @@
       <c r="N327" s="22"/>
       <c r="O327" s="17"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="25"/>
       <c r="B328" s="18"/>
       <c r="C328" s="19"/>
@@ -10205,7 +10284,7 @@
       <c r="N328" s="18"/>
       <c r="O328" s="20"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="25"/>
       <c r="B329" s="18"/>
       <c r="C329" s="19"/>
@@ -10222,7 +10301,7 @@
       <c r="N329" s="18"/>
       <c r="O329" s="20"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="25"/>
       <c r="B330" s="18"/>
       <c r="C330" s="19"/>
@@ -10239,7 +10318,7 @@
       <c r="N330" s="18"/>
       <c r="O330" s="20"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="25"/>
       <c r="B331" s="18"/>
       <c r="C331" s="19"/>
@@ -10256,7 +10335,7 @@
       <c r="N331" s="18"/>
       <c r="O331" s="20"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="25"/>
       <c r="B332" s="18"/>
       <c r="C332" s="19"/>
@@ -10273,7 +10352,7 @@
       <c r="N332" s="18"/>
       <c r="O332" s="20"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="21"/>
       <c r="B333" s="22"/>
       <c r="C333" s="23"/>
@@ -10290,7 +10369,7 @@
       <c r="N333" s="22"/>
       <c r="O333" s="17"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="21"/>
       <c r="B334" s="22"/>
       <c r="C334" s="23"/>
@@ -10307,7 +10386,7 @@
       <c r="N334" s="22"/>
       <c r="O334" s="17"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="25"/>
       <c r="B335" s="18"/>
       <c r="C335" s="19"/>
@@ -10324,7 +10403,7 @@
       <c r="N335" s="18"/>
       <c r="O335" s="20"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="25"/>
       <c r="B336" s="18"/>
       <c r="C336" s="19"/>
@@ -10341,7 +10420,7 @@
       <c r="N336" s="18"/>
       <c r="O336" s="20"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="25"/>
       <c r="B337" s="18"/>
       <c r="C337" s="19"/>
@@ -10358,7 +10437,7 @@
       <c r="N337" s="18"/>
       <c r="O337" s="20"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="25"/>
       <c r="B338" s="18"/>
       <c r="C338" s="19"/>
@@ -10375,7 +10454,7 @@
       <c r="N338" s="18"/>
       <c r="O338" s="20"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="25"/>
       <c r="B339" s="18"/>
       <c r="C339" s="19"/>
@@ -10392,7 +10471,7 @@
       <c r="N339" s="18"/>
       <c r="O339" s="20"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="21"/>
       <c r="B340" s="22"/>
       <c r="C340" s="23"/>
@@ -10409,7 +10488,7 @@
       <c r="N340" s="22"/>
       <c r="O340" s="17"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="21"/>
       <c r="B341" s="22"/>
       <c r="C341" s="23"/>
@@ -10426,7 +10505,7 @@
       <c r="N341" s="22"/>
       <c r="O341" s="17"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="25"/>
       <c r="B342" s="18"/>
       <c r="C342" s="19"/>
@@ -10443,7 +10522,7 @@
       <c r="N342" s="18"/>
       <c r="O342" s="20"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="25"/>
       <c r="B343" s="18"/>
       <c r="C343" s="19"/>
@@ -10460,7 +10539,7 @@
       <c r="N343" s="18"/>
       <c r="O343" s="20"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="25"/>
       <c r="B344" s="18"/>
       <c r="C344" s="19"/>
@@ -10477,7 +10556,7 @@
       <c r="N344" s="18"/>
       <c r="O344" s="20"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="25"/>
       <c r="B345" s="18"/>
       <c r="C345" s="19"/>
@@ -10494,7 +10573,7 @@
       <c r="N345" s="18"/>
       <c r="O345" s="20"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="25"/>
       <c r="B346" s="18"/>
       <c r="C346" s="19"/>
@@ -10511,7 +10590,7 @@
       <c r="N346" s="18"/>
       <c r="O346" s="20"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="21"/>
       <c r="B347" s="22"/>
       <c r="C347" s="23"/>
@@ -10528,7 +10607,7 @@
       <c r="N347" s="22"/>
       <c r="O347" s="17"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="21"/>
       <c r="B348" s="22"/>
       <c r="C348" s="23"/>
@@ -10545,7 +10624,7 @@
       <c r="N348" s="22"/>
       <c r="O348" s="17"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="25"/>
       <c r="B349" s="18"/>
       <c r="C349" s="19"/>
@@ -10562,7 +10641,7 @@
       <c r="N349" s="18"/>
       <c r="O349" s="20"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="25"/>
       <c r="B350" s="18"/>
       <c r="C350" s="19"/>
@@ -10579,7 +10658,7 @@
       <c r="N350" s="18"/>
       <c r="O350" s="20"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="25"/>
       <c r="B351" s="18"/>
       <c r="C351" s="19"/>
@@ -10596,7 +10675,7 @@
       <c r="N351" s="18"/>
       <c r="O351" s="20"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="25"/>
       <c r="B352" s="18"/>
       <c r="C352" s="19"/>
@@ -10613,7 +10692,7 @@
       <c r="N352" s="18"/>
       <c r="O352" s="20"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="25"/>
       <c r="B353" s="18"/>
       <c r="C353" s="19"/>
@@ -10630,7 +10709,7 @@
       <c r="N353" s="18"/>
       <c r="O353" s="20"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="21"/>
       <c r="B354" s="22"/>
       <c r="C354" s="23"/>
@@ -10647,7 +10726,7 @@
       <c r="N354" s="22"/>
       <c r="O354" s="17"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="21"/>
       <c r="B355" s="22"/>
       <c r="C355" s="23"/>
@@ -10664,7 +10743,7 @@
       <c r="N355" s="22"/>
       <c r="O355" s="17"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="25"/>
       <c r="B356" s="18"/>
       <c r="C356" s="19"/>
@@ -10681,7 +10760,7 @@
       <c r="N356" s="18"/>
       <c r="O356" s="20"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="25"/>
       <c r="B357" s="18"/>
       <c r="C357" s="19"/>
@@ -10698,7 +10777,7 @@
       <c r="N357" s="18"/>
       <c r="O357" s="20"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="25"/>
       <c r="B358" s="18"/>
       <c r="C358" s="19"/>
@@ -10715,7 +10794,7 @@
       <c r="N358" s="18"/>
       <c r="O358" s="20"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="25"/>
       <c r="B359" s="18"/>
       <c r="C359" s="19"/>
@@ -10732,7 +10811,7 @@
       <c r="N359" s="18"/>
       <c r="O359" s="20"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="25"/>
       <c r="B360" s="18"/>
       <c r="C360" s="19"/>
@@ -10749,7 +10828,7 @@
       <c r="N360" s="18"/>
       <c r="O360" s="20"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="21"/>
       <c r="B361" s="22"/>
       <c r="C361" s="23"/>
@@ -10766,7 +10845,7 @@
       <c r="N361" s="22"/>
       <c r="O361" s="17"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="21"/>
       <c r="B362" s="22"/>
       <c r="C362" s="23"/>
@@ -10783,7 +10862,7 @@
       <c r="N362" s="22"/>
       <c r="O362" s="17"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="25"/>
       <c r="B363" s="18"/>
       <c r="C363" s="19"/>
@@ -10800,7 +10879,7 @@
       <c r="N363" s="18"/>
       <c r="O363" s="20"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="25"/>
       <c r="B364" s="18"/>
       <c r="C364" s="19"/>
@@ -10817,7 +10896,7 @@
       <c r="N364" s="18"/>
       <c r="O364" s="20"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="25"/>
       <c r="B365" s="18"/>
       <c r="C365" s="19"/>
@@ -10834,7 +10913,7 @@
       <c r="N365" s="18"/>
       <c r="O365" s="20"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="25"/>
       <c r="B366" s="18"/>
       <c r="C366" s="19"/>
@@ -10887,13 +10966,13 @@
       <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="13" width="5.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="13" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="39" t="s">
         <v>4</v>
@@ -10916,7 +10995,7 @@
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -10955,60 +11034,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="3">
         <f>AVERAGE('ежедневные данные'!B2:B8)</f>
-        <v>130.5</v>
+        <v>130.33333333333334</v>
       </c>
       <c r="C4" s="3">
         <f>AVERAGE('ежедневные данные'!C2:C8)</f>
-        <v>83.5</v>
+        <v>81.666666666666671</v>
       </c>
       <c r="D4" s="3">
         <f>AVERAGE('ежедневные данные'!D2:D8)</f>
-        <v>80</v>
+        <v>78.333333333333329</v>
       </c>
       <c r="E4" s="3">
         <f>AVERAGE('ежедневные данные'!E2:E8)</f>
-        <v>129.25</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="F4" s="3">
         <f>AVERAGE('ежедневные данные'!F2:F8)</f>
-        <v>87.25</v>
+        <v>85.4</v>
       </c>
       <c r="G4" s="3">
         <f>AVERAGE('ежедневные данные'!G2:G8)</f>
-        <v>97.5</v>
+        <v>95.6</v>
       </c>
       <c r="H4" s="3">
         <f>AVERAGE('ежедневные данные'!H2:H8)</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I4" s="3">
         <f>AVERAGE('ежедневные данные'!I2:I8)</f>
-        <v>85</v>
+        <v>83.25</v>
       </c>
       <c r="J4" s="3">
         <f>AVERAGE('ежедневные данные'!J2:J8)</f>
-        <v>94</v>
+        <v>102.25</v>
       </c>
       <c r="K4" s="3">
         <f>AVERAGE('ежедневные данные'!K2:K8)</f>
-        <v>127.66666666666667</v>
+        <v>127.4</v>
       </c>
       <c r="L4" s="3">
         <f>AVERAGE('ежедневные данные'!L2:L8)</f>
-        <v>85.666666666666671</v>
+        <v>82.8</v>
       </c>
       <c r="M4" s="3">
         <f>AVERAGE('ежедневные данные'!M2:M8)</f>
-        <v>103.33333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -11061,7 +11140,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -11114,7 +11193,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -11167,7 +11246,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -11220,7 +11299,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -11273,7 +11352,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -11326,7 +11405,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -11379,7 +11458,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
@@ -11432,7 +11511,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
@@ -11485,7 +11564,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
@@ -11538,7 +11617,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>31</v>
       </c>
@@ -11591,7 +11670,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
@@ -11644,7 +11723,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
@@ -11697,7 +11776,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
@@ -11750,7 +11829,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
@@ -11803,7 +11882,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
@@ -11856,7 +11935,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>37</v>
       </c>
@@ -11909,7 +11988,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
@@ -11962,7 +12041,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>39</v>
       </c>
@@ -12015,7 +12094,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>40</v>
       </c>
@@ -12068,7 +12147,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>41</v>
       </c>
@@ -12121,7 +12200,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>42</v>
       </c>
@@ -12174,7 +12253,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
@@ -12227,7 +12306,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>44</v>
       </c>
@@ -12280,7 +12359,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>45</v>
       </c>
@@ -12333,7 +12412,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>46</v>
       </c>
@@ -12386,7 +12465,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>47</v>
       </c>
@@ -12439,7 +12518,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>48</v>
       </c>
@@ -12492,7 +12571,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>49</v>
       </c>
@@ -12545,7 +12624,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>50</v>
       </c>
@@ -12598,7 +12677,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>51</v>
       </c>
@@ -12651,7 +12730,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>52</v>
       </c>
@@ -12704,7 +12783,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>53</v>
       </c>
@@ -12757,7 +12836,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>54</v>
       </c>
@@ -12810,7 +12889,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>55</v>
       </c>
@@ -12863,7 +12942,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>56</v>
       </c>
@@ -12916,7 +12995,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>57</v>
       </c>
@@ -12969,7 +13048,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>58</v>
       </c>
@@ -13022,7 +13101,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>59</v>
       </c>
@@ -13075,7 +13154,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -13128,7 +13207,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -13181,7 +13260,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -13234,7 +13313,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -13287,7 +13366,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
@@ -13340,7 +13419,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -13393,7 +13472,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -13446,7 +13525,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -13499,7 +13578,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
@@ -13552,7 +13631,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
@@ -13605,7 +13684,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
@@ -13658,7 +13737,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
@@ -13732,15 +13811,15 @@
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="14" width="5.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="14" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="1"/>
       <c r="C2" s="40" t="s">
@@ -13764,7 +13843,7 @@
       <c r="M2" s="41"/>
       <c r="N2" s="42"/>
     </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="11" t="s">
@@ -13804,7 +13883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>42005</v>
       </c>
@@ -13813,54 +13892,54 @@
       </c>
       <c r="C4" s="12">
         <f>AVERAGE('ежедневные данные'!B2:B15)</f>
-        <v>130.5</v>
+        <v>130.33333333333334</v>
       </c>
       <c r="D4" s="12">
         <f>AVERAGE('ежедневные данные'!C2:C15)</f>
-        <v>83.5</v>
+        <v>81.666666666666671</v>
       </c>
       <c r="E4" s="12">
         <f>AVERAGE('ежедневные данные'!D2:D15)</f>
-        <v>80</v>
+        <v>78.333333333333329</v>
       </c>
       <c r="F4" s="12">
         <f>AVERAGE('ежедневные данные'!E2:E15)</f>
-        <v>129.25</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="G4" s="12">
         <f>AVERAGE('ежедневные данные'!F2:F15)</f>
-        <v>87.25</v>
+        <v>85.4</v>
       </c>
       <c r="H4" s="12">
         <f>AVERAGE('ежедневные данные'!G2:G15)</f>
-        <v>97.5</v>
+        <v>95.6</v>
       </c>
       <c r="I4" s="12">
         <f>AVERAGE('ежедневные данные'!H2:H15)</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J4" s="12">
         <f>AVERAGE('ежедневные данные'!I2:I15)</f>
-        <v>85</v>
+        <v>83.25</v>
       </c>
       <c r="K4" s="12">
         <f>AVERAGE('ежедневные данные'!J2:J15)</f>
-        <v>94</v>
+        <v>102.25</v>
       </c>
       <c r="L4" s="12">
         <f>AVERAGE('ежедневные данные'!K2:K15)</f>
-        <v>127.66666666666667</v>
+        <v>127.4</v>
       </c>
       <c r="M4" s="12">
         <f>AVERAGE('ежедневные данные'!L2:L15)</f>
-        <v>85.666666666666671</v>
+        <v>82.8</v>
       </c>
       <c r="N4" s="12">
         <f>AVERAGE('ежедневные данные'!M2:M15)</f>
-        <v>103.33333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>42019</v>
       </c>
@@ -13916,7 +13995,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>42033</v>
       </c>
@@ -14028,7 +14107,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>42061</v>
       </c>
@@ -14084,7 +14163,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>42075</v>
       </c>
@@ -14140,7 +14219,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>42089</v>
       </c>
@@ -14252,7 +14331,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>42117</v>
       </c>
@@ -14308,7 +14387,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>42131</v>
       </c>
@@ -14364,7 +14443,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>42145</v>
       </c>
@@ -14476,7 +14555,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>42173</v>
       </c>
@@ -14532,7 +14611,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>42187</v>
       </c>
@@ -14588,7 +14667,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>42201</v>
       </c>
@@ -14700,7 +14779,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>42229</v>
       </c>
@@ -14756,7 +14835,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>42243</v>
       </c>
@@ -14812,7 +14891,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>42257</v>
       </c>
@@ -14924,7 +15003,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>42285</v>
       </c>
@@ -14980,7 +15059,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>42299</v>
       </c>
@@ -15036,7 +15115,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>42313</v>
       </c>
@@ -15148,7 +15227,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>42341</v>
       </c>
@@ -15204,7 +15283,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>42355</v>
       </c>

--- a/dnevnik.xlsx
+++ b/dnevnik.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pro\AdDiary\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7992" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные пациента" sheetId="4" r:id="rId1"/>
@@ -20,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'ежедневные данные'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -30,7 +25,7 @@
     <author>пользователь</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -609,7 +604,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
@@ -1012,7 +1007,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1166,7 +1161,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>130.33333333333334</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1247,7 +1242,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9890-4D3C-AADF-64EFFDFD616C}"/>
             </c:ext>
@@ -1356,7 +1351,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>81.666666666666671</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1437,7 +1432,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9890-4D3C-AADF-64EFFDFD616C}"/>
             </c:ext>
@@ -1546,7 +1541,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>78.333333333333329</c:v>
+                  <c:v>79.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1627,7 +1622,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9890-4D3C-AADF-64EFFDFD616C}"/>
             </c:ext>
@@ -1641,12 +1636,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41643008"/>
-        <c:axId val="41657088"/>
+        <c:axId val="48000000"/>
+        <c:axId val="48014080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="41643008"/>
+        <c:axId val="48000000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,7 +1678,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41657088"/>
+        <c:crossAx val="48014080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -1693,7 +1689,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="41657088"/>
+        <c:axId val="48014080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -1717,7 +1713,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41643008"/>
+        <c:crossAx val="48000000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1750,7 +1746,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1914,7 +1910,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>128.80000000000001</c:v>
+                  <c:v>130.16666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1995,7 +1991,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D1C6-4AFC-BBDF-E1DF060B2297}"/>
             </c:ext>
@@ -2104,7 +2100,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>85.4</c:v>
+                  <c:v>84.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2185,7 +2181,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D1C6-4AFC-BBDF-E1DF060B2297}"/>
             </c:ext>
@@ -2294,7 +2290,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>95.6</c:v>
+                  <c:v>95.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2375,7 +2371,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D1C6-4AFC-BBDF-E1DF060B2297}"/>
             </c:ext>
@@ -2389,12 +2385,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50736512"/>
-        <c:axId val="50750592"/>
+        <c:axId val="50539904"/>
+        <c:axId val="50553984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="50736512"/>
+        <c:axId val="50539904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2430,7 +2427,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50750592"/>
+        <c:crossAx val="50553984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -2441,7 +2438,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="50750592"/>
+        <c:axId val="50553984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -2465,7 +2462,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50736512"/>
+        <c:crossAx val="50539904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -2500,7 +2497,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2664,7 +2661,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>127.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2745,7 +2742,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0CB7-48F1-9021-986975C81594}"/>
             </c:ext>
@@ -2854,7 +2851,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>83.25</c:v>
+                  <c:v>82.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2935,7 +2932,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0CB7-48F1-9021-986975C81594}"/>
             </c:ext>
@@ -3044,7 +3041,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>102.25</c:v>
+                  <c:v>100.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3125,7 +3122,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0CB7-48F1-9021-986975C81594}"/>
             </c:ext>
@@ -3139,12 +3136,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50786304"/>
-        <c:axId val="50787840"/>
+        <c:axId val="50589696"/>
+        <c:axId val="50591232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="50786304"/>
+        <c:axId val="50589696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3180,7 +3178,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50787840"/>
+        <c:crossAx val="50591232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -3191,7 +3189,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="50787840"/>
+        <c:axId val="50591232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3215,7 +3213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50786304"/>
+        <c:crossAx val="50589696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -3250,7 +3248,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3404,7 +3402,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>127.4</c:v>
+                  <c:v>126.16666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3485,7 +3483,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F7E4-45AA-BAA6-4706AC119451}"/>
             </c:ext>
@@ -3594,7 +3592,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>82.8</c:v>
+                  <c:v>82.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3675,7 +3673,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F7E4-45AA-BAA6-4706AC119451}"/>
             </c:ext>
@@ -3784,7 +3782,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>100.6</c:v>
+                  <c:v>99.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3865,7 +3863,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F7E4-45AA-BAA6-4706AC119451}"/>
             </c:ext>
@@ -3879,12 +3877,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50565504"/>
-        <c:axId val="50567040"/>
+        <c:axId val="50370432"/>
+        <c:axId val="50371968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="50565504"/>
+        <c:axId val="50370432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3920,7 +3919,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50567040"/>
+        <c:crossAx val="50371968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -3931,7 +3930,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="50567040"/>
+        <c:axId val="50371968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -3955,7 +3954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50565504"/>
+        <c:crossAx val="50370432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -4009,7 +4008,7 @@
         <xdr:cNvPr id="2049" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4047,7 +4046,7 @@
         <xdr:cNvPr id="2050" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4085,7 +4084,7 @@
         <xdr:cNvPr id="2051" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4123,7 +4122,7 @@
         <xdr:cNvPr id="2052" name="Диаграмма 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4189,7 +4188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4222,26 +4221,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4274,23 +4256,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -4473,9 +4438,9 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -4491,7 +4456,7 @@
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
@@ -4507,7 +4472,7 @@
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
@@ -4550,19 +4515,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="5.7109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" style="24" customWidth="1"/>
+    <col min="2" max="13" width="5.6640625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" style="24" customWidth="1"/>
     <col min="15" max="15" width="32" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="24"/>
+    <col min="16" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -4593,7 +4558,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="25">
         <v>43158</v>
       </c>
@@ -4628,7 +4593,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="25">
         <v>43159</v>
       </c>
@@ -4669,7 +4634,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>43160</v>
       </c>
@@ -4716,7 +4681,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>43161</v>
       </c>
@@ -4763,7 +4728,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>43162</v>
       </c>
@@ -4810,28 +4775,62 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="20"/>
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>43163</v>
+      </c>
+      <c r="B7" s="18">
+        <v>139</v>
+      </c>
+      <c r="C7" s="19">
+        <v>86</v>
+      </c>
+      <c r="D7" s="20">
+        <v>77</v>
+      </c>
+      <c r="E7" s="18">
+        <v>137</v>
+      </c>
+      <c r="F7" s="19">
+        <v>80</v>
+      </c>
+      <c r="G7" s="20">
+        <v>93</v>
+      </c>
+      <c r="H7" s="18">
+        <v>125</v>
+      </c>
+      <c r="I7" s="19">
+        <v>78</v>
+      </c>
+      <c r="J7" s="20">
+        <v>93</v>
+      </c>
+      <c r="K7" s="18">
+        <v>120</v>
+      </c>
+      <c r="L7" s="19">
+        <v>80</v>
+      </c>
+      <c r="M7" s="20">
+        <v>95</v>
+      </c>
       <c r="N7" s="18"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>43164</v>
+      </c>
+      <c r="B8" s="18">
+        <v>125</v>
+      </c>
+      <c r="C8" s="19">
+        <v>79</v>
+      </c>
+      <c r="D8" s="20">
+        <v>87</v>
+      </c>
       <c r="E8" s="18"/>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
@@ -4844,7 +4843,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
@@ -4861,7 +4860,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
@@ -4878,7 +4877,7 @@
       <c r="N10" s="18"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
@@ -4895,7 +4894,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
@@ -4912,7 +4911,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
@@ -4929,7 +4928,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
@@ -4946,7 +4945,7 @@
       <c r="N14" s="18"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
@@ -4963,7 +4962,7 @@
       <c r="N15" s="18"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
@@ -4980,7 +4979,7 @@
       <c r="N16" s="18"/>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
@@ -4997,7 +4996,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="20"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
@@ -5014,7 +5013,7 @@
       <c r="N18" s="22"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
@@ -5031,7 +5030,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -5048,7 +5047,7 @@
       <c r="N20" s="18"/>
       <c r="O20" s="20"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -5065,7 +5064,7 @@
       <c r="N21" s="18"/>
       <c r="O21" s="20"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -5082,7 +5081,7 @@
       <c r="N22" s="18"/>
       <c r="O22" s="20"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -5099,7 +5098,7 @@
       <c r="N23" s="18"/>
       <c r="O23" s="20"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -5116,7 +5115,7 @@
       <c r="N24" s="18"/>
       <c r="O24" s="20"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -5133,7 +5132,7 @@
       <c r="N25" s="22"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
@@ -5150,7 +5149,7 @@
       <c r="N26" s="22"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
@@ -5167,7 +5166,7 @@
       <c r="N27" s="18"/>
       <c r="O27" s="20"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -5184,7 +5183,7 @@
       <c r="N28" s="18"/>
       <c r="O28" s="20"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
@@ -5201,7 +5200,7 @@
       <c r="N29" s="18"/>
       <c r="O29" s="20"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
@@ -5218,7 +5217,7 @@
       <c r="N30" s="18"/>
       <c r="O30" s="20"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
@@ -5235,7 +5234,7 @@
       <c r="N31" s="18"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
@@ -5252,7 +5251,7 @@
       <c r="N32" s="22"/>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
@@ -5269,7 +5268,7 @@
       <c r="N33" s="22"/>
       <c r="O33" s="17"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -5286,7 +5285,7 @@
       <c r="N34" s="18"/>
       <c r="O34" s="20"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
@@ -5303,7 +5302,7 @@
       <c r="N35" s="18"/>
       <c r="O35" s="20"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
@@ -5320,7 +5319,7 @@
       <c r="N36" s="18"/>
       <c r="O36" s="20"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
@@ -5337,7 +5336,7 @@
       <c r="N37" s="18"/>
       <c r="O37" s="20"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="25"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
@@ -5354,7 +5353,7 @@
       <c r="N38" s="18"/>
       <c r="O38" s="20"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="23"/>
@@ -5371,7 +5370,7 @@
       <c r="N39" s="22"/>
       <c r="O39" s="17"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="23"/>
@@ -5388,7 +5387,7 @@
       <c r="N40" s="22"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
@@ -5405,7 +5404,7 @@
       <c r="N41" s="18"/>
       <c r="O41" s="20"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -5422,7 +5421,7 @@
       <c r="N42" s="18"/>
       <c r="O42" s="20"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="25"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
@@ -5439,7 +5438,7 @@
       <c r="N43" s="18"/>
       <c r="O43" s="20"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="25"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -5456,7 +5455,7 @@
       <c r="N44" s="18"/>
       <c r="O44" s="20"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
@@ -5473,7 +5472,7 @@
       <c r="N45" s="18"/>
       <c r="O45" s="20"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="23"/>
@@ -5490,7 +5489,7 @@
       <c r="N46" s="22"/>
       <c r="O46" s="17"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="23"/>
@@ -5507,7 +5506,7 @@
       <c r="N47" s="22"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
@@ -5524,7 +5523,7 @@
       <c r="N48" s="18"/>
       <c r="O48" s="20"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
@@ -5541,7 +5540,7 @@
       <c r="N49" s="18"/>
       <c r="O49" s="20"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="25"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
@@ -5558,7 +5557,7 @@
       <c r="N50" s="18"/>
       <c r="O50" s="20"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
@@ -5575,7 +5574,7 @@
       <c r="N51" s="18"/>
       <c r="O51" s="20"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
@@ -5592,7 +5591,7 @@
       <c r="N52" s="18"/>
       <c r="O52" s="20"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="23"/>
@@ -5609,7 +5608,7 @@
       <c r="N53" s="22"/>
       <c r="O53" s="17"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="23"/>
@@ -5626,7 +5625,7 @@
       <c r="N54" s="22"/>
       <c r="O54" s="17"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
@@ -5643,7 +5642,7 @@
       <c r="N55" s="18"/>
       <c r="O55" s="20"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
@@ -5660,7 +5659,7 @@
       <c r="N56" s="18"/>
       <c r="O56" s="20"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="25"/>
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
@@ -5677,7 +5676,7 @@
       <c r="N57" s="18"/>
       <c r="O57" s="20"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="25"/>
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
@@ -5694,7 +5693,7 @@
       <c r="N58" s="18"/>
       <c r="O58" s="20"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="25"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
@@ -5711,7 +5710,7 @@
       <c r="N59" s="18"/>
       <c r="O59" s="20"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="23"/>
@@ -5728,7 +5727,7 @@
       <c r="N60" s="22"/>
       <c r="O60" s="17"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="23"/>
@@ -5745,7 +5744,7 @@
       <c r="N61" s="22"/>
       <c r="O61" s="17"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="25"/>
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
@@ -5762,7 +5761,7 @@
       <c r="N62" s="18"/>
       <c r="O62" s="20"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="25"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
@@ -5779,7 +5778,7 @@
       <c r="N63" s="18"/>
       <c r="O63" s="20"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="25"/>
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
@@ -5796,7 +5795,7 @@
       <c r="N64" s="18"/>
       <c r="O64" s="20"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="25"/>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
@@ -5813,7 +5812,7 @@
       <c r="N65" s="18"/>
       <c r="O65" s="20"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="25"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
@@ -5830,7 +5829,7 @@
       <c r="N66" s="18"/>
       <c r="O66" s="20"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="23"/>
@@ -5847,7 +5846,7 @@
       <c r="N67" s="22"/>
       <c r="O67" s="17"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="23"/>
@@ -5864,7 +5863,7 @@
       <c r="N68" s="22"/>
       <c r="O68" s="17"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="25"/>
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
@@ -5881,7 +5880,7 @@
       <c r="N69" s="18"/>
       <c r="O69" s="20"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="25"/>
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
@@ -5898,7 +5897,7 @@
       <c r="N70" s="18"/>
       <c r="O70" s="20"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="25"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
@@ -5915,7 +5914,7 @@
       <c r="N71" s="18"/>
       <c r="O71" s="20"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="25"/>
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
@@ -5932,7 +5931,7 @@
       <c r="N72" s="18"/>
       <c r="O72" s="20"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="25"/>
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
@@ -5949,7 +5948,7 @@
       <c r="N73" s="18"/>
       <c r="O73" s="20"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="23"/>
@@ -5966,7 +5965,7 @@
       <c r="N74" s="22"/>
       <c r="O74" s="17"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="23"/>
@@ -5983,7 +5982,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="17"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="25"/>
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
@@ -6000,7 +5999,7 @@
       <c r="N76" s="18"/>
       <c r="O76" s="20"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="25"/>
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
@@ -6017,7 +6016,7 @@
       <c r="N77" s="18"/>
       <c r="O77" s="20"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="25"/>
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
@@ -6034,7 +6033,7 @@
       <c r="N78" s="18"/>
       <c r="O78" s="20"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="25"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
@@ -6051,7 +6050,7 @@
       <c r="N79" s="18"/>
       <c r="O79" s="20"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="25"/>
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
@@ -6068,7 +6067,7 @@
       <c r="N80" s="18"/>
       <c r="O80" s="20"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="23"/>
@@ -6085,7 +6084,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="17"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="23"/>
@@ -6102,7 +6101,7 @@
       <c r="N82" s="22"/>
       <c r="O82" s="17"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="25"/>
       <c r="B83" s="18"/>
       <c r="C83" s="19"/>
@@ -6119,7 +6118,7 @@
       <c r="N83" s="18"/>
       <c r="O83" s="20"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="25"/>
       <c r="B84" s="18"/>
       <c r="C84" s="19"/>
@@ -6136,7 +6135,7 @@
       <c r="N84" s="18"/>
       <c r="O84" s="20"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="25"/>
       <c r="B85" s="18"/>
       <c r="C85" s="19"/>
@@ -6153,7 +6152,7 @@
       <c r="N85" s="18"/>
       <c r="O85" s="20"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="25"/>
       <c r="B86" s="18"/>
       <c r="C86" s="19"/>
@@ -6170,7 +6169,7 @@
       <c r="N86" s="18"/>
       <c r="O86" s="20"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="25"/>
       <c r="B87" s="18"/>
       <c r="C87" s="19"/>
@@ -6187,7 +6186,7 @@
       <c r="N87" s="18"/>
       <c r="O87" s="20"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="23"/>
@@ -6204,7 +6203,7 @@
       <c r="N88" s="22"/>
       <c r="O88" s="17"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="23"/>
@@ -6221,7 +6220,7 @@
       <c r="N89" s="22"/>
       <c r="O89" s="17"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="25"/>
       <c r="B90" s="18"/>
       <c r="C90" s="19"/>
@@ -6238,7 +6237,7 @@
       <c r="N90" s="18"/>
       <c r="O90" s="20"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="25"/>
       <c r="B91" s="18"/>
       <c r="C91" s="19"/>
@@ -6255,7 +6254,7 @@
       <c r="N91" s="18"/>
       <c r="O91" s="20"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="25"/>
       <c r="B92" s="18"/>
       <c r="C92" s="19"/>
@@ -6272,7 +6271,7 @@
       <c r="N92" s="18"/>
       <c r="O92" s="20"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="25"/>
       <c r="B93" s="18"/>
       <c r="C93" s="19"/>
@@ -6289,7 +6288,7 @@
       <c r="N93" s="18"/>
       <c r="O93" s="20"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="25"/>
       <c r="B94" s="18"/>
       <c r="C94" s="19"/>
@@ -6306,7 +6305,7 @@
       <c r="N94" s="18"/>
       <c r="O94" s="20"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="23"/>
@@ -6323,7 +6322,7 @@
       <c r="N95" s="22"/>
       <c r="O95" s="17"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="23"/>
@@ -6340,7 +6339,7 @@
       <c r="N96" s="22"/>
       <c r="O96" s="17"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="25"/>
       <c r="B97" s="18"/>
       <c r="C97" s="19"/>
@@ -6357,7 +6356,7 @@
       <c r="N97" s="18"/>
       <c r="O97" s="20"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="25"/>
       <c r="B98" s="18"/>
       <c r="C98" s="19"/>
@@ -6374,7 +6373,7 @@
       <c r="N98" s="18"/>
       <c r="O98" s="20"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="25"/>
       <c r="B99" s="18"/>
       <c r="C99" s="19"/>
@@ -6391,7 +6390,7 @@
       <c r="N99" s="18"/>
       <c r="O99" s="20"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="25"/>
       <c r="B100" s="18"/>
       <c r="C100" s="19"/>
@@ -6408,7 +6407,7 @@
       <c r="N100" s="18"/>
       <c r="O100" s="20"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="25"/>
       <c r="B101" s="18"/>
       <c r="C101" s="19"/>
@@ -6425,7 +6424,7 @@
       <c r="N101" s="18"/>
       <c r="O101" s="20"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="23"/>
@@ -6442,7 +6441,7 @@
       <c r="N102" s="22"/>
       <c r="O102" s="17"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="23"/>
@@ -6459,7 +6458,7 @@
       <c r="N103" s="22"/>
       <c r="O103" s="17"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="25"/>
       <c r="B104" s="18"/>
       <c r="C104" s="19"/>
@@ -6476,7 +6475,7 @@
       <c r="N104" s="18"/>
       <c r="O104" s="20"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="25"/>
       <c r="B105" s="18"/>
       <c r="C105" s="19"/>
@@ -6493,7 +6492,7 @@
       <c r="N105" s="18"/>
       <c r="O105" s="20"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="25"/>
       <c r="B106" s="18"/>
       <c r="C106" s="19"/>
@@ -6510,7 +6509,7 @@
       <c r="N106" s="18"/>
       <c r="O106" s="20"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="25"/>
       <c r="B107" s="18"/>
       <c r="C107" s="19"/>
@@ -6527,7 +6526,7 @@
       <c r="N107" s="18"/>
       <c r="O107" s="20"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="25"/>
       <c r="B108" s="18"/>
       <c r="C108" s="19"/>
@@ -6544,7 +6543,7 @@
       <c r="N108" s="18"/>
       <c r="O108" s="20"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="23"/>
@@ -6561,7 +6560,7 @@
       <c r="N109" s="22"/>
       <c r="O109" s="17"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="23"/>
@@ -6578,7 +6577,7 @@
       <c r="N110" s="22"/>
       <c r="O110" s="17"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="25"/>
       <c r="B111" s="18"/>
       <c r="C111" s="19"/>
@@ -6595,7 +6594,7 @@
       <c r="N111" s="18"/>
       <c r="O111" s="20"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="25"/>
       <c r="B112" s="18"/>
       <c r="C112" s="19"/>
@@ -6612,7 +6611,7 @@
       <c r="N112" s="18"/>
       <c r="O112" s="20"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="25"/>
       <c r="B113" s="18"/>
       <c r="C113" s="19"/>
@@ -6629,7 +6628,7 @@
       <c r="N113" s="18"/>
       <c r="O113" s="20"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="25"/>
       <c r="B114" s="18"/>
       <c r="C114" s="19"/>
@@ -6646,7 +6645,7 @@
       <c r="N114" s="18"/>
       <c r="O114" s="20"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="25"/>
       <c r="B115" s="18"/>
       <c r="C115" s="19"/>
@@ -6663,7 +6662,7 @@
       <c r="N115" s="18"/>
       <c r="O115" s="20"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="23"/>
@@ -6680,7 +6679,7 @@
       <c r="N116" s="22"/>
       <c r="O116" s="17"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="23"/>
@@ -6697,7 +6696,7 @@
       <c r="N117" s="22"/>
       <c r="O117" s="17"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="25"/>
       <c r="B118" s="18"/>
       <c r="C118" s="19"/>
@@ -6714,7 +6713,7 @@
       <c r="N118" s="18"/>
       <c r="O118" s="20"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="25"/>
       <c r="B119" s="18"/>
       <c r="C119" s="19"/>
@@ -6731,7 +6730,7 @@
       <c r="N119" s="18"/>
       <c r="O119" s="20"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="25"/>
       <c r="B120" s="18"/>
       <c r="C120" s="19"/>
@@ -6748,7 +6747,7 @@
       <c r="N120" s="18"/>
       <c r="O120" s="20"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="25"/>
       <c r="B121" s="18"/>
       <c r="C121" s="19"/>
@@ -6765,7 +6764,7 @@
       <c r="N121" s="18"/>
       <c r="O121" s="20"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="25"/>
       <c r="B122" s="18"/>
       <c r="C122" s="19"/>
@@ -6782,7 +6781,7 @@
       <c r="N122" s="18"/>
       <c r="O122" s="20"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="23"/>
@@ -6799,7 +6798,7 @@
       <c r="N123" s="22"/>
       <c r="O123" s="17"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="23"/>
@@ -6816,7 +6815,7 @@
       <c r="N124" s="22"/>
       <c r="O124" s="17"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="25"/>
       <c r="B125" s="18"/>
       <c r="C125" s="19"/>
@@ -6833,7 +6832,7 @@
       <c r="N125" s="18"/>
       <c r="O125" s="20"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="25"/>
       <c r="B126" s="18"/>
       <c r="C126" s="19"/>
@@ -6850,7 +6849,7 @@
       <c r="N126" s="18"/>
       <c r="O126" s="20"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="25"/>
       <c r="B127" s="18"/>
       <c r="C127" s="19"/>
@@ -6867,7 +6866,7 @@
       <c r="N127" s="18"/>
       <c r="O127" s="20"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="25"/>
       <c r="B128" s="18"/>
       <c r="C128" s="19"/>
@@ -6884,7 +6883,7 @@
       <c r="N128" s="18"/>
       <c r="O128" s="20"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="25"/>
       <c r="B129" s="18"/>
       <c r="C129" s="19"/>
@@ -6901,7 +6900,7 @@
       <c r="N129" s="18"/>
       <c r="O129" s="20"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="23"/>
@@ -6918,7 +6917,7 @@
       <c r="N130" s="22"/>
       <c r="O130" s="17"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="23"/>
@@ -6935,7 +6934,7 @@
       <c r="N131" s="22"/>
       <c r="O131" s="17"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="25"/>
       <c r="B132" s="18"/>
       <c r="C132" s="19"/>
@@ -6952,7 +6951,7 @@
       <c r="N132" s="18"/>
       <c r="O132" s="20"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="25"/>
       <c r="B133" s="18"/>
       <c r="C133" s="19"/>
@@ -6969,7 +6968,7 @@
       <c r="N133" s="18"/>
       <c r="O133" s="20"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="25"/>
       <c r="B134" s="18"/>
       <c r="C134" s="19"/>
@@ -6986,7 +6985,7 @@
       <c r="N134" s="18"/>
       <c r="O134" s="20"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="25"/>
       <c r="B135" s="18"/>
       <c r="C135" s="19"/>
@@ -7003,7 +7002,7 @@
       <c r="N135" s="18"/>
       <c r="O135" s="20"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="25"/>
       <c r="B136" s="18"/>
       <c r="C136" s="19"/>
@@ -7020,7 +7019,7 @@
       <c r="N136" s="18"/>
       <c r="O136" s="20"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="23"/>
@@ -7037,7 +7036,7 @@
       <c r="N137" s="22"/>
       <c r="O137" s="17"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="23"/>
@@ -7054,7 +7053,7 @@
       <c r="N138" s="22"/>
       <c r="O138" s="17"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="25"/>
       <c r="B139" s="18"/>
       <c r="C139" s="19"/>
@@ -7071,7 +7070,7 @@
       <c r="N139" s="18"/>
       <c r="O139" s="20"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="25"/>
       <c r="B140" s="18"/>
       <c r="C140" s="19"/>
@@ -7088,7 +7087,7 @@
       <c r="N140" s="18"/>
       <c r="O140" s="20"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="25"/>
       <c r="B141" s="18"/>
       <c r="C141" s="19"/>
@@ -7105,7 +7104,7 @@
       <c r="N141" s="18"/>
       <c r="O141" s="20"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="25"/>
       <c r="B142" s="18"/>
       <c r="C142" s="19"/>
@@ -7122,7 +7121,7 @@
       <c r="N142" s="18"/>
       <c r="O142" s="20"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="25"/>
       <c r="B143" s="18"/>
       <c r="C143" s="19"/>
@@ -7139,7 +7138,7 @@
       <c r="N143" s="18"/>
       <c r="O143" s="20"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="23"/>
@@ -7156,7 +7155,7 @@
       <c r="N144" s="22"/>
       <c r="O144" s="17"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="23"/>
@@ -7173,7 +7172,7 @@
       <c r="N145" s="22"/>
       <c r="O145" s="17"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="25"/>
       <c r="B146" s="18"/>
       <c r="C146" s="19"/>
@@ -7190,7 +7189,7 @@
       <c r="N146" s="18"/>
       <c r="O146" s="20"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="25"/>
       <c r="B147" s="18"/>
       <c r="C147" s="19"/>
@@ -7207,7 +7206,7 @@
       <c r="N147" s="18"/>
       <c r="O147" s="20"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="25"/>
       <c r="B148" s="18"/>
       <c r="C148" s="19"/>
@@ -7224,7 +7223,7 @@
       <c r="N148" s="18"/>
       <c r="O148" s="20"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="25"/>
       <c r="B149" s="18"/>
       <c r="C149" s="19"/>
@@ -7241,7 +7240,7 @@
       <c r="N149" s="18"/>
       <c r="O149" s="20"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="25"/>
       <c r="B150" s="18"/>
       <c r="C150" s="19"/>
@@ -7258,7 +7257,7 @@
       <c r="N150" s="18"/>
       <c r="O150" s="20"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="23"/>
@@ -7275,7 +7274,7 @@
       <c r="N151" s="22"/>
       <c r="O151" s="17"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="23"/>
@@ -7292,7 +7291,7 @@
       <c r="N152" s="22"/>
       <c r="O152" s="17"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="25"/>
       <c r="B153" s="18"/>
       <c r="C153" s="19"/>
@@ -7309,7 +7308,7 @@
       <c r="N153" s="18"/>
       <c r="O153" s="20"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="25"/>
       <c r="B154" s="18"/>
       <c r="C154" s="19"/>
@@ -7326,7 +7325,7 @@
       <c r="N154" s="18"/>
       <c r="O154" s="20"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="25"/>
       <c r="B155" s="18"/>
       <c r="C155" s="19"/>
@@ -7343,7 +7342,7 @@
       <c r="N155" s="18"/>
       <c r="O155" s="20"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="25"/>
       <c r="B156" s="18"/>
       <c r="C156" s="19"/>
@@ -7360,7 +7359,7 @@
       <c r="N156" s="18"/>
       <c r="O156" s="20"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="25"/>
       <c r="B157" s="18"/>
       <c r="C157" s="19"/>
@@ -7377,7 +7376,7 @@
       <c r="N157" s="18"/>
       <c r="O157" s="20"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="23"/>
@@ -7394,7 +7393,7 @@
       <c r="N158" s="22"/>
       <c r="O158" s="17"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="23"/>
@@ -7411,7 +7410,7 @@
       <c r="N159" s="22"/>
       <c r="O159" s="17"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="25"/>
       <c r="B160" s="18"/>
       <c r="C160" s="19"/>
@@ -7428,7 +7427,7 @@
       <c r="N160" s="18"/>
       <c r="O160" s="20"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="25"/>
       <c r="B161" s="18"/>
       <c r="C161" s="19"/>
@@ -7445,7 +7444,7 @@
       <c r="N161" s="18"/>
       <c r="O161" s="20"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="25"/>
       <c r="B162" s="18"/>
       <c r="C162" s="19"/>
@@ -7462,7 +7461,7 @@
       <c r="N162" s="18"/>
       <c r="O162" s="20"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="25"/>
       <c r="B163" s="18"/>
       <c r="C163" s="19"/>
@@ -7479,7 +7478,7 @@
       <c r="N163" s="18"/>
       <c r="O163" s="20"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="25"/>
       <c r="B164" s="18"/>
       <c r="C164" s="19"/>
@@ -7496,7 +7495,7 @@
       <c r="N164" s="18"/>
       <c r="O164" s="20"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="23"/>
@@ -7513,7 +7512,7 @@
       <c r="N165" s="22"/>
       <c r="O165" s="17"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="23"/>
@@ -7530,7 +7529,7 @@
       <c r="N166" s="22"/>
       <c r="O166" s="17"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="25"/>
       <c r="B167" s="18"/>
       <c r="C167" s="19"/>
@@ -7547,7 +7546,7 @@
       <c r="N167" s="18"/>
       <c r="O167" s="20"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="25"/>
       <c r="B168" s="18"/>
       <c r="C168" s="19"/>
@@ -7564,7 +7563,7 @@
       <c r="N168" s="18"/>
       <c r="O168" s="20"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="25"/>
       <c r="B169" s="18"/>
       <c r="C169" s="19"/>
@@ -7581,7 +7580,7 @@
       <c r="N169" s="18"/>
       <c r="O169" s="20"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="25"/>
       <c r="B170" s="18"/>
       <c r="C170" s="19"/>
@@ -7598,7 +7597,7 @@
       <c r="N170" s="18"/>
       <c r="O170" s="20"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="25"/>
       <c r="B171" s="18"/>
       <c r="C171" s="19"/>
@@ -7615,7 +7614,7 @@
       <c r="N171" s="18"/>
       <c r="O171" s="20"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="23"/>
@@ -7632,7 +7631,7 @@
       <c r="N172" s="22"/>
       <c r="O172" s="17"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="23"/>
@@ -7649,7 +7648,7 @@
       <c r="N173" s="22"/>
       <c r="O173" s="17"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="25"/>
       <c r="B174" s="18"/>
       <c r="C174" s="19"/>
@@ -7666,7 +7665,7 @@
       <c r="N174" s="18"/>
       <c r="O174" s="20"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="25"/>
       <c r="B175" s="18"/>
       <c r="C175" s="19"/>
@@ -7683,7 +7682,7 @@
       <c r="N175" s="18"/>
       <c r="O175" s="20"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="25"/>
       <c r="B176" s="18"/>
       <c r="C176" s="19"/>
@@ -7700,7 +7699,7 @@
       <c r="N176" s="18"/>
       <c r="O176" s="20"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="25"/>
       <c r="B177" s="18"/>
       <c r="C177" s="19"/>
@@ -7717,7 +7716,7 @@
       <c r="N177" s="18"/>
       <c r="O177" s="20"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="25"/>
       <c r="B178" s="18"/>
       <c r="C178" s="19"/>
@@ -7734,7 +7733,7 @@
       <c r="N178" s="18"/>
       <c r="O178" s="20"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="23"/>
@@ -7751,7 +7750,7 @@
       <c r="N179" s="22"/>
       <c r="O179" s="17"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="23"/>
@@ -7768,7 +7767,7 @@
       <c r="N180" s="22"/>
       <c r="O180" s="17"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="25"/>
       <c r="B181" s="18"/>
       <c r="C181" s="19"/>
@@ -7785,7 +7784,7 @@
       <c r="N181" s="18"/>
       <c r="O181" s="20"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="25"/>
       <c r="B182" s="18"/>
       <c r="C182" s="19"/>
@@ -7802,7 +7801,7 @@
       <c r="N182" s="18"/>
       <c r="O182" s="20"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="25"/>
       <c r="B183" s="18"/>
       <c r="C183" s="19"/>
@@ -7819,7 +7818,7 @@
       <c r="N183" s="18"/>
       <c r="O183" s="20"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="25"/>
       <c r="B184" s="18"/>
       <c r="C184" s="19"/>
@@ -7836,7 +7835,7 @@
       <c r="N184" s="18"/>
       <c r="O184" s="20"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="25"/>
       <c r="B185" s="18"/>
       <c r="C185" s="19"/>
@@ -7853,7 +7852,7 @@
       <c r="N185" s="18"/>
       <c r="O185" s="20"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="21"/>
       <c r="B186" s="22"/>
       <c r="C186" s="23"/>
@@ -7870,7 +7869,7 @@
       <c r="N186" s="22"/>
       <c r="O186" s="17"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="21"/>
       <c r="B187" s="22"/>
       <c r="C187" s="23"/>
@@ -7887,7 +7886,7 @@
       <c r="N187" s="22"/>
       <c r="O187" s="17"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="25"/>
       <c r="B188" s="18"/>
       <c r="C188" s="19"/>
@@ -7904,7 +7903,7 @@
       <c r="N188" s="18"/>
       <c r="O188" s="20"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="25"/>
       <c r="B189" s="18"/>
       <c r="C189" s="19"/>
@@ -7921,7 +7920,7 @@
       <c r="N189" s="18"/>
       <c r="O189" s="20"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="25"/>
       <c r="B190" s="18"/>
       <c r="C190" s="19"/>
@@ -7938,7 +7937,7 @@
       <c r="N190" s="18"/>
       <c r="O190" s="20"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="25"/>
       <c r="B191" s="18"/>
       <c r="C191" s="19"/>
@@ -7955,7 +7954,7 @@
       <c r="N191" s="18"/>
       <c r="O191" s="20"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="25"/>
       <c r="B192" s="18"/>
       <c r="C192" s="19"/>
@@ -7972,7 +7971,7 @@
       <c r="N192" s="18"/>
       <c r="O192" s="20"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="21"/>
       <c r="B193" s="22"/>
       <c r="C193" s="23"/>
@@ -7989,7 +7988,7 @@
       <c r="N193" s="22"/>
       <c r="O193" s="17"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="21"/>
       <c r="B194" s="22"/>
       <c r="C194" s="23"/>
@@ -8006,7 +8005,7 @@
       <c r="N194" s="22"/>
       <c r="O194" s="17"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="25"/>
       <c r="B195" s="18"/>
       <c r="C195" s="19"/>
@@ -8023,7 +8022,7 @@
       <c r="N195" s="18"/>
       <c r="O195" s="20"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="25"/>
       <c r="B196" s="18"/>
       <c r="C196" s="19"/>
@@ -8040,7 +8039,7 @@
       <c r="N196" s="18"/>
       <c r="O196" s="20"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="25"/>
       <c r="B197" s="18"/>
       <c r="C197" s="19"/>
@@ -8057,7 +8056,7 @@
       <c r="N197" s="18"/>
       <c r="O197" s="20"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="25"/>
       <c r="B198" s="18"/>
       <c r="C198" s="19"/>
@@ -8074,7 +8073,7 @@
       <c r="N198" s="18"/>
       <c r="O198" s="20"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="25"/>
       <c r="B199" s="18"/>
       <c r="C199" s="19"/>
@@ -8091,7 +8090,7 @@
       <c r="N199" s="18"/>
       <c r="O199" s="20"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="21"/>
       <c r="B200" s="22"/>
       <c r="C200" s="23"/>
@@ -8108,7 +8107,7 @@
       <c r="N200" s="22"/>
       <c r="O200" s="17"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="21"/>
       <c r="B201" s="22"/>
       <c r="C201" s="23"/>
@@ -8125,7 +8124,7 @@
       <c r="N201" s="22"/>
       <c r="O201" s="17"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="25"/>
       <c r="B202" s="18"/>
       <c r="C202" s="19"/>
@@ -8142,7 +8141,7 @@
       <c r="N202" s="18"/>
       <c r="O202" s="20"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="25"/>
       <c r="B203" s="18"/>
       <c r="C203" s="19"/>
@@ -8159,7 +8158,7 @@
       <c r="N203" s="18"/>
       <c r="O203" s="20"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="25"/>
       <c r="B204" s="18"/>
       <c r="C204" s="19"/>
@@ -8176,7 +8175,7 @@
       <c r="N204" s="18"/>
       <c r="O204" s="20"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="25"/>
       <c r="B205" s="18"/>
       <c r="C205" s="19"/>
@@ -8193,7 +8192,7 @@
       <c r="N205" s="18"/>
       <c r="O205" s="20"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="25"/>
       <c r="B206" s="18"/>
       <c r="C206" s="19"/>
@@ -8210,7 +8209,7 @@
       <c r="N206" s="18"/>
       <c r="O206" s="20"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="21"/>
       <c r="B207" s="22"/>
       <c r="C207" s="23"/>
@@ -8227,7 +8226,7 @@
       <c r="N207" s="22"/>
       <c r="O207" s="17"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="21"/>
       <c r="B208" s="22"/>
       <c r="C208" s="23"/>
@@ -8244,7 +8243,7 @@
       <c r="N208" s="22"/>
       <c r="O208" s="17"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="25"/>
       <c r="B209" s="18"/>
       <c r="C209" s="19"/>
@@ -8261,7 +8260,7 @@
       <c r="N209" s="18"/>
       <c r="O209" s="20"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="25"/>
       <c r="B210" s="18"/>
       <c r="C210" s="19"/>
@@ -8278,7 +8277,7 @@
       <c r="N210" s="18"/>
       <c r="O210" s="20"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="25"/>
       <c r="B211" s="18"/>
       <c r="C211" s="19"/>
@@ -8295,7 +8294,7 @@
       <c r="N211" s="18"/>
       <c r="O211" s="20"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="25"/>
       <c r="B212" s="18"/>
       <c r="C212" s="19"/>
@@ -8312,7 +8311,7 @@
       <c r="N212" s="18"/>
       <c r="O212" s="20"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="25"/>
       <c r="B213" s="18"/>
       <c r="C213" s="19"/>
@@ -8329,7 +8328,7 @@
       <c r="N213" s="18"/>
       <c r="O213" s="20"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="21"/>
       <c r="B214" s="22"/>
       <c r="C214" s="23"/>
@@ -8346,7 +8345,7 @@
       <c r="N214" s="22"/>
       <c r="O214" s="17"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="21"/>
       <c r="B215" s="22"/>
       <c r="C215" s="23"/>
@@ -8363,7 +8362,7 @@
       <c r="N215" s="22"/>
       <c r="O215" s="17"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="25"/>
       <c r="B216" s="18"/>
       <c r="C216" s="19"/>
@@ -8380,7 +8379,7 @@
       <c r="N216" s="18"/>
       <c r="O216" s="20"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="25"/>
       <c r="B217" s="18"/>
       <c r="C217" s="19"/>
@@ -8397,7 +8396,7 @@
       <c r="N217" s="18"/>
       <c r="O217" s="20"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="25"/>
       <c r="B218" s="18"/>
       <c r="C218" s="19"/>
@@ -8414,7 +8413,7 @@
       <c r="N218" s="18"/>
       <c r="O218" s="20"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="25"/>
       <c r="B219" s="18"/>
       <c r="C219" s="19"/>
@@ -8431,7 +8430,7 @@
       <c r="N219" s="18"/>
       <c r="O219" s="20"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="25"/>
       <c r="B220" s="18"/>
       <c r="C220" s="19"/>
@@ -8448,7 +8447,7 @@
       <c r="N220" s="18"/>
       <c r="O220" s="20"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="21"/>
       <c r="B221" s="22"/>
       <c r="C221" s="23"/>
@@ -8465,7 +8464,7 @@
       <c r="N221" s="22"/>
       <c r="O221" s="17"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="21"/>
       <c r="B222" s="22"/>
       <c r="C222" s="23"/>
@@ -8482,7 +8481,7 @@
       <c r="N222" s="22"/>
       <c r="O222" s="17"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="25"/>
       <c r="B223" s="18"/>
       <c r="C223" s="19"/>
@@ -8499,7 +8498,7 @@
       <c r="N223" s="18"/>
       <c r="O223" s="20"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="25"/>
       <c r="B224" s="18"/>
       <c r="C224" s="19"/>
@@ -8516,7 +8515,7 @@
       <c r="N224" s="18"/>
       <c r="O224" s="20"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="25"/>
       <c r="B225" s="18"/>
       <c r="C225" s="19"/>
@@ -8533,7 +8532,7 @@
       <c r="N225" s="18"/>
       <c r="O225" s="20"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="25"/>
       <c r="B226" s="18"/>
       <c r="C226" s="19"/>
@@ -8550,7 +8549,7 @@
       <c r="N226" s="18"/>
       <c r="O226" s="20"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="25"/>
       <c r="B227" s="18"/>
       <c r="C227" s="19"/>
@@ -8567,7 +8566,7 @@
       <c r="N227" s="18"/>
       <c r="O227" s="20"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="21"/>
       <c r="B228" s="22"/>
       <c r="C228" s="23"/>
@@ -8584,7 +8583,7 @@
       <c r="N228" s="22"/>
       <c r="O228" s="17"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="21"/>
       <c r="B229" s="22"/>
       <c r="C229" s="23"/>
@@ -8601,7 +8600,7 @@
       <c r="N229" s="22"/>
       <c r="O229" s="17"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="25"/>
       <c r="B230" s="18"/>
       <c r="C230" s="19"/>
@@ -8618,7 +8617,7 @@
       <c r="N230" s="18"/>
       <c r="O230" s="20"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="25"/>
       <c r="B231" s="18"/>
       <c r="C231" s="19"/>
@@ -8635,7 +8634,7 @@
       <c r="N231" s="18"/>
       <c r="O231" s="20"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="25"/>
       <c r="B232" s="18"/>
       <c r="C232" s="19"/>
@@ -8652,7 +8651,7 @@
       <c r="N232" s="18"/>
       <c r="O232" s="20"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="25"/>
       <c r="B233" s="18"/>
       <c r="C233" s="19"/>
@@ -8669,7 +8668,7 @@
       <c r="N233" s="18"/>
       <c r="O233" s="20"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="25"/>
       <c r="B234" s="18"/>
       <c r="C234" s="19"/>
@@ -8686,7 +8685,7 @@
       <c r="N234" s="18"/>
       <c r="O234" s="20"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="21"/>
       <c r="B235" s="22"/>
       <c r="C235" s="23"/>
@@ -8703,7 +8702,7 @@
       <c r="N235" s="22"/>
       <c r="O235" s="17"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="21"/>
       <c r="B236" s="22"/>
       <c r="C236" s="23"/>
@@ -8720,7 +8719,7 @@
       <c r="N236" s="22"/>
       <c r="O236" s="17"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="25"/>
       <c r="B237" s="18"/>
       <c r="C237" s="19"/>
@@ -8737,7 +8736,7 @@
       <c r="N237" s="18"/>
       <c r="O237" s="20"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="25"/>
       <c r="B238" s="18"/>
       <c r="C238" s="19"/>
@@ -8754,7 +8753,7 @@
       <c r="N238" s="18"/>
       <c r="O238" s="20"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="25"/>
       <c r="B239" s="18"/>
       <c r="C239" s="19"/>
@@ -8771,7 +8770,7 @@
       <c r="N239" s="18"/>
       <c r="O239" s="20"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="25"/>
       <c r="B240" s="18"/>
       <c r="C240" s="19"/>
@@ -8788,7 +8787,7 @@
       <c r="N240" s="18"/>
       <c r="O240" s="20"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="25"/>
       <c r="B241" s="18"/>
       <c r="C241" s="19"/>
@@ -8805,7 +8804,7 @@
       <c r="N241" s="18"/>
       <c r="O241" s="20"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="21"/>
       <c r="B242" s="22"/>
       <c r="C242" s="23"/>
@@ -8822,7 +8821,7 @@
       <c r="N242" s="22"/>
       <c r="O242" s="17"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="21"/>
       <c r="B243" s="22"/>
       <c r="C243" s="23"/>
@@ -8839,7 +8838,7 @@
       <c r="N243" s="22"/>
       <c r="O243" s="17"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="25"/>
       <c r="B244" s="18"/>
       <c r="C244" s="19"/>
@@ -8856,7 +8855,7 @@
       <c r="N244" s="18"/>
       <c r="O244" s="20"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="25"/>
       <c r="B245" s="18"/>
       <c r="C245" s="19"/>
@@ -8873,7 +8872,7 @@
       <c r="N245" s="18"/>
       <c r="O245" s="20"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="25"/>
       <c r="B246" s="18"/>
       <c r="C246" s="19"/>
@@ -8890,7 +8889,7 @@
       <c r="N246" s="18"/>
       <c r="O246" s="20"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="25"/>
       <c r="B247" s="18"/>
       <c r="C247" s="19"/>
@@ -8907,7 +8906,7 @@
       <c r="N247" s="18"/>
       <c r="O247" s="20"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="25"/>
       <c r="B248" s="18"/>
       <c r="C248" s="19"/>
@@ -8924,7 +8923,7 @@
       <c r="N248" s="18"/>
       <c r="O248" s="20"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="21"/>
       <c r="B249" s="22"/>
       <c r="C249" s="23"/>
@@ -8941,7 +8940,7 @@
       <c r="N249" s="22"/>
       <c r="O249" s="17"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="21"/>
       <c r="B250" s="22"/>
       <c r="C250" s="23"/>
@@ -8958,7 +8957,7 @@
       <c r="N250" s="22"/>
       <c r="O250" s="17"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="25"/>
       <c r="B251" s="18"/>
       <c r="C251" s="19"/>
@@ -8975,7 +8974,7 @@
       <c r="N251" s="18"/>
       <c r="O251" s="20"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="25"/>
       <c r="B252" s="18"/>
       <c r="C252" s="19"/>
@@ -8992,7 +8991,7 @@
       <c r="N252" s="18"/>
       <c r="O252" s="20"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="25"/>
       <c r="B253" s="18"/>
       <c r="C253" s="19"/>
@@ -9009,7 +9008,7 @@
       <c r="N253" s="18"/>
       <c r="O253" s="20"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="25"/>
       <c r="B254" s="18"/>
       <c r="C254" s="19"/>
@@ -9026,7 +9025,7 @@
       <c r="N254" s="18"/>
       <c r="O254" s="20"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="25"/>
       <c r="B255" s="18"/>
       <c r="C255" s="19"/>
@@ -9043,7 +9042,7 @@
       <c r="N255" s="18"/>
       <c r="O255" s="20"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="21"/>
       <c r="B256" s="22"/>
       <c r="C256" s="23"/>
@@ -9060,7 +9059,7 @@
       <c r="N256" s="22"/>
       <c r="O256" s="17"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="21"/>
       <c r="B257" s="22"/>
       <c r="C257" s="23"/>
@@ -9077,7 +9076,7 @@
       <c r="N257" s="22"/>
       <c r="O257" s="17"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="25"/>
       <c r="B258" s="18"/>
       <c r="C258" s="19"/>
@@ -9094,7 +9093,7 @@
       <c r="N258" s="18"/>
       <c r="O258" s="20"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="25"/>
       <c r="B259" s="18"/>
       <c r="C259" s="19"/>
@@ -9111,7 +9110,7 @@
       <c r="N259" s="18"/>
       <c r="O259" s="20"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="25"/>
       <c r="B260" s="18"/>
       <c r="C260" s="19"/>
@@ -9128,7 +9127,7 @@
       <c r="N260" s="18"/>
       <c r="O260" s="20"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="25"/>
       <c r="B261" s="18"/>
       <c r="C261" s="19"/>
@@ -9145,7 +9144,7 @@
       <c r="N261" s="18"/>
       <c r="O261" s="20"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="25"/>
       <c r="B262" s="18"/>
       <c r="C262" s="19"/>
@@ -9162,7 +9161,7 @@
       <c r="N262" s="18"/>
       <c r="O262" s="20"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="21"/>
       <c r="B263" s="22"/>
       <c r="C263" s="23"/>
@@ -9179,7 +9178,7 @@
       <c r="N263" s="22"/>
       <c r="O263" s="17"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="21"/>
       <c r="B264" s="22"/>
       <c r="C264" s="23"/>
@@ -9196,7 +9195,7 @@
       <c r="N264" s="22"/>
       <c r="O264" s="17"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="25"/>
       <c r="B265" s="18"/>
       <c r="C265" s="19"/>
@@ -9213,7 +9212,7 @@
       <c r="N265" s="18"/>
       <c r="O265" s="20"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="25"/>
       <c r="B266" s="18"/>
       <c r="C266" s="19"/>
@@ -9230,7 +9229,7 @@
       <c r="N266" s="18"/>
       <c r="O266" s="20"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="25"/>
       <c r="B267" s="18"/>
       <c r="C267" s="19"/>
@@ -9247,7 +9246,7 @@
       <c r="N267" s="18"/>
       <c r="O267" s="20"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="25"/>
       <c r="B268" s="18"/>
       <c r="C268" s="19"/>
@@ -9264,7 +9263,7 @@
       <c r="N268" s="18"/>
       <c r="O268" s="20"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="25"/>
       <c r="B269" s="18"/>
       <c r="C269" s="19"/>
@@ -9281,7 +9280,7 @@
       <c r="N269" s="18"/>
       <c r="O269" s="20"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="21"/>
       <c r="B270" s="22"/>
       <c r="C270" s="23"/>
@@ -9298,7 +9297,7 @@
       <c r="N270" s="22"/>
       <c r="O270" s="17"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="21"/>
       <c r="B271" s="22"/>
       <c r="C271" s="23"/>
@@ -9315,7 +9314,7 @@
       <c r="N271" s="22"/>
       <c r="O271" s="17"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="25"/>
       <c r="B272" s="18"/>
       <c r="C272" s="19"/>
@@ -9332,7 +9331,7 @@
       <c r="N272" s="18"/>
       <c r="O272" s="20"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="25"/>
       <c r="B273" s="18"/>
       <c r="C273" s="19"/>
@@ -9349,7 +9348,7 @@
       <c r="N273" s="18"/>
       <c r="O273" s="20"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="25"/>
       <c r="B274" s="18"/>
       <c r="C274" s="19"/>
@@ -9366,7 +9365,7 @@
       <c r="N274" s="18"/>
       <c r="O274" s="20"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="25"/>
       <c r="B275" s="18"/>
       <c r="C275" s="19"/>
@@ -9383,7 +9382,7 @@
       <c r="N275" s="18"/>
       <c r="O275" s="20"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="25"/>
       <c r="B276" s="18"/>
       <c r="C276" s="19"/>
@@ -9400,7 +9399,7 @@
       <c r="N276" s="18"/>
       <c r="O276" s="20"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="21"/>
       <c r="B277" s="22"/>
       <c r="C277" s="23"/>
@@ -9417,7 +9416,7 @@
       <c r="N277" s="22"/>
       <c r="O277" s="17"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="21"/>
       <c r="B278" s="22"/>
       <c r="C278" s="23"/>
@@ -9434,7 +9433,7 @@
       <c r="N278" s="22"/>
       <c r="O278" s="17"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="25"/>
       <c r="B279" s="18"/>
       <c r="C279" s="19"/>
@@ -9451,7 +9450,7 @@
       <c r="N279" s="18"/>
       <c r="O279" s="20"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="25"/>
       <c r="B280" s="18"/>
       <c r="C280" s="19"/>
@@ -9468,7 +9467,7 @@
       <c r="N280" s="18"/>
       <c r="O280" s="20"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="25"/>
       <c r="B281" s="18"/>
       <c r="C281" s="19"/>
@@ -9485,7 +9484,7 @@
       <c r="N281" s="18"/>
       <c r="O281" s="20"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="25"/>
       <c r="B282" s="18"/>
       <c r="C282" s="19"/>
@@ -9502,7 +9501,7 @@
       <c r="N282" s="18"/>
       <c r="O282" s="20"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="25"/>
       <c r="B283" s="18"/>
       <c r="C283" s="19"/>
@@ -9519,7 +9518,7 @@
       <c r="N283" s="18"/>
       <c r="O283" s="20"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="21"/>
       <c r="B284" s="22"/>
       <c r="C284" s="23"/>
@@ -9536,7 +9535,7 @@
       <c r="N284" s="22"/>
       <c r="O284" s="17"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="21"/>
       <c r="B285" s="22"/>
       <c r="C285" s="23"/>
@@ -9553,7 +9552,7 @@
       <c r="N285" s="22"/>
       <c r="O285" s="17"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="25"/>
       <c r="B286" s="18"/>
       <c r="C286" s="19"/>
@@ -9570,7 +9569,7 @@
       <c r="N286" s="18"/>
       <c r="O286" s="20"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="25"/>
       <c r="B287" s="18"/>
       <c r="C287" s="19"/>
@@ -9587,7 +9586,7 @@
       <c r="N287" s="18"/>
       <c r="O287" s="20"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="25"/>
       <c r="B288" s="18"/>
       <c r="C288" s="19"/>
@@ -9604,7 +9603,7 @@
       <c r="N288" s="18"/>
       <c r="O288" s="20"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="25"/>
       <c r="B289" s="18"/>
       <c r="C289" s="19"/>
@@ -9621,7 +9620,7 @@
       <c r="N289" s="18"/>
       <c r="O289" s="20"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="25"/>
       <c r="B290" s="18"/>
       <c r="C290" s="19"/>
@@ -9638,7 +9637,7 @@
       <c r="N290" s="18"/>
       <c r="O290" s="20"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="21"/>
       <c r="B291" s="22"/>
       <c r="C291" s="23"/>
@@ -9655,7 +9654,7 @@
       <c r="N291" s="22"/>
       <c r="O291" s="17"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="21"/>
       <c r="B292" s="22"/>
       <c r="C292" s="23"/>
@@ -9672,7 +9671,7 @@
       <c r="N292" s="22"/>
       <c r="O292" s="17"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="25"/>
       <c r="B293" s="18"/>
       <c r="C293" s="19"/>
@@ -9689,7 +9688,7 @@
       <c r="N293" s="18"/>
       <c r="O293" s="20"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="25"/>
       <c r="B294" s="18"/>
       <c r="C294" s="19"/>
@@ -9706,7 +9705,7 @@
       <c r="N294" s="18"/>
       <c r="O294" s="20"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="25"/>
       <c r="B295" s="18"/>
       <c r="C295" s="19"/>
@@ -9723,7 +9722,7 @@
       <c r="N295" s="18"/>
       <c r="O295" s="20"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="25"/>
       <c r="B296" s="18"/>
       <c r="C296" s="19"/>
@@ -9740,7 +9739,7 @@
       <c r="N296" s="18"/>
       <c r="O296" s="20"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="25"/>
       <c r="B297" s="18"/>
       <c r="C297" s="19"/>
@@ -9757,7 +9756,7 @@
       <c r="N297" s="18"/>
       <c r="O297" s="20"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="21"/>
       <c r="B298" s="22"/>
       <c r="C298" s="23"/>
@@ -9774,7 +9773,7 @@
       <c r="N298" s="22"/>
       <c r="O298" s="17"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="21"/>
       <c r="B299" s="22"/>
       <c r="C299" s="23"/>
@@ -9791,7 +9790,7 @@
       <c r="N299" s="22"/>
       <c r="O299" s="17"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="25"/>
       <c r="B300" s="18"/>
       <c r="C300" s="19"/>
@@ -9808,7 +9807,7 @@
       <c r="N300" s="18"/>
       <c r="O300" s="20"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="25"/>
       <c r="B301" s="18"/>
       <c r="C301" s="19"/>
@@ -9825,7 +9824,7 @@
       <c r="N301" s="18"/>
       <c r="O301" s="20"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="25"/>
       <c r="B302" s="18"/>
       <c r="C302" s="19"/>
@@ -9842,7 +9841,7 @@
       <c r="N302" s="18"/>
       <c r="O302" s="20"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="25"/>
       <c r="B303" s="18"/>
       <c r="C303" s="19"/>
@@ -9859,7 +9858,7 @@
       <c r="N303" s="18"/>
       <c r="O303" s="20"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="25"/>
       <c r="B304" s="18"/>
       <c r="C304" s="19"/>
@@ -9876,7 +9875,7 @@
       <c r="N304" s="18"/>
       <c r="O304" s="20"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="21"/>
       <c r="B305" s="22"/>
       <c r="C305" s="23"/>
@@ -9893,7 +9892,7 @@
       <c r="N305" s="22"/>
       <c r="O305" s="17"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="21"/>
       <c r="B306" s="22"/>
       <c r="C306" s="23"/>
@@ -9910,7 +9909,7 @@
       <c r="N306" s="22"/>
       <c r="O306" s="17"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="25"/>
       <c r="B307" s="18"/>
       <c r="C307" s="19"/>
@@ -9927,7 +9926,7 @@
       <c r="N307" s="18"/>
       <c r="O307" s="20"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="25"/>
       <c r="B308" s="18"/>
       <c r="C308" s="19"/>
@@ -9944,7 +9943,7 @@
       <c r="N308" s="18"/>
       <c r="O308" s="20"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="25"/>
       <c r="B309" s="18"/>
       <c r="C309" s="19"/>
@@ -9961,7 +9960,7 @@
       <c r="N309" s="18"/>
       <c r="O309" s="20"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="25"/>
       <c r="B310" s="18"/>
       <c r="C310" s="19"/>
@@ -9978,7 +9977,7 @@
       <c r="N310" s="18"/>
       <c r="O310" s="20"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="25"/>
       <c r="B311" s="18"/>
       <c r="C311" s="19"/>
@@ -9995,7 +9994,7 @@
       <c r="N311" s="18"/>
       <c r="O311" s="20"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" s="21"/>
       <c r="B312" s="22"/>
       <c r="C312" s="23"/>
@@ -10012,7 +10011,7 @@
       <c r="N312" s="22"/>
       <c r="O312" s="17"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="21"/>
       <c r="B313" s="22"/>
       <c r="C313" s="23"/>
@@ -10029,7 +10028,7 @@
       <c r="N313" s="22"/>
       <c r="O313" s="17"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="25"/>
       <c r="B314" s="18"/>
       <c r="C314" s="19"/>
@@ -10046,7 +10045,7 @@
       <c r="N314" s="18"/>
       <c r="O314" s="20"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="25"/>
       <c r="B315" s="18"/>
       <c r="C315" s="19"/>
@@ -10063,7 +10062,7 @@
       <c r="N315" s="18"/>
       <c r="O315" s="20"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="25"/>
       <c r="B316" s="18"/>
       <c r="C316" s="19"/>
@@ -10080,7 +10079,7 @@
       <c r="N316" s="18"/>
       <c r="O316" s="20"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="25"/>
       <c r="B317" s="18"/>
       <c r="C317" s="19"/>
@@ -10097,7 +10096,7 @@
       <c r="N317" s="18"/>
       <c r="O317" s="20"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="25"/>
       <c r="B318" s="18"/>
       <c r="C318" s="19"/>
@@ -10114,7 +10113,7 @@
       <c r="N318" s="18"/>
       <c r="O318" s="20"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="21"/>
       <c r="B319" s="22"/>
       <c r="C319" s="23"/>
@@ -10131,7 +10130,7 @@
       <c r="N319" s="22"/>
       <c r="O319" s="17"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="21"/>
       <c r="B320" s="22"/>
       <c r="C320" s="23"/>
@@ -10148,7 +10147,7 @@
       <c r="N320" s="22"/>
       <c r="O320" s="17"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="25"/>
       <c r="B321" s="18"/>
       <c r="C321" s="19"/>
@@ -10165,7 +10164,7 @@
       <c r="N321" s="18"/>
       <c r="O321" s="20"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="25"/>
       <c r="B322" s="18"/>
       <c r="C322" s="19"/>
@@ -10182,7 +10181,7 @@
       <c r="N322" s="18"/>
       <c r="O322" s="20"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="25"/>
       <c r="B323" s="18"/>
       <c r="C323" s="19"/>
@@ -10199,7 +10198,7 @@
       <c r="N323" s="18"/>
       <c r="O323" s="20"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="25"/>
       <c r="B324" s="18"/>
       <c r="C324" s="19"/>
@@ -10216,7 +10215,7 @@
       <c r="N324" s="18"/>
       <c r="O324" s="20"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="25"/>
       <c r="B325" s="18"/>
       <c r="C325" s="19"/>
@@ -10233,7 +10232,7 @@
       <c r="N325" s="18"/>
       <c r="O325" s="20"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="21"/>
       <c r="B326" s="22"/>
       <c r="C326" s="23"/>
@@ -10250,7 +10249,7 @@
       <c r="N326" s="22"/>
       <c r="O326" s="17"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="21"/>
       <c r="B327" s="22"/>
       <c r="C327" s="23"/>
@@ -10267,7 +10266,7 @@
       <c r="N327" s="22"/>
       <c r="O327" s="17"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="25"/>
       <c r="B328" s="18"/>
       <c r="C328" s="19"/>
@@ -10284,7 +10283,7 @@
       <c r="N328" s="18"/>
       <c r="O328" s="20"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="25"/>
       <c r="B329" s="18"/>
       <c r="C329" s="19"/>
@@ -10301,7 +10300,7 @@
       <c r="N329" s="18"/>
       <c r="O329" s="20"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="25"/>
       <c r="B330" s="18"/>
       <c r="C330" s="19"/>
@@ -10318,7 +10317,7 @@
       <c r="N330" s="18"/>
       <c r="O330" s="20"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="25"/>
       <c r="B331" s="18"/>
       <c r="C331" s="19"/>
@@ -10335,7 +10334,7 @@
       <c r="N331" s="18"/>
       <c r="O331" s="20"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" s="25"/>
       <c r="B332" s="18"/>
       <c r="C332" s="19"/>
@@ -10352,7 +10351,7 @@
       <c r="N332" s="18"/>
       <c r="O332" s="20"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="21"/>
       <c r="B333" s="22"/>
       <c r="C333" s="23"/>
@@ -10369,7 +10368,7 @@
       <c r="N333" s="22"/>
       <c r="O333" s="17"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="21"/>
       <c r="B334" s="22"/>
       <c r="C334" s="23"/>
@@ -10386,7 +10385,7 @@
       <c r="N334" s="22"/>
       <c r="O334" s="17"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" s="25"/>
       <c r="B335" s="18"/>
       <c r="C335" s="19"/>
@@ -10403,7 +10402,7 @@
       <c r="N335" s="18"/>
       <c r="O335" s="20"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="25"/>
       <c r="B336" s="18"/>
       <c r="C336" s="19"/>
@@ -10420,7 +10419,7 @@
       <c r="N336" s="18"/>
       <c r="O336" s="20"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="25"/>
       <c r="B337" s="18"/>
       <c r="C337" s="19"/>
@@ -10437,7 +10436,7 @@
       <c r="N337" s="18"/>
       <c r="O337" s="20"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" s="25"/>
       <c r="B338" s="18"/>
       <c r="C338" s="19"/>
@@ -10454,7 +10453,7 @@
       <c r="N338" s="18"/>
       <c r="O338" s="20"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="25"/>
       <c r="B339" s="18"/>
       <c r="C339" s="19"/>
@@ -10471,7 +10470,7 @@
       <c r="N339" s="18"/>
       <c r="O339" s="20"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="21"/>
       <c r="B340" s="22"/>
       <c r="C340" s="23"/>
@@ -10488,7 +10487,7 @@
       <c r="N340" s="22"/>
       <c r="O340" s="17"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" s="21"/>
       <c r="B341" s="22"/>
       <c r="C341" s="23"/>
@@ -10505,7 +10504,7 @@
       <c r="N341" s="22"/>
       <c r="O341" s="17"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" s="25"/>
       <c r="B342" s="18"/>
       <c r="C342" s="19"/>
@@ -10522,7 +10521,7 @@
       <c r="N342" s="18"/>
       <c r="O342" s="20"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" s="25"/>
       <c r="B343" s="18"/>
       <c r="C343" s="19"/>
@@ -10539,7 +10538,7 @@
       <c r="N343" s="18"/>
       <c r="O343" s="20"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" s="25"/>
       <c r="B344" s="18"/>
       <c r="C344" s="19"/>
@@ -10556,7 +10555,7 @@
       <c r="N344" s="18"/>
       <c r="O344" s="20"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="25"/>
       <c r="B345" s="18"/>
       <c r="C345" s="19"/>
@@ -10573,7 +10572,7 @@
       <c r="N345" s="18"/>
       <c r="O345" s="20"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" s="25"/>
       <c r="B346" s="18"/>
       <c r="C346" s="19"/>
@@ -10590,7 +10589,7 @@
       <c r="N346" s="18"/>
       <c r="O346" s="20"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" s="21"/>
       <c r="B347" s="22"/>
       <c r="C347" s="23"/>
@@ -10607,7 +10606,7 @@
       <c r="N347" s="22"/>
       <c r="O347" s="17"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="21"/>
       <c r="B348" s="22"/>
       <c r="C348" s="23"/>
@@ -10624,7 +10623,7 @@
       <c r="N348" s="22"/>
       <c r="O348" s="17"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" s="25"/>
       <c r="B349" s="18"/>
       <c r="C349" s="19"/>
@@ -10641,7 +10640,7 @@
       <c r="N349" s="18"/>
       <c r="O349" s="20"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="25"/>
       <c r="B350" s="18"/>
       <c r="C350" s="19"/>
@@ -10658,7 +10657,7 @@
       <c r="N350" s="18"/>
       <c r="O350" s="20"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="25"/>
       <c r="B351" s="18"/>
       <c r="C351" s="19"/>
@@ -10675,7 +10674,7 @@
       <c r="N351" s="18"/>
       <c r="O351" s="20"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="25"/>
       <c r="B352" s="18"/>
       <c r="C352" s="19"/>
@@ -10692,7 +10691,7 @@
       <c r="N352" s="18"/>
       <c r="O352" s="20"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" s="25"/>
       <c r="B353" s="18"/>
       <c r="C353" s="19"/>
@@ -10709,7 +10708,7 @@
       <c r="N353" s="18"/>
       <c r="O353" s="20"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" s="21"/>
       <c r="B354" s="22"/>
       <c r="C354" s="23"/>
@@ -10726,7 +10725,7 @@
       <c r="N354" s="22"/>
       <c r="O354" s="17"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" s="21"/>
       <c r="B355" s="22"/>
       <c r="C355" s="23"/>
@@ -10743,7 +10742,7 @@
       <c r="N355" s="22"/>
       <c r="O355" s="17"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" s="25"/>
       <c r="B356" s="18"/>
       <c r="C356" s="19"/>
@@ -10760,7 +10759,7 @@
       <c r="N356" s="18"/>
       <c r="O356" s="20"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" s="25"/>
       <c r="B357" s="18"/>
       <c r="C357" s="19"/>
@@ -10777,7 +10776,7 @@
       <c r="N357" s="18"/>
       <c r="O357" s="20"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" s="25"/>
       <c r="B358" s="18"/>
       <c r="C358" s="19"/>
@@ -10794,7 +10793,7 @@
       <c r="N358" s="18"/>
       <c r="O358" s="20"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" s="25"/>
       <c r="B359" s="18"/>
       <c r="C359" s="19"/>
@@ -10811,7 +10810,7 @@
       <c r="N359" s="18"/>
       <c r="O359" s="20"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" s="25"/>
       <c r="B360" s="18"/>
       <c r="C360" s="19"/>
@@ -10828,7 +10827,7 @@
       <c r="N360" s="18"/>
       <c r="O360" s="20"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" s="21"/>
       <c r="B361" s="22"/>
       <c r="C361" s="23"/>
@@ -10845,7 +10844,7 @@
       <c r="N361" s="22"/>
       <c r="O361" s="17"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" s="21"/>
       <c r="B362" s="22"/>
       <c r="C362" s="23"/>
@@ -10862,7 +10861,7 @@
       <c r="N362" s="22"/>
       <c r="O362" s="17"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" s="25"/>
       <c r="B363" s="18"/>
       <c r="C363" s="19"/>
@@ -10879,7 +10878,7 @@
       <c r="N363" s="18"/>
       <c r="O363" s="20"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" s="25"/>
       <c r="B364" s="18"/>
       <c r="C364" s="19"/>
@@ -10896,7 +10895,7 @@
       <c r="N364" s="18"/>
       <c r="O364" s="20"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" s="25"/>
       <c r="B365" s="18"/>
       <c r="C365" s="19"/>
@@ -10913,7 +10912,7 @@
       <c r="N365" s="18"/>
       <c r="O365" s="20"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" s="25"/>
       <c r="B366" s="18"/>
       <c r="C366" s="19"/>
@@ -10966,13 +10965,13 @@
       <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="13" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="13" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="39" t="s">
         <v>4</v>
@@ -10995,7 +10994,7 @@
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -11034,60 +11033,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="3">
         <f>AVERAGE('ежедневные данные'!B2:B8)</f>
-        <v>130.33333333333334</v>
+        <v>131</v>
       </c>
       <c r="C4" s="3">
         <f>AVERAGE('ежедневные данные'!C2:C8)</f>
-        <v>81.666666666666671</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3">
         <f>AVERAGE('ежедневные данные'!D2:D8)</f>
-        <v>78.333333333333329</v>
+        <v>79.8</v>
       </c>
       <c r="E4" s="3">
         <f>AVERAGE('ежедневные данные'!E2:E8)</f>
-        <v>128.80000000000001</v>
+        <v>130.16666666666666</v>
       </c>
       <c r="F4" s="3">
         <f>AVERAGE('ежедневные данные'!F2:F8)</f>
-        <v>85.4</v>
+        <v>84.5</v>
       </c>
       <c r="G4" s="3">
         <f>AVERAGE('ежедневные данные'!G2:G8)</f>
-        <v>95.6</v>
+        <v>95.166666666666671</v>
       </c>
       <c r="H4" s="3">
         <f>AVERAGE('ежедневные данные'!H2:H8)</f>
-        <v>128</v>
+        <v>127.4</v>
       </c>
       <c r="I4" s="3">
         <f>AVERAGE('ежедневные данные'!I2:I8)</f>
-        <v>83.25</v>
+        <v>82.2</v>
       </c>
       <c r="J4" s="3">
         <f>AVERAGE('ежедневные данные'!J2:J8)</f>
-        <v>102.25</v>
+        <v>100.4</v>
       </c>
       <c r="K4" s="3">
         <f>AVERAGE('ежедневные данные'!K2:K8)</f>
-        <v>127.4</v>
+        <v>126.16666666666667</v>
       </c>
       <c r="L4" s="3">
         <f>AVERAGE('ежедневные данные'!L2:L8)</f>
-        <v>82.8</v>
+        <v>82.333333333333329</v>
       </c>
       <c r="M4" s="3">
         <f>AVERAGE('ежедневные данные'!M2:M8)</f>
-        <v>100.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>99.666666666666671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -11140,7 +11139,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -11193,7 +11192,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -11246,7 +11245,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -11299,7 +11298,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -11352,7 +11351,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -11405,7 +11404,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -11458,7 +11457,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
@@ -11511,7 +11510,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
@@ -11564,7 +11563,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
@@ -11617,7 +11616,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>31</v>
       </c>
@@ -11670,7 +11669,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
@@ -11723,7 +11722,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
@@ -11776,7 +11775,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
@@ -11829,7 +11828,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
@@ -11882,7 +11881,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
@@ -11935,7 +11934,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>37</v>
       </c>
@@ -11988,7 +11987,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
@@ -12041,7 +12040,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>39</v>
       </c>
@@ -12094,7 +12093,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>40</v>
       </c>
@@ -12147,7 +12146,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>41</v>
       </c>
@@ -12200,7 +12199,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>42</v>
       </c>
@@ -12253,7 +12252,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
@@ -12306,7 +12305,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>44</v>
       </c>
@@ -12359,7 +12358,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>45</v>
       </c>
@@ -12412,7 +12411,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>46</v>
       </c>
@@ -12465,7 +12464,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>47</v>
       </c>
@@ -12518,7 +12517,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>48</v>
       </c>
@@ -12571,7 +12570,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>49</v>
       </c>
@@ -12624,7 +12623,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>50</v>
       </c>
@@ -12677,7 +12676,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>51</v>
       </c>
@@ -12730,7 +12729,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>52</v>
       </c>
@@ -12783,7 +12782,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>53</v>
       </c>
@@ -12836,7 +12835,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>54</v>
       </c>
@@ -12889,7 +12888,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>55</v>
       </c>
@@ -12942,7 +12941,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>56</v>
       </c>
@@ -12995,7 +12994,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>57</v>
       </c>
@@ -13048,7 +13047,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>58</v>
       </c>
@@ -13101,7 +13100,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>59</v>
       </c>
@@ -13154,7 +13153,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -13207,7 +13206,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -13260,7 +13259,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -13313,7 +13312,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -13366,7 +13365,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
@@ -13419,7 +13418,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -13472,7 +13471,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -13525,7 +13524,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -13578,7 +13577,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
@@ -13631,7 +13630,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
@@ -13684,7 +13683,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
@@ -13737,7 +13736,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
@@ -13811,15 +13810,15 @@
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="14" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="14" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="1"/>
       <c r="C2" s="40" t="s">
@@ -13843,7 +13842,7 @@
       <c r="M2" s="41"/>
       <c r="N2" s="42"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="11" t="s">
@@ -13883,7 +13882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>42005</v>
       </c>
@@ -13892,54 +13891,54 @@
       </c>
       <c r="C4" s="12">
         <f>AVERAGE('ежедневные данные'!B2:B15)</f>
-        <v>130.33333333333334</v>
+        <v>131</v>
       </c>
       <c r="D4" s="12">
         <f>AVERAGE('ежедневные данные'!C2:C15)</f>
-        <v>81.666666666666671</v>
+        <v>82</v>
       </c>
       <c r="E4" s="12">
         <f>AVERAGE('ежедневные данные'!D2:D15)</f>
-        <v>78.333333333333329</v>
+        <v>79.8</v>
       </c>
       <c r="F4" s="12">
         <f>AVERAGE('ежедневные данные'!E2:E15)</f>
-        <v>128.80000000000001</v>
+        <v>130.16666666666666</v>
       </c>
       <c r="G4" s="12">
         <f>AVERAGE('ежедневные данные'!F2:F15)</f>
-        <v>85.4</v>
+        <v>84.5</v>
       </c>
       <c r="H4" s="12">
         <f>AVERAGE('ежедневные данные'!G2:G15)</f>
-        <v>95.6</v>
+        <v>95.166666666666671</v>
       </c>
       <c r="I4" s="12">
         <f>AVERAGE('ежедневные данные'!H2:H15)</f>
-        <v>128</v>
+        <v>127.4</v>
       </c>
       <c r="J4" s="12">
         <f>AVERAGE('ежедневные данные'!I2:I15)</f>
-        <v>83.25</v>
+        <v>82.2</v>
       </c>
       <c r="K4" s="12">
         <f>AVERAGE('ежедневные данные'!J2:J15)</f>
-        <v>102.25</v>
+        <v>100.4</v>
       </c>
       <c r="L4" s="12">
         <f>AVERAGE('ежедневные данные'!K2:K15)</f>
-        <v>127.4</v>
+        <v>126.16666666666667</v>
       </c>
       <c r="M4" s="12">
         <f>AVERAGE('ежедневные данные'!L2:L15)</f>
-        <v>82.8</v>
+        <v>82.333333333333329</v>
       </c>
       <c r="N4" s="12">
         <f>AVERAGE('ежедневные данные'!M2:M15)</f>
-        <v>100.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>99.666666666666671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>42019</v>
       </c>
@@ -13995,7 +13994,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>42033</v>
       </c>
@@ -14107,7 +14106,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>42061</v>
       </c>
@@ -14163,7 +14162,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>42075</v>
       </c>
@@ -14219,7 +14218,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>42089</v>
       </c>
@@ -14331,7 +14330,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>42117</v>
       </c>
@@ -14387,7 +14386,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>42131</v>
       </c>
@@ -14443,7 +14442,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>42145</v>
       </c>
@@ -14555,7 +14554,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>42173</v>
       </c>
@@ -14611,7 +14610,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>42187</v>
       </c>
@@ -14667,7 +14666,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>42201</v>
       </c>
@@ -14779,7 +14778,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>42229</v>
       </c>
@@ -14835,7 +14834,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>42243</v>
       </c>
@@ -14891,7 +14890,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>42257</v>
       </c>
@@ -15003,7 +15002,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>42285</v>
       </c>
@@ -15059,7 +15058,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>42299</v>
       </c>
@@ -15115,7 +15114,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>42313</v>
       </c>
@@ -15227,7 +15226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>42341</v>
       </c>
@@ -15283,7 +15282,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>42355</v>
       </c>

--- a/dnevnik.xlsx
+++ b/dnevnik.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pro\AdDiary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7992" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные пациента" sheetId="4" r:id="rId1"/>
@@ -15,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'ежедневные данные'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author>пользователь</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
   <si>
     <t>число</t>
   </si>
@@ -604,7 +609,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
@@ -1007,7 +1012,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1242,7 +1247,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9890-4D3C-AADF-64EFFDFD616C}"/>
             </c:ext>
@@ -1432,7 +1437,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9890-4D3C-AADF-64EFFDFD616C}"/>
             </c:ext>
@@ -1622,7 +1627,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9890-4D3C-AADF-64EFFDFD616C}"/>
             </c:ext>
@@ -1636,7 +1641,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="48000000"/>
         <c:axId val="48014080"/>
@@ -1746,7 +1750,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1991,7 +1995,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D1C6-4AFC-BBDF-E1DF060B2297}"/>
             </c:ext>
@@ -2181,7 +2185,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D1C6-4AFC-BBDF-E1DF060B2297}"/>
             </c:ext>
@@ -2371,7 +2375,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D1C6-4AFC-BBDF-E1DF060B2297}"/>
             </c:ext>
@@ -2385,7 +2389,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="50539904"/>
         <c:axId val="50553984"/>
@@ -2497,7 +2500,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2742,7 +2745,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0CB7-48F1-9021-986975C81594}"/>
             </c:ext>
@@ -2932,7 +2935,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0CB7-48F1-9021-986975C81594}"/>
             </c:ext>
@@ -3122,7 +3125,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0CB7-48F1-9021-986975C81594}"/>
             </c:ext>
@@ -3136,7 +3139,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="50589696"/>
         <c:axId val="50591232"/>
@@ -3248,7 +3250,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3402,7 +3404,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>126.16666666666667</c:v>
+                  <c:v>126.71428571428571</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3483,7 +3485,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F7E4-45AA-BAA6-4706AC119451}"/>
             </c:ext>
@@ -3592,7 +3594,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>82.333333333333329</c:v>
+                  <c:v>82.714285714285708</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3673,7 +3675,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F7E4-45AA-BAA6-4706AC119451}"/>
             </c:ext>
@@ -3782,7 +3784,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>99.666666666666671</c:v>
+                  <c:v>100.14285714285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3863,7 +3865,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F7E4-45AA-BAA6-4706AC119451}"/>
             </c:ext>
@@ -3877,7 +3879,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="50370432"/>
         <c:axId val="50371968"/>
@@ -4008,7 +4009,7 @@
         <xdr:cNvPr id="2049" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4046,7 +4047,7 @@
         <xdr:cNvPr id="2050" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4084,7 +4085,7 @@
         <xdr:cNvPr id="2051" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4122,7 +4123,7 @@
         <xdr:cNvPr id="2052" name="Диаграмма 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4188,7 +4189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4221,9 +4222,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4256,6 +4274,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -4438,9 +4473,9 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -4456,7 +4491,7 @@
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>13</v>
       </c>
@@ -4472,7 +4507,7 @@
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
@@ -4515,19 +4550,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="5.6640625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" style="24" customWidth="1"/>
+    <col min="2" max="13" width="5.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" style="24" customWidth="1"/>
     <col min="15" max="15" width="32" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="24"/>
+    <col min="16" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -4558,7 +4593,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>43158</v>
       </c>
@@ -4593,7 +4628,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>43159</v>
       </c>
@@ -4634,7 +4669,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>43160</v>
       </c>
@@ -4681,7 +4716,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>43161</v>
       </c>
@@ -4728,7 +4763,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>43162</v>
       </c>
@@ -4775,7 +4810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>43163</v>
       </c>
@@ -4816,9 +4851,11 @@
         <v>95</v>
       </c>
       <c r="N7" s="18"/>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="O7" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>43164</v>
       </c>
@@ -4837,13 +4874,21 @@
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
+      <c r="K8" s="18">
+        <v>130</v>
+      </c>
+      <c r="L8" s="19">
+        <v>85</v>
+      </c>
+      <c r="M8" s="20">
+        <v>103</v>
+      </c>
       <c r="N8" s="18"/>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="O8" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
@@ -4860,7 +4905,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
@@ -4877,7 +4922,7 @@
       <c r="N10" s="18"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
@@ -4894,7 +4939,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
@@ -4911,7 +4956,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
@@ -4928,7 +4973,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
@@ -4945,7 +4990,7 @@
       <c r="N14" s="18"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
@@ -4962,7 +5007,7 @@
       <c r="N15" s="18"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
@@ -4979,7 +5024,7 @@
       <c r="N16" s="18"/>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
@@ -4996,7 +5041,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="20"/>
     </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
@@ -5013,7 +5058,7 @@
       <c r="N18" s="22"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
@@ -5030,7 +5075,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -5047,7 +5092,7 @@
       <c r="N20" s="18"/>
       <c r="O20" s="20"/>
     </row>
-    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -5064,7 +5109,7 @@
       <c r="N21" s="18"/>
       <c r="O21" s="20"/>
     </row>
-    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
@@ -5081,7 +5126,7 @@
       <c r="N22" s="18"/>
       <c r="O22" s="20"/>
     </row>
-    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
@@ -5098,7 +5143,7 @@
       <c r="N23" s="18"/>
       <c r="O23" s="20"/>
     </row>
-    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
@@ -5115,7 +5160,7 @@
       <c r="N24" s="18"/>
       <c r="O24" s="20"/>
     </row>
-    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
@@ -5132,7 +5177,7 @@
       <c r="N25" s="22"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
@@ -5149,7 +5194,7 @@
       <c r="N26" s="22"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
@@ -5166,7 +5211,7 @@
       <c r="N27" s="18"/>
       <c r="O27" s="20"/>
     </row>
-    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -5183,7 +5228,7 @@
       <c r="N28" s="18"/>
       <c r="O28" s="20"/>
     </row>
-    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
@@ -5200,7 +5245,7 @@
       <c r="N29" s="18"/>
       <c r="O29" s="20"/>
     </row>
-    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
@@ -5217,7 +5262,7 @@
       <c r="N30" s="18"/>
       <c r="O30" s="20"/>
     </row>
-    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
@@ -5234,7 +5279,7 @@
       <c r="N31" s="18"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
@@ -5251,7 +5296,7 @@
       <c r="N32" s="22"/>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
@@ -5268,7 +5313,7 @@
       <c r="N33" s="22"/>
       <c r="O33" s="17"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -5285,7 +5330,7 @@
       <c r="N34" s="18"/>
       <c r="O34" s="20"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
@@ -5302,7 +5347,7 @@
       <c r="N35" s="18"/>
       <c r="O35" s="20"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
@@ -5319,7 +5364,7 @@
       <c r="N36" s="18"/>
       <c r="O36" s="20"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
@@ -5336,7 +5381,7 @@
       <c r="N37" s="18"/>
       <c r="O37" s="20"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
@@ -5353,7 +5398,7 @@
       <c r="N38" s="18"/>
       <c r="O38" s="20"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="23"/>
@@ -5370,7 +5415,7 @@
       <c r="N39" s="22"/>
       <c r="O39" s="17"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="23"/>
@@ -5387,7 +5432,7 @@
       <c r="N40" s="22"/>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
@@ -5404,7 +5449,7 @@
       <c r="N41" s="18"/>
       <c r="O41" s="20"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="18"/>
       <c r="C42" s="19"/>
@@ -5421,7 +5466,7 @@
       <c r="N42" s="18"/>
       <c r="O42" s="20"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="18"/>
       <c r="C43" s="19"/>
@@ -5438,7 +5483,7 @@
       <c r="N43" s="18"/>
       <c r="O43" s="20"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
@@ -5455,7 +5500,7 @@
       <c r="N44" s="18"/>
       <c r="O44" s="20"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
@@ -5472,7 +5517,7 @@
       <c r="N45" s="18"/>
       <c r="O45" s="20"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="23"/>
@@ -5489,7 +5534,7 @@
       <c r="N46" s="22"/>
       <c r="O46" s="17"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="23"/>
@@ -5506,7 +5551,7 @@
       <c r="N47" s="22"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
@@ -5523,7 +5568,7 @@
       <c r="N48" s="18"/>
       <c r="O48" s="20"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="18"/>
       <c r="C49" s="19"/>
@@ -5540,7 +5585,7 @@
       <c r="N49" s="18"/>
       <c r="O49" s="20"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
@@ -5557,7 +5602,7 @@
       <c r="N50" s="18"/>
       <c r="O50" s="20"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
@@ -5574,7 +5619,7 @@
       <c r="N51" s="18"/>
       <c r="O51" s="20"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
@@ -5591,7 +5636,7 @@
       <c r="N52" s="18"/>
       <c r="O52" s="20"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="23"/>
@@ -5608,7 +5653,7 @@
       <c r="N53" s="22"/>
       <c r="O53" s="17"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="23"/>
@@ -5625,7 +5670,7 @@
       <c r="N54" s="22"/>
       <c r="O54" s="17"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
@@ -5642,7 +5687,7 @@
       <c r="N55" s="18"/>
       <c r="O55" s="20"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
@@ -5659,7 +5704,7 @@
       <c r="N56" s="18"/>
       <c r="O56" s="20"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
@@ -5676,7 +5721,7 @@
       <c r="N57" s="18"/>
       <c r="O57" s="20"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
@@ -5693,7 +5738,7 @@
       <c r="N58" s="18"/>
       <c r="O58" s="20"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
@@ -5710,7 +5755,7 @@
       <c r="N59" s="18"/>
       <c r="O59" s="20"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="23"/>
@@ -5727,7 +5772,7 @@
       <c r="N60" s="22"/>
       <c r="O60" s="17"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="23"/>
@@ -5744,7 +5789,7 @@
       <c r="N61" s="22"/>
       <c r="O61" s="17"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
@@ -5761,7 +5806,7 @@
       <c r="N62" s="18"/>
       <c r="O62" s="20"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
@@ -5778,7 +5823,7 @@
       <c r="N63" s="18"/>
       <c r="O63" s="20"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
@@ -5795,7 +5840,7 @@
       <c r="N64" s="18"/>
       <c r="O64" s="20"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
@@ -5812,7 +5857,7 @@
       <c r="N65" s="18"/>
       <c r="O65" s="20"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
@@ -5829,7 +5874,7 @@
       <c r="N66" s="18"/>
       <c r="O66" s="20"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="23"/>
@@ -5846,7 +5891,7 @@
       <c r="N67" s="22"/>
       <c r="O67" s="17"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="23"/>
@@ -5863,7 +5908,7 @@
       <c r="N68" s="22"/>
       <c r="O68" s="17"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
@@ -5880,7 +5925,7 @@
       <c r="N69" s="18"/>
       <c r="O69" s="20"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
@@ -5897,7 +5942,7 @@
       <c r="N70" s="18"/>
       <c r="O70" s="20"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
@@ -5914,7 +5959,7 @@
       <c r="N71" s="18"/>
       <c r="O71" s="20"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
@@ -5931,7 +5976,7 @@
       <c r="N72" s="18"/>
       <c r="O72" s="20"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
@@ -5948,7 +5993,7 @@
       <c r="N73" s="18"/>
       <c r="O73" s="20"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="23"/>
@@ -5965,7 +6010,7 @@
       <c r="N74" s="22"/>
       <c r="O74" s="17"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="23"/>
@@ -5982,7 +6027,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="17"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
       <c r="B76" s="18"/>
       <c r="C76" s="19"/>
@@ -5999,7 +6044,7 @@
       <c r="N76" s="18"/>
       <c r="O76" s="20"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
       <c r="B77" s="18"/>
       <c r="C77" s="19"/>
@@ -6016,7 +6061,7 @@
       <c r="N77" s="18"/>
       <c r="O77" s="20"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
       <c r="B78" s="18"/>
       <c r="C78" s="19"/>
@@ -6033,7 +6078,7 @@
       <c r="N78" s="18"/>
       <c r="O78" s="20"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
       <c r="B79" s="18"/>
       <c r="C79" s="19"/>
@@ -6050,7 +6095,7 @@
       <c r="N79" s="18"/>
       <c r="O79" s="20"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="25"/>
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
@@ -6067,7 +6112,7 @@
       <c r="N80" s="18"/>
       <c r="O80" s="20"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="23"/>
@@ -6084,7 +6129,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="17"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="23"/>
@@ -6101,7 +6146,7 @@
       <c r="N82" s="22"/>
       <c r="O82" s="17"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="25"/>
       <c r="B83" s="18"/>
       <c r="C83" s="19"/>
@@ -6118,7 +6163,7 @@
       <c r="N83" s="18"/>
       <c r="O83" s="20"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="25"/>
       <c r="B84" s="18"/>
       <c r="C84" s="19"/>
@@ -6135,7 +6180,7 @@
       <c r="N84" s="18"/>
       <c r="O84" s="20"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="25"/>
       <c r="B85" s="18"/>
       <c r="C85" s="19"/>
@@ -6152,7 +6197,7 @@
       <c r="N85" s="18"/>
       <c r="O85" s="20"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="25"/>
       <c r="B86" s="18"/>
       <c r="C86" s="19"/>
@@ -6169,7 +6214,7 @@
       <c r="N86" s="18"/>
       <c r="O86" s="20"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="25"/>
       <c r="B87" s="18"/>
       <c r="C87" s="19"/>
@@ -6186,7 +6231,7 @@
       <c r="N87" s="18"/>
       <c r="O87" s="20"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="23"/>
@@ -6203,7 +6248,7 @@
       <c r="N88" s="22"/>
       <c r="O88" s="17"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="23"/>
@@ -6220,7 +6265,7 @@
       <c r="N89" s="22"/>
       <c r="O89" s="17"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
       <c r="B90" s="18"/>
       <c r="C90" s="19"/>
@@ -6237,7 +6282,7 @@
       <c r="N90" s="18"/>
       <c r="O90" s="20"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
       <c r="B91" s="18"/>
       <c r="C91" s="19"/>
@@ -6254,7 +6299,7 @@
       <c r="N91" s="18"/>
       <c r="O91" s="20"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="25"/>
       <c r="B92" s="18"/>
       <c r="C92" s="19"/>
@@ -6271,7 +6316,7 @@
       <c r="N92" s="18"/>
       <c r="O92" s="20"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
       <c r="B93" s="18"/>
       <c r="C93" s="19"/>
@@ -6288,7 +6333,7 @@
       <c r="N93" s="18"/>
       <c r="O93" s="20"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="25"/>
       <c r="B94" s="18"/>
       <c r="C94" s="19"/>
@@ -6305,7 +6350,7 @@
       <c r="N94" s="18"/>
       <c r="O94" s="20"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="23"/>
@@ -6322,7 +6367,7 @@
       <c r="N95" s="22"/>
       <c r="O95" s="17"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="23"/>
@@ -6339,7 +6384,7 @@
       <c r="N96" s="22"/>
       <c r="O96" s="17"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="B97" s="18"/>
       <c r="C97" s="19"/>
@@ -6356,7 +6401,7 @@
       <c r="N97" s="18"/>
       <c r="O97" s="20"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="25"/>
       <c r="B98" s="18"/>
       <c r="C98" s="19"/>
@@ -6373,7 +6418,7 @@
       <c r="N98" s="18"/>
       <c r="O98" s="20"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="25"/>
       <c r="B99" s="18"/>
       <c r="C99" s="19"/>
@@ -6390,7 +6435,7 @@
       <c r="N99" s="18"/>
       <c r="O99" s="20"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="25"/>
       <c r="B100" s="18"/>
       <c r="C100" s="19"/>
@@ -6407,7 +6452,7 @@
       <c r="N100" s="18"/>
       <c r="O100" s="20"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="25"/>
       <c r="B101" s="18"/>
       <c r="C101" s="19"/>
@@ -6424,7 +6469,7 @@
       <c r="N101" s="18"/>
       <c r="O101" s="20"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="23"/>
@@ -6441,7 +6486,7 @@
       <c r="N102" s="22"/>
       <c r="O102" s="17"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="23"/>
@@ -6458,7 +6503,7 @@
       <c r="N103" s="22"/>
       <c r="O103" s="17"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="25"/>
       <c r="B104" s="18"/>
       <c r="C104" s="19"/>
@@ -6475,7 +6520,7 @@
       <c r="N104" s="18"/>
       <c r="O104" s="20"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="25"/>
       <c r="B105" s="18"/>
       <c r="C105" s="19"/>
@@ -6492,7 +6537,7 @@
       <c r="N105" s="18"/>
       <c r="O105" s="20"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="25"/>
       <c r="B106" s="18"/>
       <c r="C106" s="19"/>
@@ -6509,7 +6554,7 @@
       <c r="N106" s="18"/>
       <c r="O106" s="20"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="25"/>
       <c r="B107" s="18"/>
       <c r="C107" s="19"/>
@@ -6526,7 +6571,7 @@
       <c r="N107" s="18"/>
       <c r="O107" s="20"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="25"/>
       <c r="B108" s="18"/>
       <c r="C108" s="19"/>
@@ -6543,7 +6588,7 @@
       <c r="N108" s="18"/>
       <c r="O108" s="20"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="23"/>
@@ -6560,7 +6605,7 @@
       <c r="N109" s="22"/>
       <c r="O109" s="17"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="23"/>
@@ -6577,7 +6622,7 @@
       <c r="N110" s="22"/>
       <c r="O110" s="17"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="25"/>
       <c r="B111" s="18"/>
       <c r="C111" s="19"/>
@@ -6594,7 +6639,7 @@
       <c r="N111" s="18"/>
       <c r="O111" s="20"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="25"/>
       <c r="B112" s="18"/>
       <c r="C112" s="19"/>
@@ -6611,7 +6656,7 @@
       <c r="N112" s="18"/>
       <c r="O112" s="20"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="25"/>
       <c r="B113" s="18"/>
       <c r="C113" s="19"/>
@@ -6628,7 +6673,7 @@
       <c r="N113" s="18"/>
       <c r="O113" s="20"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="25"/>
       <c r="B114" s="18"/>
       <c r="C114" s="19"/>
@@ -6645,7 +6690,7 @@
       <c r="N114" s="18"/>
       <c r="O114" s="20"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="25"/>
       <c r="B115" s="18"/>
       <c r="C115" s="19"/>
@@ -6662,7 +6707,7 @@
       <c r="N115" s="18"/>
       <c r="O115" s="20"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="23"/>
@@ -6679,7 +6724,7 @@
       <c r="N116" s="22"/>
       <c r="O116" s="17"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="23"/>
@@ -6696,7 +6741,7 @@
       <c r="N117" s="22"/>
       <c r="O117" s="17"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="25"/>
       <c r="B118" s="18"/>
       <c r="C118" s="19"/>
@@ -6713,7 +6758,7 @@
       <c r="N118" s="18"/>
       <c r="O118" s="20"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="25"/>
       <c r="B119" s="18"/>
       <c r="C119" s="19"/>
@@ -6730,7 +6775,7 @@
       <c r="N119" s="18"/>
       <c r="O119" s="20"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="25"/>
       <c r="B120" s="18"/>
       <c r="C120" s="19"/>
@@ -6747,7 +6792,7 @@
       <c r="N120" s="18"/>
       <c r="O120" s="20"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="25"/>
       <c r="B121" s="18"/>
       <c r="C121" s="19"/>
@@ -6764,7 +6809,7 @@
       <c r="N121" s="18"/>
       <c r="O121" s="20"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="25"/>
       <c r="B122" s="18"/>
       <c r="C122" s="19"/>
@@ -6781,7 +6826,7 @@
       <c r="N122" s="18"/>
       <c r="O122" s="20"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="23"/>
@@ -6798,7 +6843,7 @@
       <c r="N123" s="22"/>
       <c r="O123" s="17"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="23"/>
@@ -6815,7 +6860,7 @@
       <c r="N124" s="22"/>
       <c r="O124" s="17"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="25"/>
       <c r="B125" s="18"/>
       <c r="C125" s="19"/>
@@ -6832,7 +6877,7 @@
       <c r="N125" s="18"/>
       <c r="O125" s="20"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="25"/>
       <c r="B126" s="18"/>
       <c r="C126" s="19"/>
@@ -6849,7 +6894,7 @@
       <c r="N126" s="18"/>
       <c r="O126" s="20"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="25"/>
       <c r="B127" s="18"/>
       <c r="C127" s="19"/>
@@ -6866,7 +6911,7 @@
       <c r="N127" s="18"/>
       <c r="O127" s="20"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="25"/>
       <c r="B128" s="18"/>
       <c r="C128" s="19"/>
@@ -6883,7 +6928,7 @@
       <c r="N128" s="18"/>
       <c r="O128" s="20"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="25"/>
       <c r="B129" s="18"/>
       <c r="C129" s="19"/>
@@ -6900,7 +6945,7 @@
       <c r="N129" s="18"/>
       <c r="O129" s="20"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="23"/>
@@ -6917,7 +6962,7 @@
       <c r="N130" s="22"/>
       <c r="O130" s="17"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="23"/>
@@ -6934,7 +6979,7 @@
       <c r="N131" s="22"/>
       <c r="O131" s="17"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="25"/>
       <c r="B132" s="18"/>
       <c r="C132" s="19"/>
@@ -6951,7 +6996,7 @@
       <c r="N132" s="18"/>
       <c r="O132" s="20"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="25"/>
       <c r="B133" s="18"/>
       <c r="C133" s="19"/>
@@ -6968,7 +7013,7 @@
       <c r="N133" s="18"/>
       <c r="O133" s="20"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="25"/>
       <c r="B134" s="18"/>
       <c r="C134" s="19"/>
@@ -6985,7 +7030,7 @@
       <c r="N134" s="18"/>
       <c r="O134" s="20"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
       <c r="B135" s="18"/>
       <c r="C135" s="19"/>
@@ -7002,7 +7047,7 @@
       <c r="N135" s="18"/>
       <c r="O135" s="20"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="25"/>
       <c r="B136" s="18"/>
       <c r="C136" s="19"/>
@@ -7019,7 +7064,7 @@
       <c r="N136" s="18"/>
       <c r="O136" s="20"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="23"/>
@@ -7036,7 +7081,7 @@
       <c r="N137" s="22"/>
       <c r="O137" s="17"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="23"/>
@@ -7053,7 +7098,7 @@
       <c r="N138" s="22"/>
       <c r="O138" s="17"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="25"/>
       <c r="B139" s="18"/>
       <c r="C139" s="19"/>
@@ -7070,7 +7115,7 @@
       <c r="N139" s="18"/>
       <c r="O139" s="20"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="25"/>
       <c r="B140" s="18"/>
       <c r="C140" s="19"/>
@@ -7087,7 +7132,7 @@
       <c r="N140" s="18"/>
       <c r="O140" s="20"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="25"/>
       <c r="B141" s="18"/>
       <c r="C141" s="19"/>
@@ -7104,7 +7149,7 @@
       <c r="N141" s="18"/>
       <c r="O141" s="20"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="25"/>
       <c r="B142" s="18"/>
       <c r="C142" s="19"/>
@@ -7121,7 +7166,7 @@
       <c r="N142" s="18"/>
       <c r="O142" s="20"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="25"/>
       <c r="B143" s="18"/>
       <c r="C143" s="19"/>
@@ -7138,7 +7183,7 @@
       <c r="N143" s="18"/>
       <c r="O143" s="20"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="23"/>
@@ -7155,7 +7200,7 @@
       <c r="N144" s="22"/>
       <c r="O144" s="17"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="23"/>
@@ -7172,7 +7217,7 @@
       <c r="N145" s="22"/>
       <c r="O145" s="17"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="25"/>
       <c r="B146" s="18"/>
       <c r="C146" s="19"/>
@@ -7189,7 +7234,7 @@
       <c r="N146" s="18"/>
       <c r="O146" s="20"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="25"/>
       <c r="B147" s="18"/>
       <c r="C147" s="19"/>
@@ -7206,7 +7251,7 @@
       <c r="N147" s="18"/>
       <c r="O147" s="20"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="25"/>
       <c r="B148" s="18"/>
       <c r="C148" s="19"/>
@@ -7223,7 +7268,7 @@
       <c r="N148" s="18"/>
       <c r="O148" s="20"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="25"/>
       <c r="B149" s="18"/>
       <c r="C149" s="19"/>
@@ -7240,7 +7285,7 @@
       <c r="N149" s="18"/>
       <c r="O149" s="20"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="25"/>
       <c r="B150" s="18"/>
       <c r="C150" s="19"/>
@@ -7257,7 +7302,7 @@
       <c r="N150" s="18"/>
       <c r="O150" s="20"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="23"/>
@@ -7274,7 +7319,7 @@
       <c r="N151" s="22"/>
       <c r="O151" s="17"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="23"/>
@@ -7291,7 +7336,7 @@
       <c r="N152" s="22"/>
       <c r="O152" s="17"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="25"/>
       <c r="B153" s="18"/>
       <c r="C153" s="19"/>
@@ -7308,7 +7353,7 @@
       <c r="N153" s="18"/>
       <c r="O153" s="20"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="25"/>
       <c r="B154" s="18"/>
       <c r="C154" s="19"/>
@@ -7325,7 +7370,7 @@
       <c r="N154" s="18"/>
       <c r="O154" s="20"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="25"/>
       <c r="B155" s="18"/>
       <c r="C155" s="19"/>
@@ -7342,7 +7387,7 @@
       <c r="N155" s="18"/>
       <c r="O155" s="20"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="25"/>
       <c r="B156" s="18"/>
       <c r="C156" s="19"/>
@@ -7359,7 +7404,7 @@
       <c r="N156" s="18"/>
       <c r="O156" s="20"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="25"/>
       <c r="B157" s="18"/>
       <c r="C157" s="19"/>
@@ -7376,7 +7421,7 @@
       <c r="N157" s="18"/>
       <c r="O157" s="20"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="23"/>
@@ -7393,7 +7438,7 @@
       <c r="N158" s="22"/>
       <c r="O158" s="17"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="23"/>
@@ -7410,7 +7455,7 @@
       <c r="N159" s="22"/>
       <c r="O159" s="17"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="25"/>
       <c r="B160" s="18"/>
       <c r="C160" s="19"/>
@@ -7427,7 +7472,7 @@
       <c r="N160" s="18"/>
       <c r="O160" s="20"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="25"/>
       <c r="B161" s="18"/>
       <c r="C161" s="19"/>
@@ -7444,7 +7489,7 @@
       <c r="N161" s="18"/>
       <c r="O161" s="20"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="25"/>
       <c r="B162" s="18"/>
       <c r="C162" s="19"/>
@@ -7461,7 +7506,7 @@
       <c r="N162" s="18"/>
       <c r="O162" s="20"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="25"/>
       <c r="B163" s="18"/>
       <c r="C163" s="19"/>
@@ -7478,7 +7523,7 @@
       <c r="N163" s="18"/>
       <c r="O163" s="20"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="25"/>
       <c r="B164" s="18"/>
       <c r="C164" s="19"/>
@@ -7495,7 +7540,7 @@
       <c r="N164" s="18"/>
       <c r="O164" s="20"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="23"/>
@@ -7512,7 +7557,7 @@
       <c r="N165" s="22"/>
       <c r="O165" s="17"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="23"/>
@@ -7529,7 +7574,7 @@
       <c r="N166" s="22"/>
       <c r="O166" s="17"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="25"/>
       <c r="B167" s="18"/>
       <c r="C167" s="19"/>
@@ -7546,7 +7591,7 @@
       <c r="N167" s="18"/>
       <c r="O167" s="20"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="25"/>
       <c r="B168" s="18"/>
       <c r="C168" s="19"/>
@@ -7563,7 +7608,7 @@
       <c r="N168" s="18"/>
       <c r="O168" s="20"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
       <c r="B169" s="18"/>
       <c r="C169" s="19"/>
@@ -7580,7 +7625,7 @@
       <c r="N169" s="18"/>
       <c r="O169" s="20"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="25"/>
       <c r="B170" s="18"/>
       <c r="C170" s="19"/>
@@ -7597,7 +7642,7 @@
       <c r="N170" s="18"/>
       <c r="O170" s="20"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="25"/>
       <c r="B171" s="18"/>
       <c r="C171" s="19"/>
@@ -7614,7 +7659,7 @@
       <c r="N171" s="18"/>
       <c r="O171" s="20"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="23"/>
@@ -7631,7 +7676,7 @@
       <c r="N172" s="22"/>
       <c r="O172" s="17"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="23"/>
@@ -7648,7 +7693,7 @@
       <c r="N173" s="22"/>
       <c r="O173" s="17"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="B174" s="18"/>
       <c r="C174" s="19"/>
@@ -7665,7 +7710,7 @@
       <c r="N174" s="18"/>
       <c r="O174" s="20"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="B175" s="18"/>
       <c r="C175" s="19"/>
@@ -7682,7 +7727,7 @@
       <c r="N175" s="18"/>
       <c r="O175" s="20"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="B176" s="18"/>
       <c r="C176" s="19"/>
@@ -7699,7 +7744,7 @@
       <c r="N176" s="18"/>
       <c r="O176" s="20"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="B177" s="18"/>
       <c r="C177" s="19"/>
@@ -7716,7 +7761,7 @@
       <c r="N177" s="18"/>
       <c r="O177" s="20"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="B178" s="18"/>
       <c r="C178" s="19"/>
@@ -7733,7 +7778,7 @@
       <c r="N178" s="18"/>
       <c r="O178" s="20"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="23"/>
@@ -7750,7 +7795,7 @@
       <c r="N179" s="22"/>
       <c r="O179" s="17"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="23"/>
@@ -7767,7 +7812,7 @@
       <c r="N180" s="22"/>
       <c r="O180" s="17"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="25"/>
       <c r="B181" s="18"/>
       <c r="C181" s="19"/>
@@ -7784,7 +7829,7 @@
       <c r="N181" s="18"/>
       <c r="O181" s="20"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="25"/>
       <c r="B182" s="18"/>
       <c r="C182" s="19"/>
@@ -7801,7 +7846,7 @@
       <c r="N182" s="18"/>
       <c r="O182" s="20"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="25"/>
       <c r="B183" s="18"/>
       <c r="C183" s="19"/>
@@ -7818,7 +7863,7 @@
       <c r="N183" s="18"/>
       <c r="O183" s="20"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="25"/>
       <c r="B184" s="18"/>
       <c r="C184" s="19"/>
@@ -7835,7 +7880,7 @@
       <c r="N184" s="18"/>
       <c r="O184" s="20"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="25"/>
       <c r="B185" s="18"/>
       <c r="C185" s="19"/>
@@ -7852,7 +7897,7 @@
       <c r="N185" s="18"/>
       <c r="O185" s="20"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="21"/>
       <c r="B186" s="22"/>
       <c r="C186" s="23"/>
@@ -7869,7 +7914,7 @@
       <c r="N186" s="22"/>
       <c r="O186" s="17"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="21"/>
       <c r="B187" s="22"/>
       <c r="C187" s="23"/>
@@ -7886,7 +7931,7 @@
       <c r="N187" s="22"/>
       <c r="O187" s="17"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="25"/>
       <c r="B188" s="18"/>
       <c r="C188" s="19"/>
@@ -7903,7 +7948,7 @@
       <c r="N188" s="18"/>
       <c r="O188" s="20"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="25"/>
       <c r="B189" s="18"/>
       <c r="C189" s="19"/>
@@ -7920,7 +7965,7 @@
       <c r="N189" s="18"/>
       <c r="O189" s="20"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="18"/>
       <c r="C190" s="19"/>
@@ -7937,7 +7982,7 @@
       <c r="N190" s="18"/>
       <c r="O190" s="20"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="25"/>
       <c r="B191" s="18"/>
       <c r="C191" s="19"/>
@@ -7954,7 +7999,7 @@
       <c r="N191" s="18"/>
       <c r="O191" s="20"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="25"/>
       <c r="B192" s="18"/>
       <c r="C192" s="19"/>
@@ -7971,7 +8016,7 @@
       <c r="N192" s="18"/>
       <c r="O192" s="20"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="21"/>
       <c r="B193" s="22"/>
       <c r="C193" s="23"/>
@@ -7988,7 +8033,7 @@
       <c r="N193" s="22"/>
       <c r="O193" s="17"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="21"/>
       <c r="B194" s="22"/>
       <c r="C194" s="23"/>
@@ -8005,7 +8050,7 @@
       <c r="N194" s="22"/>
       <c r="O194" s="17"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="25"/>
       <c r="B195" s="18"/>
       <c r="C195" s="19"/>
@@ -8022,7 +8067,7 @@
       <c r="N195" s="18"/>
       <c r="O195" s="20"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="B196" s="18"/>
       <c r="C196" s="19"/>
@@ -8039,7 +8084,7 @@
       <c r="N196" s="18"/>
       <c r="O196" s="20"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="B197" s="18"/>
       <c r="C197" s="19"/>
@@ -8056,7 +8101,7 @@
       <c r="N197" s="18"/>
       <c r="O197" s="20"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="B198" s="18"/>
       <c r="C198" s="19"/>
@@ -8073,7 +8118,7 @@
       <c r="N198" s="18"/>
       <c r="O198" s="20"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="25"/>
       <c r="B199" s="18"/>
       <c r="C199" s="19"/>
@@ -8090,7 +8135,7 @@
       <c r="N199" s="18"/>
       <c r="O199" s="20"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="21"/>
       <c r="B200" s="22"/>
       <c r="C200" s="23"/>
@@ -8107,7 +8152,7 @@
       <c r="N200" s="22"/>
       <c r="O200" s="17"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="21"/>
       <c r="B201" s="22"/>
       <c r="C201" s="23"/>
@@ -8124,7 +8169,7 @@
       <c r="N201" s="22"/>
       <c r="O201" s="17"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="25"/>
       <c r="B202" s="18"/>
       <c r="C202" s="19"/>
@@ -8141,7 +8186,7 @@
       <c r="N202" s="18"/>
       <c r="O202" s="20"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="25"/>
       <c r="B203" s="18"/>
       <c r="C203" s="19"/>
@@ -8158,7 +8203,7 @@
       <c r="N203" s="18"/>
       <c r="O203" s="20"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="25"/>
       <c r="B204" s="18"/>
       <c r="C204" s="19"/>
@@ -8175,7 +8220,7 @@
       <c r="N204" s="18"/>
       <c r="O204" s="20"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="25"/>
       <c r="B205" s="18"/>
       <c r="C205" s="19"/>
@@ -8192,7 +8237,7 @@
       <c r="N205" s="18"/>
       <c r="O205" s="20"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="25"/>
       <c r="B206" s="18"/>
       <c r="C206" s="19"/>
@@ -8209,7 +8254,7 @@
       <c r="N206" s="18"/>
       <c r="O206" s="20"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="21"/>
       <c r="B207" s="22"/>
       <c r="C207" s="23"/>
@@ -8226,7 +8271,7 @@
       <c r="N207" s="22"/>
       <c r="O207" s="17"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="21"/>
       <c r="B208" s="22"/>
       <c r="C208" s="23"/>
@@ -8243,7 +8288,7 @@
       <c r="N208" s="22"/>
       <c r="O208" s="17"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="25"/>
       <c r="B209" s="18"/>
       <c r="C209" s="19"/>
@@ -8260,7 +8305,7 @@
       <c r="N209" s="18"/>
       <c r="O209" s="20"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="25"/>
       <c r="B210" s="18"/>
       <c r="C210" s="19"/>
@@ -8277,7 +8322,7 @@
       <c r="N210" s="18"/>
       <c r="O210" s="20"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="25"/>
       <c r="B211" s="18"/>
       <c r="C211" s="19"/>
@@ -8294,7 +8339,7 @@
       <c r="N211" s="18"/>
       <c r="O211" s="20"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="25"/>
       <c r="B212" s="18"/>
       <c r="C212" s="19"/>
@@ -8311,7 +8356,7 @@
       <c r="N212" s="18"/>
       <c r="O212" s="20"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="25"/>
       <c r="B213" s="18"/>
       <c r="C213" s="19"/>
@@ -8328,7 +8373,7 @@
       <c r="N213" s="18"/>
       <c r="O213" s="20"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="21"/>
       <c r="B214" s="22"/>
       <c r="C214" s="23"/>
@@ -8345,7 +8390,7 @@
       <c r="N214" s="22"/>
       <c r="O214" s="17"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="21"/>
       <c r="B215" s="22"/>
       <c r="C215" s="23"/>
@@ -8362,7 +8407,7 @@
       <c r="N215" s="22"/>
       <c r="O215" s="17"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="25"/>
       <c r="B216" s="18"/>
       <c r="C216" s="19"/>
@@ -8379,7 +8424,7 @@
       <c r="N216" s="18"/>
       <c r="O216" s="20"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="25"/>
       <c r="B217" s="18"/>
       <c r="C217" s="19"/>
@@ -8396,7 +8441,7 @@
       <c r="N217" s="18"/>
       <c r="O217" s="20"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="25"/>
       <c r="B218" s="18"/>
       <c r="C218" s="19"/>
@@ -8413,7 +8458,7 @@
       <c r="N218" s="18"/>
       <c r="O218" s="20"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="25"/>
       <c r="B219" s="18"/>
       <c r="C219" s="19"/>
@@ -8430,7 +8475,7 @@
       <c r="N219" s="18"/>
       <c r="O219" s="20"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="25"/>
       <c r="B220" s="18"/>
       <c r="C220" s="19"/>
@@ -8447,7 +8492,7 @@
       <c r="N220" s="18"/>
       <c r="O220" s="20"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="21"/>
       <c r="B221" s="22"/>
       <c r="C221" s="23"/>
@@ -8464,7 +8509,7 @@
       <c r="N221" s="22"/>
       <c r="O221" s="17"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="21"/>
       <c r="B222" s="22"/>
       <c r="C222" s="23"/>
@@ -8481,7 +8526,7 @@
       <c r="N222" s="22"/>
       <c r="O222" s="17"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="25"/>
       <c r="B223" s="18"/>
       <c r="C223" s="19"/>
@@ -8498,7 +8543,7 @@
       <c r="N223" s="18"/>
       <c r="O223" s="20"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="25"/>
       <c r="B224" s="18"/>
       <c r="C224" s="19"/>
@@ -8515,7 +8560,7 @@
       <c r="N224" s="18"/>
       <c r="O224" s="20"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="25"/>
       <c r="B225" s="18"/>
       <c r="C225" s="19"/>
@@ -8532,7 +8577,7 @@
       <c r="N225" s="18"/>
       <c r="O225" s="20"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="25"/>
       <c r="B226" s="18"/>
       <c r="C226" s="19"/>
@@ -8549,7 +8594,7 @@
       <c r="N226" s="18"/>
       <c r="O226" s="20"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="25"/>
       <c r="B227" s="18"/>
       <c r="C227" s="19"/>
@@ -8566,7 +8611,7 @@
       <c r="N227" s="18"/>
       <c r="O227" s="20"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="21"/>
       <c r="B228" s="22"/>
       <c r="C228" s="23"/>
@@ -8583,7 +8628,7 @@
       <c r="N228" s="22"/>
       <c r="O228" s="17"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="21"/>
       <c r="B229" s="22"/>
       <c r="C229" s="23"/>
@@ -8600,7 +8645,7 @@
       <c r="N229" s="22"/>
       <c r="O229" s="17"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="25"/>
       <c r="B230" s="18"/>
       <c r="C230" s="19"/>
@@ -8617,7 +8662,7 @@
       <c r="N230" s="18"/>
       <c r="O230" s="20"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="25"/>
       <c r="B231" s="18"/>
       <c r="C231" s="19"/>
@@ -8634,7 +8679,7 @@
       <c r="N231" s="18"/>
       <c r="O231" s="20"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="25"/>
       <c r="B232" s="18"/>
       <c r="C232" s="19"/>
@@ -8651,7 +8696,7 @@
       <c r="N232" s="18"/>
       <c r="O232" s="20"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="25"/>
       <c r="B233" s="18"/>
       <c r="C233" s="19"/>
@@ -8668,7 +8713,7 @@
       <c r="N233" s="18"/>
       <c r="O233" s="20"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="25"/>
       <c r="B234" s="18"/>
       <c r="C234" s="19"/>
@@ -8685,7 +8730,7 @@
       <c r="N234" s="18"/>
       <c r="O234" s="20"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="21"/>
       <c r="B235" s="22"/>
       <c r="C235" s="23"/>
@@ -8702,7 +8747,7 @@
       <c r="N235" s="22"/>
       <c r="O235" s="17"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="21"/>
       <c r="B236" s="22"/>
       <c r="C236" s="23"/>
@@ -8719,7 +8764,7 @@
       <c r="N236" s="22"/>
       <c r="O236" s="17"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="25"/>
       <c r="B237" s="18"/>
       <c r="C237" s="19"/>
@@ -8736,7 +8781,7 @@
       <c r="N237" s="18"/>
       <c r="O237" s="20"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="25"/>
       <c r="B238" s="18"/>
       <c r="C238" s="19"/>
@@ -8753,7 +8798,7 @@
       <c r="N238" s="18"/>
       <c r="O238" s="20"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="25"/>
       <c r="B239" s="18"/>
       <c r="C239" s="19"/>
@@ -8770,7 +8815,7 @@
       <c r="N239" s="18"/>
       <c r="O239" s="20"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="25"/>
       <c r="B240" s="18"/>
       <c r="C240" s="19"/>
@@ -8787,7 +8832,7 @@
       <c r="N240" s="18"/>
       <c r="O240" s="20"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="25"/>
       <c r="B241" s="18"/>
       <c r="C241" s="19"/>
@@ -8804,7 +8849,7 @@
       <c r="N241" s="18"/>
       <c r="O241" s="20"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="21"/>
       <c r="B242" s="22"/>
       <c r="C242" s="23"/>
@@ -8821,7 +8866,7 @@
       <c r="N242" s="22"/>
       <c r="O242" s="17"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="21"/>
       <c r="B243" s="22"/>
       <c r="C243" s="23"/>
@@ -8838,7 +8883,7 @@
       <c r="N243" s="22"/>
       <c r="O243" s="17"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="25"/>
       <c r="B244" s="18"/>
       <c r="C244" s="19"/>
@@ -8855,7 +8900,7 @@
       <c r="N244" s="18"/>
       <c r="O244" s="20"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="25"/>
       <c r="B245" s="18"/>
       <c r="C245" s="19"/>
@@ -8872,7 +8917,7 @@
       <c r="N245" s="18"/>
       <c r="O245" s="20"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="25"/>
       <c r="B246" s="18"/>
       <c r="C246" s="19"/>
@@ -8889,7 +8934,7 @@
       <c r="N246" s="18"/>
       <c r="O246" s="20"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="25"/>
       <c r="B247" s="18"/>
       <c r="C247" s="19"/>
@@ -8906,7 +8951,7 @@
       <c r="N247" s="18"/>
       <c r="O247" s="20"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="25"/>
       <c r="B248" s="18"/>
       <c r="C248" s="19"/>
@@ -8923,7 +8968,7 @@
       <c r="N248" s="18"/>
       <c r="O248" s="20"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="21"/>
       <c r="B249" s="22"/>
       <c r="C249" s="23"/>
@@ -8940,7 +8985,7 @@
       <c r="N249" s="22"/>
       <c r="O249" s="17"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="21"/>
       <c r="B250" s="22"/>
       <c r="C250" s="23"/>
@@ -8957,7 +9002,7 @@
       <c r="N250" s="22"/>
       <c r="O250" s="17"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="25"/>
       <c r="B251" s="18"/>
       <c r="C251" s="19"/>
@@ -8974,7 +9019,7 @@
       <c r="N251" s="18"/>
       <c r="O251" s="20"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="25"/>
       <c r="B252" s="18"/>
       <c r="C252" s="19"/>
@@ -8991,7 +9036,7 @@
       <c r="N252" s="18"/>
       <c r="O252" s="20"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="25"/>
       <c r="B253" s="18"/>
       <c r="C253" s="19"/>
@@ -9008,7 +9053,7 @@
       <c r="N253" s="18"/>
       <c r="O253" s="20"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="25"/>
       <c r="B254" s="18"/>
       <c r="C254" s="19"/>
@@ -9025,7 +9070,7 @@
       <c r="N254" s="18"/>
       <c r="O254" s="20"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="25"/>
       <c r="B255" s="18"/>
       <c r="C255" s="19"/>
@@ -9042,7 +9087,7 @@
       <c r="N255" s="18"/>
       <c r="O255" s="20"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="21"/>
       <c r="B256" s="22"/>
       <c r="C256" s="23"/>
@@ -9059,7 +9104,7 @@
       <c r="N256" s="22"/>
       <c r="O256" s="17"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="21"/>
       <c r="B257" s="22"/>
       <c r="C257" s="23"/>
@@ -9076,7 +9121,7 @@
       <c r="N257" s="22"/>
       <c r="O257" s="17"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="25"/>
       <c r="B258" s="18"/>
       <c r="C258" s="19"/>
@@ -9093,7 +9138,7 @@
       <c r="N258" s="18"/>
       <c r="O258" s="20"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="25"/>
       <c r="B259" s="18"/>
       <c r="C259" s="19"/>
@@ -9110,7 +9155,7 @@
       <c r="N259" s="18"/>
       <c r="O259" s="20"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="25"/>
       <c r="B260" s="18"/>
       <c r="C260" s="19"/>
@@ -9127,7 +9172,7 @@
       <c r="N260" s="18"/>
       <c r="O260" s="20"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="25"/>
       <c r="B261" s="18"/>
       <c r="C261" s="19"/>
@@ -9144,7 +9189,7 @@
       <c r="N261" s="18"/>
       <c r="O261" s="20"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="25"/>
       <c r="B262" s="18"/>
       <c r="C262" s="19"/>
@@ -9161,7 +9206,7 @@
       <c r="N262" s="18"/>
       <c r="O262" s="20"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="21"/>
       <c r="B263" s="22"/>
       <c r="C263" s="23"/>
@@ -9178,7 +9223,7 @@
       <c r="N263" s="22"/>
       <c r="O263" s="17"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="21"/>
       <c r="B264" s="22"/>
       <c r="C264" s="23"/>
@@ -9195,7 +9240,7 @@
       <c r="N264" s="22"/>
       <c r="O264" s="17"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="25"/>
       <c r="B265" s="18"/>
       <c r="C265" s="19"/>
@@ -9212,7 +9257,7 @@
       <c r="N265" s="18"/>
       <c r="O265" s="20"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="25"/>
       <c r="B266" s="18"/>
       <c r="C266" s="19"/>
@@ -9229,7 +9274,7 @@
       <c r="N266" s="18"/>
       <c r="O266" s="20"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="25"/>
       <c r="B267" s="18"/>
       <c r="C267" s="19"/>
@@ -9246,7 +9291,7 @@
       <c r="N267" s="18"/>
       <c r="O267" s="20"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="25"/>
       <c r="B268" s="18"/>
       <c r="C268" s="19"/>
@@ -9263,7 +9308,7 @@
       <c r="N268" s="18"/>
       <c r="O268" s="20"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="25"/>
       <c r="B269" s="18"/>
       <c r="C269" s="19"/>
@@ -9280,7 +9325,7 @@
       <c r="N269" s="18"/>
       <c r="O269" s="20"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="21"/>
       <c r="B270" s="22"/>
       <c r="C270" s="23"/>
@@ -9297,7 +9342,7 @@
       <c r="N270" s="22"/>
       <c r="O270" s="17"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="21"/>
       <c r="B271" s="22"/>
       <c r="C271" s="23"/>
@@ -9314,7 +9359,7 @@
       <c r="N271" s="22"/>
       <c r="O271" s="17"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="25"/>
       <c r="B272" s="18"/>
       <c r="C272" s="19"/>
@@ -9331,7 +9376,7 @@
       <c r="N272" s="18"/>
       <c r="O272" s="20"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="25"/>
       <c r="B273" s="18"/>
       <c r="C273" s="19"/>
@@ -9348,7 +9393,7 @@
       <c r="N273" s="18"/>
       <c r="O273" s="20"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="25"/>
       <c r="B274" s="18"/>
       <c r="C274" s="19"/>
@@ -9365,7 +9410,7 @@
       <c r="N274" s="18"/>
       <c r="O274" s="20"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="25"/>
       <c r="B275" s="18"/>
       <c r="C275" s="19"/>
@@ -9382,7 +9427,7 @@
       <c r="N275" s="18"/>
       <c r="O275" s="20"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="25"/>
       <c r="B276" s="18"/>
       <c r="C276" s="19"/>
@@ -9399,7 +9444,7 @@
       <c r="N276" s="18"/>
       <c r="O276" s="20"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="21"/>
       <c r="B277" s="22"/>
       <c r="C277" s="23"/>
@@ -9416,7 +9461,7 @@
       <c r="N277" s="22"/>
       <c r="O277" s="17"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="21"/>
       <c r="B278" s="22"/>
       <c r="C278" s="23"/>
@@ -9433,7 +9478,7 @@
       <c r="N278" s="22"/>
       <c r="O278" s="17"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="25"/>
       <c r="B279" s="18"/>
       <c r="C279" s="19"/>
@@ -9450,7 +9495,7 @@
       <c r="N279" s="18"/>
       <c r="O279" s="20"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="25"/>
       <c r="B280" s="18"/>
       <c r="C280" s="19"/>
@@ -9467,7 +9512,7 @@
       <c r="N280" s="18"/>
       <c r="O280" s="20"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="25"/>
       <c r="B281" s="18"/>
       <c r="C281" s="19"/>
@@ -9484,7 +9529,7 @@
       <c r="N281" s="18"/>
       <c r="O281" s="20"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="25"/>
       <c r="B282" s="18"/>
       <c r="C282" s="19"/>
@@ -9501,7 +9546,7 @@
       <c r="N282" s="18"/>
       <c r="O282" s="20"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="25"/>
       <c r="B283" s="18"/>
       <c r="C283" s="19"/>
@@ -9518,7 +9563,7 @@
       <c r="N283" s="18"/>
       <c r="O283" s="20"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="21"/>
       <c r="B284" s="22"/>
       <c r="C284" s="23"/>
@@ -9535,7 +9580,7 @@
       <c r="N284" s="22"/>
       <c r="O284" s="17"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="21"/>
       <c r="B285" s="22"/>
       <c r="C285" s="23"/>
@@ -9552,7 +9597,7 @@
       <c r="N285" s="22"/>
       <c r="O285" s="17"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="25"/>
       <c r="B286" s="18"/>
       <c r="C286" s="19"/>
@@ -9569,7 +9614,7 @@
       <c r="N286" s="18"/>
       <c r="O286" s="20"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="25"/>
       <c r="B287" s="18"/>
       <c r="C287" s="19"/>
@@ -9586,7 +9631,7 @@
       <c r="N287" s="18"/>
       <c r="O287" s="20"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="25"/>
       <c r="B288" s="18"/>
       <c r="C288" s="19"/>
@@ -9603,7 +9648,7 @@
       <c r="N288" s="18"/>
       <c r="O288" s="20"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="25"/>
       <c r="B289" s="18"/>
       <c r="C289" s="19"/>
@@ -9620,7 +9665,7 @@
       <c r="N289" s="18"/>
       <c r="O289" s="20"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="25"/>
       <c r="B290" s="18"/>
       <c r="C290" s="19"/>
@@ -9637,7 +9682,7 @@
       <c r="N290" s="18"/>
       <c r="O290" s="20"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="21"/>
       <c r="B291" s="22"/>
       <c r="C291" s="23"/>
@@ -9654,7 +9699,7 @@
       <c r="N291" s="22"/>
       <c r="O291" s="17"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="21"/>
       <c r="B292" s="22"/>
       <c r="C292" s="23"/>
@@ -9671,7 +9716,7 @@
       <c r="N292" s="22"/>
       <c r="O292" s="17"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="25"/>
       <c r="B293" s="18"/>
       <c r="C293" s="19"/>
@@ -9688,7 +9733,7 @@
       <c r="N293" s="18"/>
       <c r="O293" s="20"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="25"/>
       <c r="B294" s="18"/>
       <c r="C294" s="19"/>
@@ -9705,7 +9750,7 @@
       <c r="N294" s="18"/>
       <c r="O294" s="20"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="25"/>
       <c r="B295" s="18"/>
       <c r="C295" s="19"/>
@@ -9722,7 +9767,7 @@
       <c r="N295" s="18"/>
       <c r="O295" s="20"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="25"/>
       <c r="B296" s="18"/>
       <c r="C296" s="19"/>
@@ -9739,7 +9784,7 @@
       <c r="N296" s="18"/>
       <c r="O296" s="20"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="25"/>
       <c r="B297" s="18"/>
       <c r="C297" s="19"/>
@@ -9756,7 +9801,7 @@
       <c r="N297" s="18"/>
       <c r="O297" s="20"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="21"/>
       <c r="B298" s="22"/>
       <c r="C298" s="23"/>
@@ -9773,7 +9818,7 @@
       <c r="N298" s="22"/>
       <c r="O298" s="17"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="21"/>
       <c r="B299" s="22"/>
       <c r="C299" s="23"/>
@@ -9790,7 +9835,7 @@
       <c r="N299" s="22"/>
       <c r="O299" s="17"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="25"/>
       <c r="B300" s="18"/>
       <c r="C300" s="19"/>
@@ -9807,7 +9852,7 @@
       <c r="N300" s="18"/>
       <c r="O300" s="20"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="25"/>
       <c r="B301" s="18"/>
       <c r="C301" s="19"/>
@@ -9824,7 +9869,7 @@
       <c r="N301" s="18"/>
       <c r="O301" s="20"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="25"/>
       <c r="B302" s="18"/>
       <c r="C302" s="19"/>
@@ -9841,7 +9886,7 @@
       <c r="N302" s="18"/>
       <c r="O302" s="20"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="25"/>
       <c r="B303" s="18"/>
       <c r="C303" s="19"/>
@@ -9858,7 +9903,7 @@
       <c r="N303" s="18"/>
       <c r="O303" s="20"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="25"/>
       <c r="B304" s="18"/>
       <c r="C304" s="19"/>
@@ -9875,7 +9920,7 @@
       <c r="N304" s="18"/>
       <c r="O304" s="20"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="21"/>
       <c r="B305" s="22"/>
       <c r="C305" s="23"/>
@@ -9892,7 +9937,7 @@
       <c r="N305" s="22"/>
       <c r="O305" s="17"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="21"/>
       <c r="B306" s="22"/>
       <c r="C306" s="23"/>
@@ -9909,7 +9954,7 @@
       <c r="N306" s="22"/>
       <c r="O306" s="17"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="25"/>
       <c r="B307" s="18"/>
       <c r="C307" s="19"/>
@@ -9926,7 +9971,7 @@
       <c r="N307" s="18"/>
       <c r="O307" s="20"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="25"/>
       <c r="B308" s="18"/>
       <c r="C308" s="19"/>
@@ -9943,7 +9988,7 @@
       <c r="N308" s="18"/>
       <c r="O308" s="20"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="25"/>
       <c r="B309" s="18"/>
       <c r="C309" s="19"/>
@@ -9960,7 +10005,7 @@
       <c r="N309" s="18"/>
       <c r="O309" s="20"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="25"/>
       <c r="B310" s="18"/>
       <c r="C310" s="19"/>
@@ -9977,7 +10022,7 @@
       <c r="N310" s="18"/>
       <c r="O310" s="20"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="25"/>
       <c r="B311" s="18"/>
       <c r="C311" s="19"/>
@@ -9994,7 +10039,7 @@
       <c r="N311" s="18"/>
       <c r="O311" s="20"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="21"/>
       <c r="B312" s="22"/>
       <c r="C312" s="23"/>
@@ -10011,7 +10056,7 @@
       <c r="N312" s="22"/>
       <c r="O312" s="17"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="21"/>
       <c r="B313" s="22"/>
       <c r="C313" s="23"/>
@@ -10028,7 +10073,7 @@
       <c r="N313" s="22"/>
       <c r="O313" s="17"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="25"/>
       <c r="B314" s="18"/>
       <c r="C314" s="19"/>
@@ -10045,7 +10090,7 @@
       <c r="N314" s="18"/>
       <c r="O314" s="20"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="25"/>
       <c r="B315" s="18"/>
       <c r="C315" s="19"/>
@@ -10062,7 +10107,7 @@
       <c r="N315" s="18"/>
       <c r="O315" s="20"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="25"/>
       <c r="B316" s="18"/>
       <c r="C316" s="19"/>
@@ -10079,7 +10124,7 @@
       <c r="N316" s="18"/>
       <c r="O316" s="20"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="25"/>
       <c r="B317" s="18"/>
       <c r="C317" s="19"/>
@@ -10096,7 +10141,7 @@
       <c r="N317" s="18"/>
       <c r="O317" s="20"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="25"/>
       <c r="B318" s="18"/>
       <c r="C318" s="19"/>
@@ -10113,7 +10158,7 @@
       <c r="N318" s="18"/>
       <c r="O318" s="20"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="21"/>
       <c r="B319" s="22"/>
       <c r="C319" s="23"/>
@@ -10130,7 +10175,7 @@
       <c r="N319" s="22"/>
       <c r="O319" s="17"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="21"/>
       <c r="B320" s="22"/>
       <c r="C320" s="23"/>
@@ -10147,7 +10192,7 @@
       <c r="N320" s="22"/>
       <c r="O320" s="17"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="25"/>
       <c r="B321" s="18"/>
       <c r="C321" s="19"/>
@@ -10164,7 +10209,7 @@
       <c r="N321" s="18"/>
       <c r="O321" s="20"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="25"/>
       <c r="B322" s="18"/>
       <c r="C322" s="19"/>
@@ -10181,7 +10226,7 @@
       <c r="N322" s="18"/>
       <c r="O322" s="20"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="25"/>
       <c r="B323" s="18"/>
       <c r="C323" s="19"/>
@@ -10198,7 +10243,7 @@
       <c r="N323" s="18"/>
       <c r="O323" s="20"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="25"/>
       <c r="B324" s="18"/>
       <c r="C324" s="19"/>
@@ -10215,7 +10260,7 @@
       <c r="N324" s="18"/>
       <c r="O324" s="20"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="25"/>
       <c r="B325" s="18"/>
       <c r="C325" s="19"/>
@@ -10232,7 +10277,7 @@
       <c r="N325" s="18"/>
       <c r="O325" s="20"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="21"/>
       <c r="B326" s="22"/>
       <c r="C326" s="23"/>
@@ -10249,7 +10294,7 @@
       <c r="N326" s="22"/>
       <c r="O326" s="17"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="21"/>
       <c r="B327" s="22"/>
       <c r="C327" s="23"/>
@@ -10266,7 +10311,7 @@
       <c r="N327" s="22"/>
       <c r="O327" s="17"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="25"/>
       <c r="B328" s="18"/>
       <c r="C328" s="19"/>
@@ -10283,7 +10328,7 @@
       <c r="N328" s="18"/>
       <c r="O328" s="20"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="25"/>
       <c r="B329" s="18"/>
       <c r="C329" s="19"/>
@@ -10300,7 +10345,7 @@
       <c r="N329" s="18"/>
       <c r="O329" s="20"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="25"/>
       <c r="B330" s="18"/>
       <c r="C330" s="19"/>
@@ -10317,7 +10362,7 @@
       <c r="N330" s="18"/>
       <c r="O330" s="20"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="25"/>
       <c r="B331" s="18"/>
       <c r="C331" s="19"/>
@@ -10334,7 +10379,7 @@
       <c r="N331" s="18"/>
       <c r="O331" s="20"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="25"/>
       <c r="B332" s="18"/>
       <c r="C332" s="19"/>
@@ -10351,7 +10396,7 @@
       <c r="N332" s="18"/>
       <c r="O332" s="20"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="21"/>
       <c r="B333" s="22"/>
       <c r="C333" s="23"/>
@@ -10368,7 +10413,7 @@
       <c r="N333" s="22"/>
       <c r="O333" s="17"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="21"/>
       <c r="B334" s="22"/>
       <c r="C334" s="23"/>
@@ -10385,7 +10430,7 @@
       <c r="N334" s="22"/>
       <c r="O334" s="17"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="25"/>
       <c r="B335" s="18"/>
       <c r="C335" s="19"/>
@@ -10402,7 +10447,7 @@
       <c r="N335" s="18"/>
       <c r="O335" s="20"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="25"/>
       <c r="B336" s="18"/>
       <c r="C336" s="19"/>
@@ -10419,7 +10464,7 @@
       <c r="N336" s="18"/>
       <c r="O336" s="20"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="25"/>
       <c r="B337" s="18"/>
       <c r="C337" s="19"/>
@@ -10436,7 +10481,7 @@
       <c r="N337" s="18"/>
       <c r="O337" s="20"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="25"/>
       <c r="B338" s="18"/>
       <c r="C338" s="19"/>
@@ -10453,7 +10498,7 @@
       <c r="N338" s="18"/>
       <c r="O338" s="20"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="25"/>
       <c r="B339" s="18"/>
       <c r="C339" s="19"/>
@@ -10470,7 +10515,7 @@
       <c r="N339" s="18"/>
       <c r="O339" s="20"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="21"/>
       <c r="B340" s="22"/>
       <c r="C340" s="23"/>
@@ -10487,7 +10532,7 @@
       <c r="N340" s="22"/>
       <c r="O340" s="17"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="21"/>
       <c r="B341" s="22"/>
       <c r="C341" s="23"/>
@@ -10504,7 +10549,7 @@
       <c r="N341" s="22"/>
       <c r="O341" s="17"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="25"/>
       <c r="B342" s="18"/>
       <c r="C342" s="19"/>
@@ -10521,7 +10566,7 @@
       <c r="N342" s="18"/>
       <c r="O342" s="20"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="25"/>
       <c r="B343" s="18"/>
       <c r="C343" s="19"/>
@@ -10538,7 +10583,7 @@
       <c r="N343" s="18"/>
       <c r="O343" s="20"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="25"/>
       <c r="B344" s="18"/>
       <c r="C344" s="19"/>
@@ -10555,7 +10600,7 @@
       <c r="N344" s="18"/>
       <c r="O344" s="20"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="25"/>
       <c r="B345" s="18"/>
       <c r="C345" s="19"/>
@@ -10572,7 +10617,7 @@
       <c r="N345" s="18"/>
       <c r="O345" s="20"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="25"/>
       <c r="B346" s="18"/>
       <c r="C346" s="19"/>
@@ -10589,7 +10634,7 @@
       <c r="N346" s="18"/>
       <c r="O346" s="20"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="21"/>
       <c r="B347" s="22"/>
       <c r="C347" s="23"/>
@@ -10606,7 +10651,7 @@
       <c r="N347" s="22"/>
       <c r="O347" s="17"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="21"/>
       <c r="B348" s="22"/>
       <c r="C348" s="23"/>
@@ -10623,7 +10668,7 @@
       <c r="N348" s="22"/>
       <c r="O348" s="17"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="25"/>
       <c r="B349" s="18"/>
       <c r="C349" s="19"/>
@@ -10640,7 +10685,7 @@
       <c r="N349" s="18"/>
       <c r="O349" s="20"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="25"/>
       <c r="B350" s="18"/>
       <c r="C350" s="19"/>
@@ -10657,7 +10702,7 @@
       <c r="N350" s="18"/>
       <c r="O350" s="20"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="25"/>
       <c r="B351" s="18"/>
       <c r="C351" s="19"/>
@@ -10674,7 +10719,7 @@
       <c r="N351" s="18"/>
       <c r="O351" s="20"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="25"/>
       <c r="B352" s="18"/>
       <c r="C352" s="19"/>
@@ -10691,7 +10736,7 @@
       <c r="N352" s="18"/>
       <c r="O352" s="20"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="25"/>
       <c r="B353" s="18"/>
       <c r="C353" s="19"/>
@@ -10708,7 +10753,7 @@
       <c r="N353" s="18"/>
       <c r="O353" s="20"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="21"/>
       <c r="B354" s="22"/>
       <c r="C354" s="23"/>
@@ -10725,7 +10770,7 @@
       <c r="N354" s="22"/>
       <c r="O354" s="17"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="21"/>
       <c r="B355" s="22"/>
       <c r="C355" s="23"/>
@@ -10742,7 +10787,7 @@
       <c r="N355" s="22"/>
       <c r="O355" s="17"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="25"/>
       <c r="B356" s="18"/>
       <c r="C356" s="19"/>
@@ -10759,7 +10804,7 @@
       <c r="N356" s="18"/>
       <c r="O356" s="20"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="25"/>
       <c r="B357" s="18"/>
       <c r="C357" s="19"/>
@@ -10776,7 +10821,7 @@
       <c r="N357" s="18"/>
       <c r="O357" s="20"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="25"/>
       <c r="B358" s="18"/>
       <c r="C358" s="19"/>
@@ -10793,7 +10838,7 @@
       <c r="N358" s="18"/>
       <c r="O358" s="20"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="25"/>
       <c r="B359" s="18"/>
       <c r="C359" s="19"/>
@@ -10810,7 +10855,7 @@
       <c r="N359" s="18"/>
       <c r="O359" s="20"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="25"/>
       <c r="B360" s="18"/>
       <c r="C360" s="19"/>
@@ -10827,7 +10872,7 @@
       <c r="N360" s="18"/>
       <c r="O360" s="20"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="21"/>
       <c r="B361" s="22"/>
       <c r="C361" s="23"/>
@@ -10844,7 +10889,7 @@
       <c r="N361" s="22"/>
       <c r="O361" s="17"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="21"/>
       <c r="B362" s="22"/>
       <c r="C362" s="23"/>
@@ -10861,7 +10906,7 @@
       <c r="N362" s="22"/>
       <c r="O362" s="17"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="25"/>
       <c r="B363" s="18"/>
       <c r="C363" s="19"/>
@@ -10878,7 +10923,7 @@
       <c r="N363" s="18"/>
       <c r="O363" s="20"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="25"/>
       <c r="B364" s="18"/>
       <c r="C364" s="19"/>
@@ -10895,7 +10940,7 @@
       <c r="N364" s="18"/>
       <c r="O364" s="20"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="25"/>
       <c r="B365" s="18"/>
       <c r="C365" s="19"/>
@@ -10912,7 +10957,7 @@
       <c r="N365" s="18"/>
       <c r="O365" s="20"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="25"/>
       <c r="B366" s="18"/>
       <c r="C366" s="19"/>
@@ -10965,13 +11010,13 @@
       <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="13" width="5.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="13" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="39" t="s">
         <v>4</v>
@@ -10994,7 +11039,7 @@
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -11033,7 +11078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -11075,18 +11120,18 @@
       </c>
       <c r="K4" s="3">
         <f>AVERAGE('ежедневные данные'!K2:K8)</f>
-        <v>126.16666666666667</v>
+        <v>126.71428571428571</v>
       </c>
       <c r="L4" s="3">
         <f>AVERAGE('ежедневные данные'!L2:L8)</f>
-        <v>82.333333333333329</v>
+        <v>82.714285714285708</v>
       </c>
       <c r="M4" s="3">
         <f>AVERAGE('ежедневные данные'!M2:M8)</f>
-        <v>99.666666666666671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <v>100.14285714285714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -11139,7 +11184,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -11192,7 +11237,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -11245,7 +11290,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -11298,7 +11343,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -11351,7 +11396,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -11404,7 +11449,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -11457,7 +11502,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
@@ -11510,7 +11555,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
@@ -11563,7 +11608,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
@@ -11616,7 +11661,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>31</v>
       </c>
@@ -11669,7 +11714,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
@@ -11722,7 +11767,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
@@ -11775,7 +11820,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
@@ -11828,7 +11873,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
@@ -11881,7 +11926,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
@@ -11934,7 +11979,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>37</v>
       </c>
@@ -11987,7 +12032,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>38</v>
       </c>
@@ -12040,7 +12085,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>39</v>
       </c>
@@ -12093,7 +12138,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>40</v>
       </c>
@@ -12146,7 +12191,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>41</v>
       </c>
@@ -12199,7 +12244,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>42</v>
       </c>
@@ -12252,7 +12297,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
@@ -12305,7 +12350,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>44</v>
       </c>
@@ -12358,7 +12403,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>45</v>
       </c>
@@ -12411,7 +12456,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>46</v>
       </c>
@@ -12464,7 +12509,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>47</v>
       </c>
@@ -12517,7 +12562,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>48</v>
       </c>
@@ -12570,7 +12615,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>49</v>
       </c>
@@ -12623,7 +12668,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>50</v>
       </c>
@@ -12676,7 +12721,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>51</v>
       </c>
@@ -12729,7 +12774,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>52</v>
       </c>
@@ -12782,7 +12827,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>53</v>
       </c>
@@ -12835,7 +12880,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>54</v>
       </c>
@@ -12888,7 +12933,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>55</v>
       </c>
@@ -12941,7 +12986,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>56</v>
       </c>
@@ -12994,7 +13039,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>57</v>
       </c>
@@ -13047,7 +13092,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>58</v>
       </c>
@@ -13100,7 +13145,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>59</v>
       </c>
@@ -13153,7 +13198,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -13206,7 +13251,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -13259,7 +13304,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -13312,7 +13357,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
@@ -13365,7 +13410,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
@@ -13418,7 +13463,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -13471,7 +13516,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -13524,7 +13569,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -13577,7 +13622,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
@@ -13630,7 +13675,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
@@ -13683,7 +13728,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
@@ -13736,7 +13781,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
@@ -13810,15 +13855,15 @@
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="14" width="5.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="14" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="1"/>
       <c r="C2" s="40" t="s">
@@ -13842,7 +13887,7 @@
       <c r="M2" s="41"/>
       <c r="N2" s="42"/>
     </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="11" t="s">
@@ -13882,7 +13927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>42005</v>
       </c>
@@ -13927,18 +13972,18 @@
       </c>
       <c r="L4" s="12">
         <f>AVERAGE('ежедневные данные'!K2:K15)</f>
-        <v>126.16666666666667</v>
+        <v>126.71428571428571</v>
       </c>
       <c r="M4" s="12">
         <f>AVERAGE('ежедневные данные'!L2:L15)</f>
-        <v>82.333333333333329</v>
+        <v>82.714285714285708</v>
       </c>
       <c r="N4" s="12">
         <f>AVERAGE('ежедневные данные'!M2:M15)</f>
-        <v>99.666666666666671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+        <v>100.14285714285714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>42019</v>
       </c>
@@ -13994,7 +14039,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>42033</v>
       </c>
@@ -14106,7 +14151,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>42061</v>
       </c>
@@ -14162,7 +14207,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>42075</v>
       </c>
@@ -14218,7 +14263,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>42089</v>
       </c>
@@ -14330,7 +14375,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>42117</v>
       </c>
@@ -14386,7 +14431,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>42131</v>
       </c>
@@ -14442,7 +14487,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>42145</v>
       </c>
@@ -14554,7 +14599,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>42173</v>
       </c>
@@ -14610,7 +14655,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>42187</v>
       </c>
@@ -14666,7 +14711,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>42201</v>
       </c>
@@ -14778,7 +14823,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>42229</v>
       </c>
@@ -14834,7 +14879,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>42243</v>
       </c>
@@ -14890,7 +14935,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>42257</v>
       </c>
@@ -15002,7 +15047,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>42285</v>
       </c>
@@ -15058,7 +15103,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>42299</v>
       </c>
@@ -15114,7 +15159,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>42313</v>
       </c>
@@ -15226,7 +15271,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>42341</v>
       </c>
@@ -15282,7 +15327,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>42355</v>
       </c>
